--- a/実験/実験データまとめ.xlsx
+++ b/実験/実験データまとめ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashimayu/Desktop/lab/実験/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE0924B-605A-CE48-992A-0A180FBD8BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F12B3E-9826-4141-AFC8-DD164A2EFD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="0" windowWidth="24200" windowHeight="22400" xr2:uid="{20293A05-F4A6-7F46-BCD8-EE73CE0C7222}"/>
+    <workbookView xWindow="9540" yWindow="500" windowWidth="24200" windowHeight="19580" firstSheet="3" activeTab="15" xr2:uid="{20293A05-F4A6-7F46-BCD8-EE73CE0C7222}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC86D786-9FD8-AB4B-8B36-39E1BD961FCC}">
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -2120,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E459E3-483B-7C43-B8D3-FD8B5679524B}">
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2152,6 +2152,9 @@
       <c r="B3">
         <v>108</v>
       </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
       <c r="D3">
         <v>1</v>
       </c>
@@ -2164,6 +2167,9 @@
       <c r="B4">
         <v>90</v>
       </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
       <c r="D4">
         <v>1</v>
       </c>
@@ -2176,6 +2182,9 @@
       <c r="B5">
         <v>36</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5">
         <v>1</v>
       </c>
@@ -2188,6 +2197,9 @@
       <c r="B6">
         <v>19</v>
       </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
       <c r="D6">
         <v>1</v>
       </c>
@@ -2200,6 +2212,9 @@
       <c r="B7">
         <v>76</v>
       </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
       <c r="D7">
         <v>1</v>
       </c>
@@ -2212,6 +2227,9 @@
       <c r="B8">
         <v>121</v>
       </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
       <c r="D8">
         <v>1</v>
       </c>
@@ -2224,6 +2242,9 @@
       <c r="B9">
         <v>43</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="D9">
         <v>1</v>
       </c>
@@ -2236,6 +2257,9 @@
       <c r="B10">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
       <c r="D10">
         <v>1</v>
       </c>
@@ -2248,6 +2272,9 @@
       <c r="B11">
         <v>73</v>
       </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
       <c r="D11">
         <v>1</v>
       </c>
@@ -2260,6 +2287,9 @@
       <c r="B12">
         <v>64</v>
       </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
       <c r="D12">
         <v>1</v>
       </c>
@@ -2272,6 +2302,9 @@
       <c r="B13">
         <v>68</v>
       </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
       <c r="D13">
         <v>1</v>
       </c>
@@ -2284,6 +2317,9 @@
       <c r="B14">
         <v>79</v>
       </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
       <c r="D14">
         <v>1</v>
       </c>
@@ -2296,6 +2332,9 @@
       <c r="B15">
         <v>33</v>
       </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
       <c r="D15">
         <v>1</v>
       </c>
@@ -2308,6 +2347,9 @@
       <c r="B16">
         <v>129</v>
       </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
       <c r="D16">
         <v>1</v>
       </c>
@@ -2320,6 +2362,9 @@
       <c r="B17">
         <v>59</v>
       </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
       <c r="D17">
         <v>1</v>
       </c>
@@ -2332,6 +2377,9 @@
       <c r="B18">
         <v>41</v>
       </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
       <c r="D18">
         <v>1</v>
       </c>
@@ -2344,6 +2392,9 @@
       <c r="B19">
         <v>120</v>
       </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
       <c r="D19">
         <v>1</v>
       </c>
@@ -2356,6 +2407,9 @@
       <c r="B20">
         <v>65</v>
       </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
       <c r="D20">
         <v>1</v>
       </c>
@@ -2368,6 +2422,9 @@
       <c r="B21">
         <v>101</v>
       </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
       <c r="D21">
         <v>1</v>
       </c>
@@ -2379,6 +2436,9 @@
       </c>
       <c r="B22">
         <v>94</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2392,6 +2452,9 @@
       <c r="B23">
         <v>114</v>
       </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
       <c r="D23">
         <v>1</v>
       </c>
@@ -2404,6 +2467,9 @@
       <c r="B24">
         <v>82</v>
       </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
       <c r="D24">
         <v>1</v>
       </c>
@@ -2416,6 +2482,9 @@
       <c r="B25">
         <v>86</v>
       </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
       <c r="D25">
         <v>1</v>
       </c>
@@ -2428,6 +2497,9 @@
       <c r="B26">
         <v>95</v>
       </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
       <c r="D26">
         <v>1</v>
       </c>
@@ -2440,6 +2512,9 @@
       <c r="B27">
         <v>107</v>
       </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
       <c r="D27">
         <v>1</v>
       </c>
@@ -2452,6 +2527,9 @@
       <c r="B28">
         <v>58</v>
       </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
       <c r="D28">
         <v>1</v>
       </c>
@@ -2464,6 +2542,9 @@
       <c r="B29">
         <v>54</v>
       </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
       <c r="D29">
         <v>1</v>
       </c>
@@ -2476,6 +2557,9 @@
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
       <c r="D30">
         <v>1</v>
       </c>
@@ -2488,6 +2572,9 @@
       <c r="B31">
         <v>105</v>
       </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
       <c r="D31">
         <v>1</v>
       </c>
@@ -2500,6 +2587,9 @@
       <c r="B32">
         <v>20</v>
       </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
       <c r="D32">
         <v>1</v>
       </c>
@@ -2512,6 +2602,9 @@
       <c r="B33">
         <v>78</v>
       </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
       <c r="D33">
         <v>1</v>
       </c>
@@ -2524,6 +2617,9 @@
       <c r="B34">
         <v>97</v>
       </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
       <c r="D34">
         <v>2</v>
       </c>
@@ -2536,6 +2632,9 @@
       <c r="B35">
         <v>112</v>
       </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
       <c r="D35">
         <v>2</v>
       </c>
@@ -2548,6 +2647,9 @@
       <c r="B36">
         <v>87</v>
       </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
       <c r="D36">
         <v>2</v>
       </c>
@@ -2560,6 +2662,9 @@
       <c r="B37">
         <v>50</v>
       </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
       <c r="D37">
         <v>2</v>
       </c>
@@ -2572,6 +2677,9 @@
       <c r="B38">
         <v>111</v>
       </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
       <c r="D38">
         <v>2</v>
       </c>
@@ -2583,6 +2691,9 @@
       </c>
       <c r="B39">
         <v>14</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2596,6 +2707,9 @@
       <c r="B40">
         <v>69</v>
       </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
       <c r="D40">
         <v>2</v>
       </c>
@@ -2608,6 +2722,9 @@
       <c r="B41">
         <v>103</v>
       </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
       <c r="D41">
         <v>2</v>
       </c>
@@ -2620,6 +2737,9 @@
       <c r="B42">
         <v>99</v>
       </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
       <c r="D42">
         <v>2</v>
       </c>
@@ -2632,6 +2752,9 @@
       <c r="B43">
         <v>70</v>
       </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
       <c r="D43">
         <v>2</v>
       </c>
@@ -2644,6 +2767,9 @@
       <c r="B44">
         <v>48</v>
       </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
       <c r="D44">
         <v>2</v>
       </c>
@@ -2656,6 +2782,9 @@
       <c r="B45">
         <v>93</v>
       </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
       <c r="D45">
         <v>2</v>
       </c>
@@ -2668,6 +2797,9 @@
       <c r="B46">
         <v>7</v>
       </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
       <c r="D46">
         <v>2</v>
       </c>
@@ -2680,6 +2812,9 @@
       <c r="B47">
         <v>38</v>
       </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
       <c r="D47">
         <v>2</v>
       </c>
@@ -2692,6 +2827,9 @@
       <c r="B48">
         <v>109</v>
       </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
       <c r="D48">
         <v>2</v>
       </c>
@@ -2704,6 +2842,9 @@
       <c r="B49">
         <v>56</v>
       </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
       <c r="D49">
         <v>2</v>
       </c>
@@ -2716,6 +2857,9 @@
       <c r="B50">
         <v>83</v>
       </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
       <c r="D50">
         <v>2</v>
       </c>
@@ -2728,6 +2872,9 @@
       <c r="B51">
         <v>96</v>
       </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
       <c r="D51">
         <v>2</v>
       </c>
@@ -2740,6 +2887,9 @@
       <c r="B52">
         <v>115</v>
       </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
       <c r="D52">
         <v>2</v>
       </c>
@@ -2752,6 +2902,9 @@
       <c r="B53">
         <v>132</v>
       </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
       <c r="D53">
         <v>2</v>
       </c>
@@ -2764,6 +2917,9 @@
       <c r="B54">
         <v>25</v>
       </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
       <c r="D54">
         <v>2</v>
       </c>
@@ -2776,6 +2932,9 @@
       <c r="B55">
         <v>71</v>
       </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
       <c r="D55">
         <v>2</v>
       </c>
@@ -2788,6 +2947,9 @@
       <c r="B56">
         <v>113</v>
       </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
       <c r="D56">
         <v>2</v>
       </c>
@@ -2800,6 +2962,9 @@
       <c r="B57">
         <v>67</v>
       </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
       <c r="D57">
         <v>2</v>
       </c>
@@ -2811,6 +2976,9 @@
       </c>
       <c r="B58">
         <v>134</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -2824,6 +2992,9 @@
       <c r="B59">
         <v>17</v>
       </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
       <c r="D59">
         <v>2</v>
       </c>
@@ -2836,6 +3007,9 @@
       <c r="B60">
         <v>123</v>
       </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
       <c r="D60">
         <v>2</v>
       </c>
@@ -2848,6 +3022,9 @@
       <c r="B61">
         <v>3</v>
       </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
       <c r="D61">
         <v>2</v>
       </c>
@@ -2860,6 +3037,9 @@
       <c r="B62">
         <v>133</v>
       </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
       <c r="D62">
         <v>2</v>
       </c>
@@ -2871,6 +3051,9 @@
       </c>
       <c r="B63">
         <v>106</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -2884,6 +3067,9 @@
       <c r="B64">
         <v>118</v>
       </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
       <c r="D64">
         <v>3</v>
       </c>
@@ -2896,6 +3082,9 @@
       <c r="B65">
         <v>63</v>
       </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
       <c r="D65">
         <v>3</v>
       </c>
@@ -2908,6 +3097,9 @@
       <c r="B66">
         <v>127</v>
       </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
       <c r="D66">
         <v>3</v>
       </c>
@@ -2920,6 +3112,9 @@
       <c r="B67">
         <v>16</v>
       </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
       <c r="D67">
         <v>3</v>
       </c>
@@ -2931,6 +3126,9 @@
       </c>
       <c r="B68">
         <v>124</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -2944,6 +3142,9 @@
       <c r="B69">
         <v>60</v>
       </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
       <c r="D69">
         <v>3</v>
       </c>
@@ -2956,6 +3157,9 @@
       <c r="B70">
         <v>24</v>
       </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
       <c r="D70">
         <v>3</v>
       </c>
@@ -2968,6 +3172,9 @@
       <c r="B71">
         <v>29</v>
       </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
       <c r="D71">
         <v>3</v>
       </c>
@@ -2980,6 +3187,9 @@
       <c r="B72">
         <v>91</v>
       </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
       <c r="D72">
         <v>3</v>
       </c>
@@ -2992,6 +3202,9 @@
       <c r="B73">
         <v>72</v>
       </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
       <c r="D73">
         <v>3</v>
       </c>
@@ -3004,6 +3217,9 @@
       <c r="B74">
         <v>130</v>
       </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
       <c r="D74">
         <v>3</v>
       </c>
@@ -3016,6 +3232,9 @@
       <c r="B75">
         <v>34</v>
       </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
       <c r="D75">
         <v>3</v>
       </c>
@@ -3028,6 +3247,9 @@
       <c r="B76">
         <v>51</v>
       </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
       <c r="D76">
         <v>3</v>
       </c>
@@ -3040,6 +3262,9 @@
       <c r="B77">
         <v>12</v>
       </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
       <c r="D77">
         <v>3</v>
       </c>
@@ -3052,6 +3277,9 @@
       <c r="B78">
         <v>6</v>
       </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
       <c r="D78">
         <v>3</v>
       </c>
@@ -3064,6 +3292,9 @@
       <c r="B79">
         <v>66</v>
       </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
       <c r="D79">
         <v>3</v>
       </c>
@@ -3076,6 +3307,9 @@
       <c r="B80">
         <v>45</v>
       </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
       <c r="D80">
         <v>3</v>
       </c>
@@ -3088,6 +3322,9 @@
       <c r="B81">
         <v>40</v>
       </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
       <c r="D81">
         <v>3</v>
       </c>
@@ -3100,6 +3337,9 @@
       <c r="B82">
         <v>126</v>
       </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
       <c r="D82">
         <v>3</v>
       </c>
@@ -3112,6 +3352,9 @@
       <c r="B83">
         <v>117</v>
       </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
       <c r="D83">
         <v>3</v>
       </c>
@@ -3124,6 +3367,9 @@
       <c r="B84">
         <v>10</v>
       </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
       <c r="D84">
         <v>3</v>
       </c>
@@ -3136,6 +3382,9 @@
       <c r="B85">
         <v>110</v>
       </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
       <c r="D85">
         <v>3</v>
       </c>
@@ -3148,6 +3397,9 @@
       <c r="B86">
         <v>37</v>
       </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
       <c r="D86">
         <v>3</v>
       </c>
@@ -3160,6 +3412,9 @@
       <c r="B87">
         <v>131</v>
       </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
       <c r="D87">
         <v>3</v>
       </c>
@@ -3172,6 +3427,9 @@
       <c r="B88">
         <v>104</v>
       </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
       <c r="D88">
         <v>3</v>
       </c>
@@ -3184,6 +3442,9 @@
       <c r="B89">
         <v>22</v>
       </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
       <c r="D89">
         <v>3</v>
       </c>
@@ -3196,6 +3457,9 @@
       <c r="B90">
         <v>39</v>
       </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
       <c r="D90">
         <v>3</v>
       </c>
@@ -3208,6 +3472,9 @@
       <c r="B91">
         <v>44</v>
       </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
       <c r="D91">
         <v>3</v>
       </c>
@@ -3220,6 +3487,9 @@
       <c r="B92">
         <v>46</v>
       </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
       <c r="D92">
         <v>3</v>
       </c>
@@ -3232,6 +3502,9 @@
       <c r="B93">
         <v>125</v>
       </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
       <c r="D93">
         <v>3</v>
       </c>
@@ -3244,6 +3517,9 @@
       <c r="B94">
         <v>35</v>
       </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
       <c r="D94">
         <v>4</v>
       </c>
@@ -3256,6 +3532,9 @@
       <c r="B95">
         <v>47</v>
       </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
       <c r="D95">
         <v>4</v>
       </c>
@@ -3268,6 +3547,9 @@
       <c r="B96">
         <v>85</v>
       </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
       <c r="D96">
         <v>4</v>
       </c>
@@ -3280,6 +3562,9 @@
       <c r="B97">
         <v>61</v>
       </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
       <c r="D97">
         <v>4</v>
       </c>
@@ -3292,6 +3577,9 @@
       <c r="B98">
         <v>122</v>
       </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
       <c r="D98">
         <v>4</v>
       </c>
@@ -3304,6 +3592,9 @@
       <c r="B99">
         <v>89</v>
       </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
       <c r="D99">
         <v>4</v>
       </c>
@@ -3316,6 +3607,9 @@
       <c r="B100">
         <v>4</v>
       </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
       <c r="D100">
         <v>4</v>
       </c>
@@ -3328,6 +3622,9 @@
       <c r="B101">
         <v>23</v>
       </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
       <c r="D101">
         <v>4</v>
       </c>
@@ -3340,6 +3637,9 @@
       <c r="B102">
         <v>21</v>
       </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
       <c r="D102">
         <v>4</v>
       </c>
@@ -3352,6 +3652,9 @@
       <c r="B103">
         <v>128</v>
       </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
       <c r="D103">
         <v>4</v>
       </c>
@@ -3364,6 +3667,9 @@
       <c r="B104">
         <v>9</v>
       </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
       <c r="D104">
         <v>4</v>
       </c>
@@ -3376,6 +3682,9 @@
       <c r="B105">
         <v>2</v>
       </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
       <c r="D105">
         <v>4</v>
       </c>
@@ -3388,6 +3697,9 @@
       <c r="B106">
         <v>28</v>
       </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
       <c r="D106">
         <v>4</v>
       </c>
@@ -3400,6 +3712,9 @@
       <c r="B107">
         <v>18</v>
       </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
       <c r="D107">
         <v>4</v>
       </c>
@@ -3412,6 +3727,9 @@
       <c r="B108">
         <v>55</v>
       </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
       <c r="D108">
         <v>4</v>
       </c>
@@ -3424,6 +3742,9 @@
       <c r="B109">
         <v>80</v>
       </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
       <c r="D109">
         <v>4</v>
       </c>
@@ -3436,6 +3757,9 @@
       <c r="B110">
         <v>100</v>
       </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
       <c r="D110">
         <v>4</v>
       </c>
@@ -3448,6 +3772,9 @@
       <c r="B111">
         <v>13</v>
       </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
       <c r="D111">
         <v>4</v>
       </c>
@@ -3460,6 +3787,9 @@
       <c r="B112">
         <v>81</v>
       </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
       <c r="D112">
         <v>4</v>
       </c>
@@ -3472,6 +3802,9 @@
       <c r="B113">
         <v>49</v>
       </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
       <c r="D113">
         <v>4</v>
       </c>
@@ -3484,6 +3817,9 @@
       <c r="B114">
         <v>62</v>
       </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
       <c r="D114">
         <v>4</v>
       </c>
@@ -3496,6 +3832,9 @@
       <c r="B115">
         <v>30</v>
       </c>
+      <c r="C115">
+        <v>5</v>
+      </c>
       <c r="D115">
         <v>4</v>
       </c>
@@ -3508,6 +3847,9 @@
       <c r="B116">
         <v>119</v>
       </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
       <c r="D116">
         <v>4</v>
       </c>
@@ -3520,6 +3862,9 @@
       <c r="B117">
         <v>88</v>
       </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
       <c r="D117">
         <v>4</v>
       </c>
@@ -3532,6 +3877,9 @@
       <c r="B118">
         <v>27</v>
       </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
       <c r="D118">
         <v>4</v>
       </c>
@@ -3544,6 +3892,9 @@
       <c r="B119">
         <v>15</v>
       </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
       <c r="D119">
         <v>4</v>
       </c>
@@ -3556,6 +3907,9 @@
       <c r="B120">
         <v>31</v>
       </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
       <c r="D120">
         <v>4</v>
       </c>
@@ -3568,6 +3922,9 @@
       <c r="B121">
         <v>1</v>
       </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
       <c r="D121">
         <v>4</v>
       </c>
@@ -3580,6 +3937,9 @@
       <c r="B122">
         <v>75</v>
       </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
       <c r="D122">
         <v>4</v>
       </c>
@@ -3592,6 +3952,9 @@
       <c r="B123">
         <v>11</v>
       </c>
+      <c r="C123">
+        <v>4</v>
+      </c>
       <c r="D123">
         <v>4</v>
       </c>
@@ -3604,6 +3967,9 @@
       <c r="B124">
         <v>98</v>
       </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
       <c r="D124">
         <v>4</v>
       </c>
@@ -3616,6 +3982,9 @@
       <c r="B125">
         <v>74</v>
       </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
       <c r="D125">
         <v>4</v>
       </c>
@@ -3628,6 +3997,9 @@
       <c r="B126">
         <v>77</v>
       </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
       <c r="D126">
         <v>4</v>
       </c>
@@ -3640,6 +4012,9 @@
       <c r="B127">
         <v>53</v>
       </c>
+      <c r="C127">
+        <v>4</v>
+      </c>
       <c r="D127">
         <v>4</v>
       </c>
@@ -3652,6 +4027,9 @@
       <c r="B128">
         <v>57</v>
       </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
       <c r="D128">
         <v>4</v>
       </c>
@@ -3664,6 +4042,9 @@
       <c r="B129">
         <v>102</v>
       </c>
+      <c r="C129">
+        <v>4</v>
+      </c>
       <c r="D129">
         <v>4</v>
       </c>
@@ -3676,6 +4057,9 @@
       <c r="B130">
         <v>26</v>
       </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
       <c r="D130">
         <v>4</v>
       </c>
@@ -3688,6 +4072,9 @@
       <c r="B131">
         <v>84</v>
       </c>
+      <c r="C131">
+        <v>4</v>
+      </c>
       <c r="D131">
         <v>4</v>
       </c>
@@ -3700,6 +4087,9 @@
       <c r="B132">
         <v>42</v>
       </c>
+      <c r="C132">
+        <v>5</v>
+      </c>
       <c r="D132">
         <v>4</v>
       </c>
@@ -3712,6 +4102,9 @@
       <c r="B133">
         <v>52</v>
       </c>
+      <c r="C133">
+        <v>4</v>
+      </c>
       <c r="D133">
         <v>4</v>
       </c>
@@ -3724,6 +4117,9 @@
       <c r="B134">
         <v>92</v>
       </c>
+      <c r="C134">
+        <v>4</v>
+      </c>
       <c r="D134">
         <v>4</v>
       </c>
@@ -3736,6 +4132,9 @@
       <c r="B135">
         <v>116</v>
       </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
       <c r="D135">
         <v>4</v>
       </c>
@@ -3747,6 +4146,9 @@
       </c>
       <c r="B136">
         <v>32</v>
+      </c>
+      <c r="C136">
+        <v>4</v>
       </c>
       <c r="D136">
         <v>4</v>
@@ -12776,8 +13178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AE687C-C1C0-EC40-AF3D-9A4CB5DB8604}">
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -12808,6 +13210,9 @@
       <c r="B3">
         <v>80</v>
       </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
       <c r="D3">
         <v>1</v>
       </c>
@@ -12820,6 +13225,9 @@
       <c r="B4">
         <v>37</v>
       </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
       <c r="D4">
         <v>1</v>
       </c>
@@ -12832,6 +13240,9 @@
       <c r="B5">
         <v>46</v>
       </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
       <c r="D5">
         <v>1</v>
       </c>
@@ -12844,6 +13255,9 @@
       <c r="B6">
         <v>119</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="D6">
         <v>1</v>
       </c>
@@ -12856,6 +13270,9 @@
       <c r="B7">
         <v>27</v>
       </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
       <c r="D7">
         <v>1</v>
       </c>
@@ -12868,6 +13285,9 @@
       <c r="B8">
         <v>81</v>
       </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
       <c r="D8">
         <v>1</v>
       </c>
@@ -12880,6 +13300,9 @@
       <c r="B9">
         <v>87</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="D9">
         <v>1</v>
       </c>
@@ -12892,6 +13315,9 @@
       <c r="B10">
         <v>66</v>
       </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
       <c r="D10">
         <v>1</v>
       </c>
@@ -12904,6 +13330,9 @@
       <c r="B11">
         <v>113</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="D11">
         <v>1</v>
       </c>
@@ -12916,6 +13345,9 @@
       <c r="B12">
         <v>70</v>
       </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
       <c r="D12">
         <v>1</v>
       </c>
@@ -12928,6 +13360,9 @@
       <c r="B13">
         <v>106</v>
       </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
       <c r="D13">
         <v>1</v>
       </c>
@@ -12940,6 +13375,9 @@
       <c r="B14">
         <v>32</v>
       </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
       <c r="D14">
         <v>1</v>
       </c>
@@ -12952,6 +13390,9 @@
       <c r="B15">
         <v>21</v>
       </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
       <c r="D15">
         <v>1</v>
       </c>
@@ -12964,6 +13405,9 @@
       <c r="B16">
         <v>103</v>
       </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
       <c r="D16">
         <v>1</v>
       </c>
@@ -12976,6 +13420,9 @@
       <c r="B17">
         <v>14</v>
       </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
       <c r="D17">
         <v>1</v>
       </c>
@@ -12988,6 +13435,9 @@
       <c r="B18">
         <v>72</v>
       </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
       <c r="D18">
         <v>1</v>
       </c>
@@ -13000,6 +13450,9 @@
       <c r="B19">
         <v>110</v>
       </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
       <c r="D19">
         <v>1</v>
       </c>
@@ -13012,6 +13465,9 @@
       <c r="B20">
         <v>69</v>
       </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
       <c r="D20">
         <v>1</v>
       </c>
@@ -13024,6 +13480,9 @@
       <c r="B21">
         <v>43</v>
       </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
       <c r="D21">
         <v>1</v>
       </c>
@@ -13035,6 +13494,9 @@
       </c>
       <c r="B22">
         <v>12</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -13048,6 +13510,9 @@
       <c r="B23">
         <v>111</v>
       </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
       <c r="D23">
         <v>1</v>
       </c>
@@ -13060,6 +13525,9 @@
       <c r="B24">
         <v>123</v>
       </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
       <c r="D24">
         <v>1</v>
       </c>
@@ -13072,6 +13540,9 @@
       <c r="B25">
         <v>58</v>
       </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
       <c r="D25">
         <v>1</v>
       </c>
@@ -13084,6 +13555,9 @@
       <c r="B26">
         <v>71</v>
       </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
       <c r="D26">
         <v>1</v>
       </c>
@@ -13096,6 +13570,9 @@
       <c r="B27">
         <v>42</v>
       </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
       <c r="D27">
         <v>1</v>
       </c>
@@ -13108,6 +13585,9 @@
       <c r="B28">
         <v>39</v>
       </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
       <c r="D28">
         <v>1</v>
       </c>
@@ -13120,6 +13600,9 @@
       <c r="B29">
         <v>74</v>
       </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
       <c r="D29">
         <v>1</v>
       </c>
@@ -13132,6 +13615,9 @@
       <c r="B30">
         <v>76</v>
       </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
       <c r="D30">
         <v>1</v>
       </c>
@@ -13144,6 +13630,9 @@
       <c r="B31">
         <v>4</v>
       </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
       <c r="D31">
         <v>1</v>
       </c>
@@ -13156,6 +13645,9 @@
       <c r="B32">
         <v>134</v>
       </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
       <c r="D32">
         <v>1</v>
       </c>
@@ -13168,6 +13660,9 @@
       <c r="B33">
         <v>55</v>
       </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
       <c r="D33">
         <v>1</v>
       </c>
@@ -13180,6 +13675,9 @@
       <c r="B34">
         <v>29</v>
       </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
       <c r="D34">
         <v>2</v>
       </c>
@@ -13192,6 +13690,9 @@
       <c r="B35">
         <v>10</v>
       </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
       <c r="D35">
         <v>2</v>
       </c>
@@ -13204,6 +13705,9 @@
       <c r="B36">
         <v>121</v>
       </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
       <c r="D36">
         <v>2</v>
       </c>
@@ -13216,6 +13720,9 @@
       <c r="B37">
         <v>99</v>
       </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
       <c r="D37">
         <v>2</v>
       </c>
@@ -13228,6 +13735,9 @@
       <c r="B38">
         <v>73</v>
       </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
       <c r="D38">
         <v>2</v>
       </c>
@@ -13239,6 +13749,9 @@
       </c>
       <c r="B39">
         <v>25</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -13252,6 +13765,9 @@
       <c r="B40">
         <v>5</v>
       </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
       <c r="D40">
         <v>2</v>
       </c>
@@ -13264,6 +13780,9 @@
       <c r="B41">
         <v>86</v>
       </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
       <c r="D41">
         <v>2</v>
       </c>
@@ -13276,6 +13795,9 @@
       <c r="B42">
         <v>51</v>
       </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
       <c r="D42">
         <v>2</v>
       </c>
@@ -13288,6 +13810,9 @@
       <c r="B43">
         <v>16</v>
       </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
       <c r="D43">
         <v>2</v>
       </c>
@@ -13300,6 +13825,9 @@
       <c r="B44">
         <v>36</v>
       </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
       <c r="D44">
         <v>2</v>
       </c>
@@ -13312,6 +13840,9 @@
       <c r="B45">
         <v>40</v>
       </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
       <c r="D45">
         <v>2</v>
       </c>
@@ -13324,6 +13855,9 @@
       <c r="B46">
         <v>23</v>
       </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
       <c r="D46">
         <v>2</v>
       </c>
@@ -13336,6 +13870,9 @@
       <c r="B47">
         <v>126</v>
       </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
       <c r="D47">
         <v>2</v>
       </c>
@@ -13348,6 +13885,9 @@
       <c r="B48">
         <v>56</v>
       </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
       <c r="D48">
         <v>2</v>
       </c>
@@ -13360,6 +13900,9 @@
       <c r="B49">
         <v>18</v>
       </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
       <c r="D49">
         <v>2</v>
       </c>
@@ -13372,6 +13915,9 @@
       <c r="B50">
         <v>75</v>
       </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
       <c r="D50">
         <v>2</v>
       </c>
@@ -13384,6 +13930,9 @@
       <c r="B51">
         <v>54</v>
       </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
       <c r="D51">
         <v>2</v>
       </c>
@@ -13396,6 +13945,9 @@
       <c r="B52">
         <v>17</v>
       </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
       <c r="D52">
         <v>2</v>
       </c>
@@ -13408,6 +13960,9 @@
       <c r="B53">
         <v>105</v>
       </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
       <c r="D53">
         <v>2</v>
       </c>
@@ -13420,6 +13975,9 @@
       <c r="B54">
         <v>15</v>
       </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
       <c r="D54">
         <v>2</v>
       </c>
@@ -13432,6 +13990,9 @@
       <c r="B55">
         <v>82</v>
       </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
       <c r="D55">
         <v>2</v>
       </c>
@@ -13444,6 +14005,9 @@
       <c r="B56">
         <v>77</v>
       </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
       <c r="D56">
         <v>2</v>
       </c>
@@ -13456,6 +14020,9 @@
       <c r="B57">
         <v>112</v>
       </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
       <c r="D57">
         <v>2</v>
       </c>
@@ -13467,6 +14034,9 @@
       </c>
       <c r="B58">
         <v>28</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -13480,6 +14050,9 @@
       <c r="B59">
         <v>104</v>
       </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
       <c r="D59">
         <v>2</v>
       </c>
@@ -13492,6 +14065,9 @@
       <c r="B60">
         <v>65</v>
       </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
       <c r="D60">
         <v>2</v>
       </c>
@@ -13504,6 +14080,9 @@
       <c r="B61">
         <v>52</v>
       </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
       <c r="D61">
         <v>2</v>
       </c>
@@ -13516,6 +14095,9 @@
       <c r="B62">
         <v>19</v>
       </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
       <c r="D62">
         <v>2</v>
       </c>
@@ -13527,6 +14109,9 @@
       </c>
       <c r="B63">
         <v>96</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -13540,6 +14125,9 @@
       <c r="B64">
         <v>2</v>
       </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
       <c r="D64">
         <v>3</v>
       </c>
@@ -13552,6 +14140,9 @@
       <c r="B65">
         <v>38</v>
       </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
       <c r="D65">
         <v>3</v>
       </c>
@@ -13564,6 +14155,9 @@
       <c r="B66">
         <v>128</v>
       </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
       <c r="D66">
         <v>3</v>
       </c>
@@ -13576,6 +14170,9 @@
       <c r="B67">
         <v>122</v>
       </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
       <c r="D67">
         <v>3</v>
       </c>
@@ -13587,6 +14184,9 @@
       </c>
       <c r="B68">
         <v>93</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -13600,6 +14200,9 @@
       <c r="B69">
         <v>31</v>
       </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
       <c r="D69">
         <v>3</v>
       </c>
@@ -13612,6 +14215,9 @@
       <c r="B70">
         <v>6</v>
       </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
       <c r="D70">
         <v>3</v>
       </c>
@@ -13624,6 +14230,9 @@
       <c r="B71">
         <v>131</v>
       </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
       <c r="D71">
         <v>3</v>
       </c>
@@ -13636,6 +14245,9 @@
       <c r="B72">
         <v>115</v>
       </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
       <c r="D72">
         <v>3</v>
       </c>
@@ -13648,6 +14260,9 @@
       <c r="B73">
         <v>26</v>
       </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
       <c r="D73">
         <v>3</v>
       </c>
@@ -13660,6 +14275,9 @@
       <c r="B74">
         <v>33</v>
       </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
       <c r="D74">
         <v>3</v>
       </c>
@@ -13672,6 +14290,9 @@
       <c r="B75">
         <v>9</v>
       </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
       <c r="D75">
         <v>3</v>
       </c>
@@ -13684,6 +14305,9 @@
       <c r="B76">
         <v>89</v>
       </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
       <c r="D76">
         <v>3</v>
       </c>
@@ -13696,6 +14320,9 @@
       <c r="B77">
         <v>109</v>
       </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
       <c r="D77">
         <v>3</v>
       </c>
@@ -13708,6 +14335,9 @@
       <c r="B78">
         <v>8</v>
       </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
       <c r="D78">
         <v>3</v>
       </c>
@@ -13720,6 +14350,9 @@
       <c r="B79">
         <v>68</v>
       </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
       <c r="D79">
         <v>3</v>
       </c>
@@ -13732,6 +14365,9 @@
       <c r="B80">
         <v>88</v>
       </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
       <c r="D80">
         <v>3</v>
       </c>
@@ -13744,6 +14380,9 @@
       <c r="B81">
         <v>63</v>
       </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
       <c r="D81">
         <v>3</v>
       </c>
@@ -13756,6 +14395,9 @@
       <c r="B82">
         <v>53</v>
       </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
       <c r="D82">
         <v>3</v>
       </c>
@@ -13768,6 +14410,9 @@
       <c r="B83">
         <v>22</v>
       </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
       <c r="D83">
         <v>3</v>
       </c>
@@ -13780,6 +14425,9 @@
       <c r="B84">
         <v>97</v>
       </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
       <c r="D84">
         <v>3</v>
       </c>
@@ -13792,6 +14440,9 @@
       <c r="B85">
         <v>83</v>
       </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
       <c r="D85">
         <v>3</v>
       </c>
@@ -13804,6 +14455,9 @@
       <c r="B86">
         <v>132</v>
       </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
       <c r="D86">
         <v>3</v>
       </c>
@@ -13816,6 +14470,9 @@
       <c r="B87">
         <v>114</v>
       </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
       <c r="D87">
         <v>3</v>
       </c>
@@ -13828,6 +14485,9 @@
       <c r="B88">
         <v>98</v>
       </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
       <c r="D88">
         <v>3</v>
       </c>
@@ -13840,6 +14500,9 @@
       <c r="B89">
         <v>59</v>
       </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
       <c r="D89">
         <v>3</v>
       </c>
@@ -13852,6 +14515,9 @@
       <c r="B90">
         <v>107</v>
       </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
       <c r="D90">
         <v>3</v>
       </c>
@@ -13864,6 +14530,9 @@
       <c r="B91">
         <v>3</v>
       </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
       <c r="D91">
         <v>3</v>
       </c>
@@ -13876,6 +14545,9 @@
       <c r="B92">
         <v>24</v>
       </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
       <c r="D92">
         <v>3</v>
       </c>
@@ -13888,6 +14560,9 @@
       <c r="B93">
         <v>50</v>
       </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
       <c r="D93">
         <v>3</v>
       </c>
@@ -13900,6 +14575,9 @@
       <c r="B94">
         <v>133</v>
       </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
       <c r="D94">
         <v>4</v>
       </c>
@@ -13912,6 +14590,9 @@
       <c r="B95">
         <v>20</v>
       </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
       <c r="D95">
         <v>4</v>
       </c>
@@ -13924,6 +14605,9 @@
       <c r="B96">
         <v>92</v>
       </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
       <c r="D96">
         <v>4</v>
       </c>
@@ -13936,6 +14620,9 @@
       <c r="B97">
         <v>95</v>
       </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
       <c r="D97">
         <v>4</v>
       </c>
@@ -13948,6 +14635,9 @@
       <c r="B98">
         <v>60</v>
       </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
       <c r="D98">
         <v>4</v>
       </c>
@@ -13960,6 +14650,9 @@
       <c r="B99">
         <v>79</v>
       </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
       <c r="D99">
         <v>4</v>
       </c>
@@ -13972,6 +14665,9 @@
       <c r="B100">
         <v>35</v>
       </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
       <c r="D100">
         <v>4</v>
       </c>
@@ -13984,6 +14680,9 @@
       <c r="B101">
         <v>1</v>
       </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
       <c r="D101">
         <v>4</v>
       </c>
@@ -13996,6 +14695,9 @@
       <c r="B102">
         <v>120</v>
       </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
       <c r="D102">
         <v>4</v>
       </c>
@@ -14008,6 +14710,9 @@
       <c r="B103">
         <v>116</v>
       </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
       <c r="D103">
         <v>4</v>
       </c>
@@ -14020,6 +14725,9 @@
       <c r="B104">
         <v>85</v>
       </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
       <c r="D104">
         <v>4</v>
       </c>
@@ -14032,6 +14740,9 @@
       <c r="B105">
         <v>62</v>
       </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
       <c r="D105">
         <v>4</v>
       </c>
@@ -14044,6 +14755,9 @@
       <c r="B106">
         <v>49</v>
       </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
       <c r="D106">
         <v>4</v>
       </c>
@@ -14056,6 +14770,9 @@
       <c r="B107">
         <v>34</v>
       </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
       <c r="D107">
         <v>4</v>
       </c>
@@ -14068,6 +14785,9 @@
       <c r="B108">
         <v>7</v>
       </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
       <c r="D108">
         <v>4</v>
       </c>
@@ -14080,6 +14800,9 @@
       <c r="B109">
         <v>45</v>
       </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
       <c r="D109">
         <v>4</v>
       </c>
@@ -14092,6 +14815,9 @@
       <c r="B110">
         <v>129</v>
       </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
       <c r="D110">
         <v>4</v>
       </c>
@@ -14104,6 +14830,9 @@
       <c r="B111">
         <v>130</v>
       </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
       <c r="D111">
         <v>4</v>
       </c>
@@ -14116,6 +14845,9 @@
       <c r="B112">
         <v>61</v>
       </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
       <c r="D112">
         <v>4</v>
       </c>
@@ -14128,6 +14860,9 @@
       <c r="B113">
         <v>102</v>
       </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
       <c r="D113">
         <v>4</v>
       </c>
@@ -14140,6 +14875,9 @@
       <c r="B114">
         <v>117</v>
       </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
       <c r="D114">
         <v>4</v>
       </c>
@@ -14152,6 +14890,9 @@
       <c r="B115">
         <v>101</v>
       </c>
+      <c r="C115">
+        <v>5</v>
+      </c>
       <c r="D115">
         <v>4</v>
       </c>
@@ -14164,6 +14905,9 @@
       <c r="B116">
         <v>108</v>
       </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
       <c r="D116">
         <v>4</v>
       </c>
@@ -14176,6 +14920,9 @@
       <c r="B117">
         <v>13</v>
       </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
       <c r="D117">
         <v>4</v>
       </c>
@@ -14188,6 +14935,9 @@
       <c r="B118">
         <v>44</v>
       </c>
+      <c r="C118">
+        <v>5</v>
+      </c>
       <c r="D118">
         <v>4</v>
       </c>
@@ -14200,6 +14950,9 @@
       <c r="B119">
         <v>118</v>
       </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
       <c r="D119">
         <v>4</v>
       </c>
@@ -14212,6 +14965,9 @@
       <c r="B120">
         <v>41</v>
       </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
       <c r="D120">
         <v>4</v>
       </c>
@@ -14224,6 +14980,9 @@
       <c r="B121">
         <v>78</v>
       </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
       <c r="D121">
         <v>4</v>
       </c>
@@ -14236,6 +14995,9 @@
       <c r="B122">
         <v>100</v>
       </c>
+      <c r="C122">
+        <v>5</v>
+      </c>
       <c r="D122">
         <v>4</v>
       </c>
@@ -14248,6 +15010,9 @@
       <c r="B123">
         <v>30</v>
       </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
       <c r="D123">
         <v>4</v>
       </c>
@@ -14260,6 +15025,9 @@
       <c r="B124">
         <v>64</v>
       </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
       <c r="D124">
         <v>4</v>
       </c>
@@ -14272,6 +15040,9 @@
       <c r="B125">
         <v>94</v>
       </c>
+      <c r="C125">
+        <v>5</v>
+      </c>
       <c r="D125">
         <v>4</v>
       </c>
@@ -14284,6 +15055,9 @@
       <c r="B126">
         <v>84</v>
       </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
       <c r="D126">
         <v>4</v>
       </c>
@@ -14296,6 +15070,9 @@
       <c r="B127">
         <v>124</v>
       </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
       <c r="D127">
         <v>4</v>
       </c>
@@ -14308,6 +15085,9 @@
       <c r="B128">
         <v>48</v>
       </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
       <c r="D128">
         <v>4</v>
       </c>
@@ -14320,6 +15100,9 @@
       <c r="B129">
         <v>127</v>
       </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
       <c r="D129">
         <v>4</v>
       </c>
@@ -14332,6 +15115,9 @@
       <c r="B130">
         <v>91</v>
       </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
       <c r="D130">
         <v>4</v>
       </c>
@@ -14344,6 +15130,9 @@
       <c r="B131">
         <v>67</v>
       </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
       <c r="D131">
         <v>4</v>
       </c>
@@ -14356,6 +15145,9 @@
       <c r="B132">
         <v>47</v>
       </c>
+      <c r="C132">
+        <v>5</v>
+      </c>
       <c r="D132">
         <v>4</v>
       </c>
@@ -14368,6 +15160,9 @@
       <c r="B133">
         <v>90</v>
       </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
       <c r="D133">
         <v>4</v>
       </c>
@@ -14380,6 +15175,9 @@
       <c r="B134">
         <v>57</v>
       </c>
+      <c r="C134">
+        <v>5</v>
+      </c>
       <c r="D134">
         <v>4</v>
       </c>
@@ -14392,6 +15190,9 @@
       <c r="B135">
         <v>11</v>
       </c>
+      <c r="C135">
+        <v>5</v>
+      </c>
       <c r="D135">
         <v>4</v>
       </c>
@@ -14403,6 +15204,9 @@
       </c>
       <c r="B136">
         <v>125</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
       </c>
       <c r="D136">
         <v>4</v>
@@ -19747,7 +20551,7 @@
   <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/実験/実験データまとめ.xlsx
+++ b/実験/実験データまとめ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashimayu/Desktop/lab/実験/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA68ACD2-0A92-D349-9414-D38B071F3F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C7D728-5F42-004E-B641-9DE3CB7F20BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="500" windowWidth="24200" windowHeight="19580" xr2:uid="{20293A05-F4A6-7F46-BCD8-EE73CE0C7222}"/>
+    <workbookView xWindow="2720" yWindow="500" windowWidth="24200" windowHeight="19580" activeTab="3" xr2:uid="{20293A05-F4A6-7F46-BCD8-EE73CE0C7222}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="19" r:id="rId1"/>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572A393E-2A73-8E44-A261-E14A919375E4}">
   <dimension ref="A1:D2275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A953" workbookViewId="0">
-      <selection activeCell="A983" sqref="A983:XFD983"/>
+    <sheetView topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="A244" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -31165,6 +31165,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -83560,8 +83561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3E86E5-1720-7346-8852-BAD27B11593E}">
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B136"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -83592,6 +83593,9 @@
       <c r="B3">
         <v>24</v>
       </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
       <c r="D3">
         <v>1</v>
       </c>
@@ -83604,6 +83608,9 @@
       <c r="B4">
         <v>52</v>
       </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
       <c r="D4">
         <v>1</v>
       </c>
@@ -83616,6 +83623,9 @@
       <c r="B5">
         <v>97</v>
       </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
       <c r="D5">
         <v>1</v>
       </c>
@@ -83628,6 +83638,9 @@
       <c r="B6">
         <v>132</v>
       </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
       <c r="D6">
         <v>1</v>
       </c>
@@ -83640,6 +83653,9 @@
       <c r="B7">
         <v>126</v>
       </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
       <c r="D7">
         <v>1</v>
       </c>
@@ -83652,6 +83668,9 @@
       <c r="B8">
         <v>114</v>
       </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
       <c r="D8">
         <v>1</v>
       </c>
@@ -83664,6 +83683,9 @@
       <c r="B9">
         <v>133</v>
       </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
       <c r="D9">
         <v>1</v>
       </c>
@@ -83676,6 +83698,9 @@
       <c r="B10">
         <v>124</v>
       </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
       <c r="D10">
         <v>1</v>
       </c>
@@ -83688,6 +83713,9 @@
       <c r="B11">
         <v>8</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="D11">
         <v>1</v>
       </c>
@@ -83700,6 +83728,9 @@
       <c r="B12">
         <v>16</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="D12">
         <v>1</v>
       </c>
@@ -83712,6 +83743,9 @@
       <c r="B13">
         <v>80</v>
       </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
       <c r="D13">
         <v>1</v>
       </c>
@@ -83724,6 +83758,9 @@
       <c r="B14">
         <v>63</v>
       </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
       <c r="D14">
         <v>1</v>
       </c>
@@ -83736,6 +83773,9 @@
       <c r="B15">
         <v>3</v>
       </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
       <c r="D15">
         <v>1</v>
       </c>
@@ -83748,6 +83788,9 @@
       <c r="B16">
         <v>53</v>
       </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
       <c r="D16">
         <v>1</v>
       </c>
@@ -83760,6 +83803,9 @@
       <c r="B17">
         <v>55</v>
       </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
       <c r="D17">
         <v>1</v>
       </c>
@@ -83772,6 +83818,9 @@
       <c r="B18">
         <v>58</v>
       </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
       <c r="D18">
         <v>1</v>
       </c>
@@ -83784,6 +83833,9 @@
       <c r="B19">
         <v>116</v>
       </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
       <c r="D19">
         <v>1</v>
       </c>
@@ -83796,6 +83848,9 @@
       <c r="B20">
         <v>50</v>
       </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
       <c r="D20">
         <v>1</v>
       </c>
@@ -83808,6 +83863,9 @@
       <c r="B21">
         <v>7</v>
       </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
       <c r="D21">
         <v>1</v>
       </c>
@@ -83819,6 +83877,9 @@
       </c>
       <c r="B22">
         <v>14</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -83832,6 +83893,9 @@
       <c r="B23">
         <v>75</v>
       </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
       <c r="D23">
         <v>1</v>
       </c>
@@ -83844,6 +83908,9 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
       <c r="D24">
         <v>1</v>
       </c>
@@ -83856,6 +83923,9 @@
       <c r="B25">
         <v>107</v>
       </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
       <c r="D25">
         <v>1</v>
       </c>
@@ -83868,6 +83938,9 @@
       <c r="B26">
         <v>125</v>
       </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
       <c r="D26">
         <v>1</v>
       </c>
@@ -83880,6 +83953,9 @@
       <c r="B27">
         <v>84</v>
       </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
       <c r="D27">
         <v>1</v>
       </c>
@@ -83892,6 +83968,9 @@
       <c r="B28">
         <v>1</v>
       </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
       <c r="D28">
         <v>1</v>
       </c>
@@ -83904,6 +83983,9 @@
       <c r="B29">
         <v>92</v>
       </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
       <c r="D29">
         <v>1</v>
       </c>
@@ -83916,6 +83998,9 @@
       <c r="B30">
         <v>43</v>
       </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
       <c r="D30">
         <v>1</v>
       </c>
@@ -83928,6 +84013,9 @@
       <c r="B31">
         <v>65</v>
       </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
       <c r="D31">
         <v>1</v>
       </c>
@@ -83940,6 +84028,9 @@
       <c r="B32">
         <v>130</v>
       </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
       <c r="D32">
         <v>1</v>
       </c>
@@ -83952,6 +84043,9 @@
       <c r="B33">
         <v>17</v>
       </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
       <c r="D33">
         <v>1</v>
       </c>
@@ -83964,6 +84058,9 @@
       <c r="B34">
         <v>99</v>
       </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
       <c r="D34">
         <v>2</v>
       </c>
@@ -83976,6 +84073,9 @@
       <c r="B35">
         <v>79</v>
       </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
       <c r="D35">
         <v>2</v>
       </c>
@@ -83988,6 +84088,9 @@
       <c r="B36">
         <v>110</v>
       </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
       <c r="D36">
         <v>2</v>
       </c>
@@ -84000,6 +84103,9 @@
       <c r="B37">
         <v>21</v>
       </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
       <c r="D37">
         <v>2</v>
       </c>
@@ -84012,6 +84118,9 @@
       <c r="B38">
         <v>74</v>
       </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
       <c r="D38">
         <v>2</v>
       </c>
@@ -84023,6 +84132,9 @@
       </c>
       <c r="B39">
         <v>98</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -84036,6 +84148,9 @@
       <c r="B40">
         <v>77</v>
       </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
       <c r="D40">
         <v>2</v>
       </c>
@@ -84048,6 +84163,9 @@
       <c r="B41">
         <v>48</v>
       </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
       <c r="D41">
         <v>2</v>
       </c>
@@ -84060,6 +84178,9 @@
       <c r="B42">
         <v>82</v>
       </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
       <c r="D42">
         <v>2</v>
       </c>
@@ -84072,6 +84193,9 @@
       <c r="B43">
         <v>29</v>
       </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
       <c r="D43">
         <v>2</v>
       </c>
@@ -84084,6 +84208,9 @@
       <c r="B44">
         <v>15</v>
       </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
       <c r="D44">
         <v>2</v>
       </c>
@@ -84096,6 +84223,9 @@
       <c r="B45">
         <v>11</v>
       </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
       <c r="D45">
         <v>2</v>
       </c>
@@ -84108,6 +84238,9 @@
       <c r="B46">
         <v>100</v>
       </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
       <c r="D46">
         <v>2</v>
       </c>
@@ -84120,6 +84253,9 @@
       <c r="B47">
         <v>111</v>
       </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
       <c r="D47">
         <v>2</v>
       </c>
@@ -84132,6 +84268,9 @@
       <c r="B48">
         <v>56</v>
       </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
       <c r="D48">
         <v>2</v>
       </c>
@@ -84144,6 +84283,9 @@
       <c r="B49">
         <v>64</v>
       </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
       <c r="D49">
         <v>2</v>
       </c>
@@ -84156,6 +84298,9 @@
       <c r="B50">
         <v>37</v>
       </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
       <c r="D50">
         <v>2</v>
       </c>
@@ -84168,6 +84313,9 @@
       <c r="B51">
         <v>127</v>
       </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
       <c r="D51">
         <v>2</v>
       </c>
@@ -84180,6 +84328,9 @@
       <c r="B52">
         <v>115</v>
       </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
       <c r="D52">
         <v>2</v>
       </c>
@@ -84192,6 +84343,9 @@
       <c r="B53">
         <v>38</v>
       </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
       <c r="D53">
         <v>2</v>
       </c>
@@ -84204,6 +84358,9 @@
       <c r="B54">
         <v>40</v>
       </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
       <c r="D54">
         <v>2</v>
       </c>
@@ -84216,6 +84373,9 @@
       <c r="B55">
         <v>122</v>
       </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
       <c r="D55">
         <v>2</v>
       </c>
@@ -84228,6 +84388,9 @@
       <c r="B56">
         <v>101</v>
       </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
       <c r="D56">
         <v>2</v>
       </c>
@@ -84240,6 +84403,9 @@
       <c r="B57">
         <v>28</v>
       </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
       <c r="D57">
         <v>2</v>
       </c>
@@ -84251,6 +84417,9 @@
       </c>
       <c r="B58">
         <v>90</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -84264,6 +84433,9 @@
       <c r="B59">
         <v>119</v>
       </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
       <c r="D59">
         <v>2</v>
       </c>
@@ -84276,6 +84448,9 @@
       <c r="B60">
         <v>93</v>
       </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
       <c r="D60">
         <v>2</v>
       </c>
@@ -84288,6 +84463,9 @@
       <c r="B61">
         <v>86</v>
       </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
       <c r="D61">
         <v>2</v>
       </c>
@@ -84300,6 +84478,9 @@
       <c r="B62">
         <v>36</v>
       </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
       <c r="D62">
         <v>2</v>
       </c>
@@ -84311,6 +84492,9 @@
       </c>
       <c r="B63">
         <v>69</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -84324,6 +84508,9 @@
       <c r="B64">
         <v>20</v>
       </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
       <c r="D64">
         <v>3</v>
       </c>
@@ -84336,6 +84523,9 @@
       <c r="B65">
         <v>91</v>
       </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
       <c r="D65">
         <v>3</v>
       </c>
@@ -84348,6 +84538,9 @@
       <c r="B66">
         <v>2</v>
       </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
       <c r="D66">
         <v>3</v>
       </c>
@@ -84360,6 +84553,9 @@
       <c r="B67">
         <v>54</v>
       </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
       <c r="D67">
         <v>3</v>
       </c>
@@ -84371,6 +84567,9 @@
       </c>
       <c r="B68">
         <v>112</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -84384,6 +84583,9 @@
       <c r="B69">
         <v>51</v>
       </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
       <c r="D69">
         <v>3</v>
       </c>
@@ -84396,6 +84598,9 @@
       <c r="B70">
         <v>68</v>
       </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
       <c r="D70">
         <v>3</v>
       </c>
@@ -84408,6 +84613,9 @@
       <c r="B71">
         <v>113</v>
       </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
       <c r="D71">
         <v>3</v>
       </c>
@@ -84420,6 +84628,9 @@
       <c r="B72">
         <v>71</v>
       </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
       <c r="D72">
         <v>3</v>
       </c>
@@ -84432,6 +84643,9 @@
       <c r="B73">
         <v>102</v>
       </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
       <c r="D73">
         <v>3</v>
       </c>
@@ -84444,6 +84658,9 @@
       <c r="B74">
         <v>104</v>
       </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
       <c r="D74">
         <v>3</v>
       </c>
@@ -84456,6 +84673,9 @@
       <c r="B75">
         <v>96</v>
       </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
       <c r="D75">
         <v>3</v>
       </c>
@@ -84468,6 +84688,9 @@
       <c r="B76">
         <v>59</v>
       </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
       <c r="D76">
         <v>3</v>
       </c>
@@ -84480,6 +84703,9 @@
       <c r="B77">
         <v>70</v>
       </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
       <c r="D77">
         <v>3</v>
       </c>
@@ -84492,6 +84718,9 @@
       <c r="B78">
         <v>22</v>
       </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
       <c r="D78">
         <v>3</v>
       </c>
@@ -84504,6 +84733,9 @@
       <c r="B79">
         <v>33</v>
       </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
       <c r="D79">
         <v>3</v>
       </c>
@@ -84516,6 +84748,9 @@
       <c r="B80">
         <v>30</v>
       </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
       <c r="D80">
         <v>3</v>
       </c>
@@ -84528,6 +84763,9 @@
       <c r="B81">
         <v>62</v>
       </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
       <c r="D81">
         <v>3</v>
       </c>
@@ -84540,6 +84778,9 @@
       <c r="B82">
         <v>35</v>
       </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
       <c r="D82">
         <v>3</v>
       </c>
@@ -84552,6 +84793,9 @@
       <c r="B83">
         <v>129</v>
       </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
       <c r="D83">
         <v>3</v>
       </c>
@@ -84564,6 +84808,9 @@
       <c r="B84">
         <v>45</v>
       </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
       <c r="D84">
         <v>3</v>
       </c>
@@ -84576,6 +84823,9 @@
       <c r="B85">
         <v>31</v>
       </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
       <c r="D85">
         <v>3</v>
       </c>
@@ -84588,6 +84838,9 @@
       <c r="B86">
         <v>42</v>
       </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
       <c r="D86">
         <v>3</v>
       </c>
@@ -84600,6 +84853,9 @@
       <c r="B87">
         <v>118</v>
       </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
       <c r="D87">
         <v>3</v>
       </c>
@@ -84612,6 +84868,9 @@
       <c r="B88">
         <v>131</v>
       </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
       <c r="D88">
         <v>3</v>
       </c>
@@ -84624,6 +84883,9 @@
       <c r="B89">
         <v>39</v>
       </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
       <c r="D89">
         <v>3</v>
       </c>
@@ -84636,6 +84898,9 @@
       <c r="B90">
         <v>57</v>
       </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
       <c r="D90">
         <v>3</v>
       </c>
@@ -84648,6 +84913,9 @@
       <c r="B91">
         <v>10</v>
       </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
       <c r="D91">
         <v>3</v>
       </c>
@@ -84660,6 +84928,9 @@
       <c r="B92">
         <v>44</v>
       </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
       <c r="D92">
         <v>3</v>
       </c>
@@ -84672,6 +84943,9 @@
       <c r="B93">
         <v>32</v>
       </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
       <c r="D93">
         <v>3</v>
       </c>
@@ -84684,6 +84958,9 @@
       <c r="B94">
         <v>27</v>
       </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
       <c r="D94">
         <v>4</v>
       </c>
@@ -84696,6 +84973,9 @@
       <c r="B95">
         <v>9</v>
       </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
       <c r="D95">
         <v>4</v>
       </c>
@@ -84708,6 +84988,9 @@
       <c r="B96">
         <v>108</v>
       </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
       <c r="D96">
         <v>4</v>
       </c>
@@ -84720,6 +85003,9 @@
       <c r="B97">
         <v>83</v>
       </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
       <c r="D97">
         <v>4</v>
       </c>
@@ -84732,6 +85018,9 @@
       <c r="B98">
         <v>4</v>
       </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
       <c r="D98">
         <v>4</v>
       </c>
@@ -84744,6 +85033,9 @@
       <c r="B99">
         <v>78</v>
       </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
       <c r="D99">
         <v>4</v>
       </c>
@@ -84756,6 +85048,9 @@
       <c r="B100">
         <v>85</v>
       </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
       <c r="D100">
         <v>4</v>
       </c>
@@ -84768,6 +85063,9 @@
       <c r="B101">
         <v>13</v>
       </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
       <c r="D101">
         <v>4</v>
       </c>
@@ -84780,6 +85078,9 @@
       <c r="B102">
         <v>95</v>
       </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
       <c r="D102">
         <v>4</v>
       </c>
@@ -84792,6 +85093,9 @@
       <c r="B103">
         <v>18</v>
       </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
       <c r="D103">
         <v>4</v>
       </c>
@@ -84804,6 +85108,9 @@
       <c r="B104">
         <v>73</v>
       </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
       <c r="D104">
         <v>4</v>
       </c>
@@ -84816,6 +85123,9 @@
       <c r="B105">
         <v>134</v>
       </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
       <c r="D105">
         <v>4</v>
       </c>
@@ -84828,6 +85138,9 @@
       <c r="B106">
         <v>94</v>
       </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
       <c r="D106">
         <v>4</v>
       </c>
@@ -84840,6 +85153,9 @@
       <c r="B107">
         <v>121</v>
       </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
       <c r="D107">
         <v>4</v>
       </c>
@@ -84852,6 +85168,9 @@
       <c r="B108">
         <v>23</v>
       </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
       <c r="D108">
         <v>4</v>
       </c>
@@ -84864,6 +85183,9 @@
       <c r="B109">
         <v>123</v>
       </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
       <c r="D109">
         <v>4</v>
       </c>
@@ -84876,6 +85198,9 @@
       <c r="B110">
         <v>117</v>
       </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
       <c r="D110">
         <v>4</v>
       </c>
@@ -84888,6 +85213,9 @@
       <c r="B111">
         <v>6</v>
       </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
       <c r="D111">
         <v>4</v>
       </c>
@@ -84900,6 +85228,9 @@
       <c r="B112">
         <v>46</v>
       </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
       <c r="D112">
         <v>4</v>
       </c>
@@ -84912,6 +85243,9 @@
       <c r="B113">
         <v>60</v>
       </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
       <c r="D113">
         <v>4</v>
       </c>
@@ -84924,6 +85258,9 @@
       <c r="B114">
         <v>76</v>
       </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
       <c r="D114">
         <v>4</v>
       </c>
@@ -84936,6 +85273,9 @@
       <c r="B115">
         <v>128</v>
       </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
       <c r="D115">
         <v>4</v>
       </c>
@@ -84948,6 +85288,9 @@
       <c r="B116">
         <v>34</v>
       </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
       <c r="D116">
         <v>4</v>
       </c>
@@ -84960,6 +85303,9 @@
       <c r="B117">
         <v>67</v>
       </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
       <c r="D117">
         <v>4</v>
       </c>
@@ -84972,6 +85318,9 @@
       <c r="B118">
         <v>89</v>
       </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
       <c r="D118">
         <v>4</v>
       </c>
@@ -84984,6 +85333,9 @@
       <c r="B119">
         <v>81</v>
       </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
       <c r="D119">
         <v>4</v>
       </c>
@@ -84996,6 +85348,9 @@
       <c r="B120">
         <v>106</v>
       </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
       <c r="D120">
         <v>4</v>
       </c>
@@ -85008,6 +85363,9 @@
       <c r="B121">
         <v>19</v>
       </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
       <c r="D121">
         <v>4</v>
       </c>
@@ -85020,6 +85378,9 @@
       <c r="B122">
         <v>25</v>
       </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
       <c r="D122">
         <v>4</v>
       </c>
@@ -85032,6 +85393,9 @@
       <c r="B123">
         <v>49</v>
       </c>
+      <c r="C123">
+        <v>4</v>
+      </c>
       <c r="D123">
         <v>4</v>
       </c>
@@ -85044,6 +85408,9 @@
       <c r="B124">
         <v>61</v>
       </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
       <c r="D124">
         <v>4</v>
       </c>
@@ -85056,6 +85423,9 @@
       <c r="B125">
         <v>26</v>
       </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
       <c r="D125">
         <v>4</v>
       </c>
@@ -85068,6 +85438,9 @@
       <c r="B126">
         <v>66</v>
       </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
       <c r="D126">
         <v>4</v>
       </c>
@@ -85080,6 +85453,9 @@
       <c r="B127">
         <v>105</v>
       </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
       <c r="D127">
         <v>4</v>
       </c>
@@ -85092,6 +85468,9 @@
       <c r="B128">
         <v>109</v>
       </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
       <c r="D128">
         <v>4</v>
       </c>
@@ -85104,6 +85483,9 @@
       <c r="B129">
         <v>47</v>
       </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
       <c r="D129">
         <v>4</v>
       </c>
@@ -85116,6 +85498,9 @@
       <c r="B130">
         <v>41</v>
       </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
       <c r="D130">
         <v>4</v>
       </c>
@@ -85128,6 +85513,9 @@
       <c r="B131">
         <v>87</v>
       </c>
+      <c r="C131">
+        <v>4</v>
+      </c>
       <c r="D131">
         <v>4</v>
       </c>
@@ -85140,6 +85528,9 @@
       <c r="B132">
         <v>103</v>
       </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
       <c r="D132">
         <v>4</v>
       </c>
@@ -85152,6 +85543,9 @@
       <c r="B133">
         <v>12</v>
       </c>
+      <c r="C133">
+        <v>3</v>
+      </c>
       <c r="D133">
         <v>4</v>
       </c>
@@ -85164,6 +85558,9 @@
       <c r="B134">
         <v>120</v>
       </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
       <c r="D134">
         <v>4</v>
       </c>
@@ -85176,6 +85573,9 @@
       <c r="B135">
         <v>88</v>
       </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
       <c r="D135">
         <v>4</v>
       </c>
@@ -85187,6 +85587,9 @@
       </c>
       <c r="B136">
         <v>72</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
       </c>
       <c r="D136">
         <v>4</v>

--- a/実験/実験データまとめ.xlsx
+++ b/実験/実験データまとめ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashimayu/Desktop/lab/実験/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C7D728-5F42-004E-B641-9DE3CB7F20BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6ADD17-0DFD-6242-81F1-2469FEB82DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="500" windowWidth="24200" windowHeight="19580" activeTab="3" xr2:uid="{20293A05-F4A6-7F46-BCD8-EE73CE0C7222}"/>
+    <workbookView xWindow="2720" yWindow="500" windowWidth="24200" windowHeight="19580" activeTab="1" xr2:uid="{20293A05-F4A6-7F46-BCD8-EE73CE0C7222}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="19" r:id="rId1"/>
@@ -108,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,6 +145,14 @@
       <name val="Hiragino Kaku Gothic ProN"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Hiragino Kaku Gothic ProN"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -174,7 +182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -194,6 +202,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -37306,7 +37317,7 @@
   <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B136"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -51211,16 +51222,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3356F95-8913-A042-814D-C0473DA217B5}">
   <dimension ref="A1:D2279"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="A11" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5">
-        <v>3</v>
-      </c>
+      <c r="A1" s="7"/>
       <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
@@ -53105,6 +53112,9 @@
       <c r="A136">
         <v>24</v>
       </c>
+      <c r="B136">
+        <v>3</v>
+      </c>
       <c r="C136">
         <v>2</v>
       </c>
@@ -53116,6 +53126,9 @@
       <c r="A137">
         <v>52</v>
       </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
       <c r="C137">
         <v>2</v>
       </c>
@@ -53127,6 +53140,9 @@
       <c r="A138">
         <v>97</v>
       </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
       <c r="C138">
         <v>2</v>
       </c>
@@ -53138,6 +53154,9 @@
       <c r="A139">
         <v>132</v>
       </c>
+      <c r="B139">
+        <v>3</v>
+      </c>
       <c r="C139">
         <v>2</v>
       </c>
@@ -53149,6 +53168,9 @@
       <c r="A140">
         <v>126</v>
       </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
       <c r="C140">
         <v>2</v>
       </c>
@@ -53160,6 +53182,9 @@
       <c r="A141">
         <v>114</v>
       </c>
+      <c r="B141">
+        <v>5</v>
+      </c>
       <c r="C141">
         <v>2</v>
       </c>
@@ -53171,6 +53196,9 @@
       <c r="A142">
         <v>133</v>
       </c>
+      <c r="B142">
+        <v>4</v>
+      </c>
       <c r="C142">
         <v>2</v>
       </c>
@@ -53182,6 +53210,9 @@
       <c r="A143">
         <v>124</v>
       </c>
+      <c r="B143">
+        <v>3</v>
+      </c>
       <c r="C143">
         <v>2</v>
       </c>
@@ -53193,6 +53224,9 @@
       <c r="A144">
         <v>8</v>
       </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
       <c r="C144">
         <v>2</v>
       </c>
@@ -53204,6 +53238,9 @@
       <c r="A145">
         <v>16</v>
       </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
       <c r="C145">
         <v>2</v>
       </c>
@@ -53215,6 +53252,9 @@
       <c r="A146">
         <v>80</v>
       </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
       <c r="C146">
         <v>2</v>
       </c>
@@ -53226,6 +53266,9 @@
       <c r="A147">
         <v>63</v>
       </c>
+      <c r="B147">
+        <v>3</v>
+      </c>
       <c r="C147">
         <v>2</v>
       </c>
@@ -53236,6 +53279,9 @@
     <row r="148" spans="1:4">
       <c r="A148">
         <v>3</v>
+      </c>
+      <c r="B148">
+        <v>4</v>
       </c>
       <c r="C148">
         <v>2</v>
@@ -53248,6 +53294,9 @@
       <c r="A149">
         <v>53</v>
       </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
       <c r="C149">
         <v>2</v>
       </c>
@@ -53259,6 +53308,9 @@
       <c r="A150">
         <v>55</v>
       </c>
+      <c r="B150">
+        <v>4</v>
+      </c>
       <c r="C150">
         <v>2</v>
       </c>
@@ -53270,6 +53322,9 @@
       <c r="A151">
         <v>58</v>
       </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
       <c r="C151">
         <v>2</v>
       </c>
@@ -53281,6 +53336,9 @@
       <c r="A152">
         <v>116</v>
       </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
       <c r="C152">
         <v>2</v>
       </c>
@@ -53292,6 +53350,9 @@
       <c r="A153">
         <v>50</v>
       </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
       <c r="C153">
         <v>2</v>
       </c>
@@ -53303,6 +53364,9 @@
       <c r="A154">
         <v>7</v>
       </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
       <c r="C154">
         <v>2</v>
       </c>
@@ -53314,6 +53378,9 @@
       <c r="A155">
         <v>14</v>
       </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
       <c r="C155">
         <v>2</v>
       </c>
@@ -53325,6 +53392,9 @@
       <c r="A156">
         <v>75</v>
       </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
       <c r="C156">
         <v>2</v>
       </c>
@@ -53334,6 +53404,9 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
+        <v>5</v>
+      </c>
+      <c r="B157">
         <v>5</v>
       </c>
       <c r="C157">
@@ -53347,6 +53420,9 @@
       <c r="A158">
         <v>107</v>
       </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
       <c r="C158">
         <v>2</v>
       </c>
@@ -53358,6 +53434,9 @@
       <c r="A159">
         <v>125</v>
       </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
       <c r="C159">
         <v>2</v>
       </c>
@@ -53369,6 +53448,9 @@
       <c r="A160">
         <v>84</v>
       </c>
+      <c r="B160">
+        <v>5</v>
+      </c>
       <c r="C160">
         <v>2</v>
       </c>
@@ -53379,6 +53461,9 @@
     <row r="161" spans="1:4">
       <c r="A161">
         <v>1</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
       </c>
       <c r="C161">
         <v>2</v>
@@ -53391,6 +53476,9 @@
       <c r="A162">
         <v>92</v>
       </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
       <c r="C162">
         <v>2</v>
       </c>
@@ -53402,6 +53490,9 @@
       <c r="A163">
         <v>43</v>
       </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
       <c r="C163">
         <v>2</v>
       </c>
@@ -53413,6 +53504,9 @@
       <c r="A164">
         <v>65</v>
       </c>
+      <c r="B164">
+        <v>3</v>
+      </c>
       <c r="C164">
         <v>2</v>
       </c>
@@ -53424,6 +53518,9 @@
       <c r="A165">
         <v>130</v>
       </c>
+      <c r="B165">
+        <v>3</v>
+      </c>
       <c r="C165">
         <v>2</v>
       </c>
@@ -53435,6 +53532,9 @@
       <c r="A166">
         <v>17</v>
       </c>
+      <c r="B166">
+        <v>2</v>
+      </c>
       <c r="C166">
         <v>2</v>
       </c>
@@ -53446,6 +53546,9 @@
       <c r="A167">
         <v>99</v>
       </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
       <c r="C167">
         <v>2</v>
       </c>
@@ -53457,6 +53560,9 @@
       <c r="A168">
         <v>79</v>
       </c>
+      <c r="B168">
+        <v>4</v>
+      </c>
       <c r="C168">
         <v>2</v>
       </c>
@@ -53468,6 +53574,9 @@
       <c r="A169">
         <v>110</v>
       </c>
+      <c r="B169">
+        <v>3</v>
+      </c>
       <c r="C169">
         <v>2</v>
       </c>
@@ -53479,6 +53588,9 @@
       <c r="A170">
         <v>21</v>
       </c>
+      <c r="B170">
+        <v>3</v>
+      </c>
       <c r="C170">
         <v>2</v>
       </c>
@@ -53490,6 +53602,9 @@
       <c r="A171">
         <v>74</v>
       </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
       <c r="C171">
         <v>2</v>
       </c>
@@ -53501,6 +53616,9 @@
       <c r="A172">
         <v>98</v>
       </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
       <c r="C172">
         <v>2</v>
       </c>
@@ -53512,6 +53630,9 @@
       <c r="A173">
         <v>77</v>
       </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
       <c r="C173">
         <v>2</v>
       </c>
@@ -53523,6 +53644,9 @@
       <c r="A174">
         <v>48</v>
       </c>
+      <c r="B174">
+        <v>3</v>
+      </c>
       <c r="C174">
         <v>2</v>
       </c>
@@ -53534,6 +53658,9 @@
       <c r="A175">
         <v>82</v>
       </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
       <c r="C175">
         <v>2</v>
       </c>
@@ -53545,6 +53672,9 @@
       <c r="A176">
         <v>29</v>
       </c>
+      <c r="B176">
+        <v>4</v>
+      </c>
       <c r="C176">
         <v>2</v>
       </c>
@@ -53556,6 +53686,9 @@
       <c r="A177">
         <v>15</v>
       </c>
+      <c r="B177">
+        <v>2</v>
+      </c>
       <c r="C177">
         <v>2</v>
       </c>
@@ -53567,6 +53700,9 @@
       <c r="A178">
         <v>11</v>
       </c>
+      <c r="B178">
+        <v>4</v>
+      </c>
       <c r="C178">
         <v>2</v>
       </c>
@@ -53578,6 +53714,9 @@
       <c r="A179">
         <v>100</v>
       </c>
+      <c r="B179">
+        <v>5</v>
+      </c>
       <c r="C179">
         <v>2</v>
       </c>
@@ -53589,6 +53728,9 @@
       <c r="A180">
         <v>111</v>
       </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
       <c r="C180">
         <v>2</v>
       </c>
@@ -53600,6 +53742,9 @@
       <c r="A181">
         <v>56</v>
       </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
       <c r="C181">
         <v>2</v>
       </c>
@@ -53611,6 +53756,9 @@
       <c r="A182">
         <v>64</v>
       </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
       <c r="C182">
         <v>2</v>
       </c>
@@ -53622,6 +53770,9 @@
       <c r="A183">
         <v>37</v>
       </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
       <c r="C183">
         <v>2</v>
       </c>
@@ -53633,6 +53784,9 @@
       <c r="A184">
         <v>127</v>
       </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
       <c r="C184">
         <v>2</v>
       </c>
@@ -53644,6 +53798,9 @@
       <c r="A185">
         <v>115</v>
       </c>
+      <c r="B185">
+        <v>4</v>
+      </c>
       <c r="C185">
         <v>2</v>
       </c>
@@ -53655,6 +53812,9 @@
       <c r="A186">
         <v>38</v>
       </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
       <c r="C186">
         <v>2</v>
       </c>
@@ -53666,6 +53826,9 @@
       <c r="A187">
         <v>40</v>
       </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
       <c r="C187">
         <v>2</v>
       </c>
@@ -53677,6 +53840,9 @@
       <c r="A188">
         <v>122</v>
       </c>
+      <c r="B188">
+        <v>2</v>
+      </c>
       <c r="C188">
         <v>2</v>
       </c>
@@ -53688,6 +53854,9 @@
       <c r="A189">
         <v>101</v>
       </c>
+      <c r="B189">
+        <v>3</v>
+      </c>
       <c r="C189">
         <v>2</v>
       </c>
@@ -53699,6 +53868,9 @@
       <c r="A190">
         <v>28</v>
       </c>
+      <c r="B190">
+        <v>3</v>
+      </c>
       <c r="C190">
         <v>2</v>
       </c>
@@ -53710,6 +53882,9 @@
       <c r="A191">
         <v>90</v>
       </c>
+      <c r="B191">
+        <v>5</v>
+      </c>
       <c r="C191">
         <v>2</v>
       </c>
@@ -53721,6 +53896,9 @@
       <c r="A192">
         <v>119</v>
       </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
       <c r="C192">
         <v>2</v>
       </c>
@@ -53732,6 +53910,9 @@
       <c r="A193">
         <v>93</v>
       </c>
+      <c r="B193">
+        <v>3</v>
+      </c>
       <c r="C193">
         <v>2</v>
       </c>
@@ -53743,6 +53924,9 @@
       <c r="A194">
         <v>86</v>
       </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
       <c r="C194">
         <v>2</v>
       </c>
@@ -53754,6 +53938,9 @@
       <c r="A195">
         <v>36</v>
       </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
       <c r="C195">
         <v>2</v>
       </c>
@@ -53765,6 +53952,9 @@
       <c r="A196">
         <v>69</v>
       </c>
+      <c r="B196">
+        <v>4</v>
+      </c>
       <c r="C196">
         <v>2</v>
       </c>
@@ -53776,6 +53966,9 @@
       <c r="A197">
         <v>20</v>
       </c>
+      <c r="B197">
+        <v>3</v>
+      </c>
       <c r="C197">
         <v>2</v>
       </c>
@@ -53787,6 +53980,9 @@
       <c r="A198">
         <v>91</v>
       </c>
+      <c r="B198">
+        <v>5</v>
+      </c>
       <c r="C198">
         <v>2</v>
       </c>
@@ -53797,6 +53993,9 @@
     <row r="199" spans="1:4">
       <c r="A199">
         <v>2</v>
+      </c>
+      <c r="B199">
+        <v>4</v>
       </c>
       <c r="C199">
         <v>2</v>
@@ -53809,6 +54008,9 @@
       <c r="A200">
         <v>54</v>
       </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
       <c r="C200">
         <v>2</v>
       </c>
@@ -53820,6 +54022,9 @@
       <c r="A201">
         <v>112</v>
       </c>
+      <c r="B201">
+        <v>3</v>
+      </c>
       <c r="C201">
         <v>2</v>
       </c>
@@ -53831,6 +54036,9 @@
       <c r="A202">
         <v>51</v>
       </c>
+      <c r="B202">
+        <v>2</v>
+      </c>
       <c r="C202">
         <v>2</v>
       </c>
@@ -53842,6 +54050,9 @@
       <c r="A203">
         <v>68</v>
       </c>
+      <c r="B203">
+        <v>3</v>
+      </c>
       <c r="C203">
         <v>2</v>
       </c>
@@ -53853,6 +54064,9 @@
       <c r="A204">
         <v>113</v>
       </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
       <c r="C204">
         <v>2</v>
       </c>
@@ -53864,6 +54078,9 @@
       <c r="A205">
         <v>71</v>
       </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
       <c r="C205">
         <v>2</v>
       </c>
@@ -53875,6 +54092,9 @@
       <c r="A206">
         <v>102</v>
       </c>
+      <c r="B206">
+        <v>3</v>
+      </c>
       <c r="C206">
         <v>2</v>
       </c>
@@ -53886,6 +54106,9 @@
       <c r="A207">
         <v>104</v>
       </c>
+      <c r="B207">
+        <v>4</v>
+      </c>
       <c r="C207">
         <v>2</v>
       </c>
@@ -53897,6 +54120,9 @@
       <c r="A208">
         <v>96</v>
       </c>
+      <c r="B208">
+        <v>2</v>
+      </c>
       <c r="C208">
         <v>2</v>
       </c>
@@ -53908,6 +54134,9 @@
       <c r="A209">
         <v>59</v>
       </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
       <c r="C209">
         <v>2</v>
       </c>
@@ -53919,6 +54148,9 @@
       <c r="A210">
         <v>70</v>
       </c>
+      <c r="B210">
+        <v>3</v>
+      </c>
       <c r="C210">
         <v>2</v>
       </c>
@@ -53930,6 +54162,9 @@
       <c r="A211">
         <v>22</v>
       </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
       <c r="C211">
         <v>2</v>
       </c>
@@ -53941,6 +54176,9 @@
       <c r="A212">
         <v>33</v>
       </c>
+      <c r="B212">
+        <v>4</v>
+      </c>
       <c r="C212">
         <v>2</v>
       </c>
@@ -53952,6 +54190,9 @@
       <c r="A213">
         <v>30</v>
       </c>
+      <c r="B213">
+        <v>5</v>
+      </c>
       <c r="C213">
         <v>2</v>
       </c>
@@ -53963,6 +54204,9 @@
       <c r="A214">
         <v>62</v>
       </c>
+      <c r="B214">
+        <v>2</v>
+      </c>
       <c r="C214">
         <v>2</v>
       </c>
@@ -53974,6 +54218,9 @@
       <c r="A215">
         <v>35</v>
       </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
       <c r="C215">
         <v>2</v>
       </c>
@@ -53985,6 +54232,9 @@
       <c r="A216">
         <v>129</v>
       </c>
+      <c r="B216">
+        <v>3</v>
+      </c>
       <c r="C216">
         <v>2</v>
       </c>
@@ -53996,6 +54246,9 @@
       <c r="A217">
         <v>45</v>
       </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
       <c r="C217">
         <v>2</v>
       </c>
@@ -54007,6 +54260,9 @@
       <c r="A218">
         <v>31</v>
       </c>
+      <c r="B218">
+        <v>3</v>
+      </c>
       <c r="C218">
         <v>2</v>
       </c>
@@ -54018,6 +54274,9 @@
       <c r="A219">
         <v>42</v>
       </c>
+      <c r="B219">
+        <v>3</v>
+      </c>
       <c r="C219">
         <v>2</v>
       </c>
@@ -54029,6 +54288,9 @@
       <c r="A220">
         <v>118</v>
       </c>
+      <c r="B220">
+        <v>3</v>
+      </c>
       <c r="C220">
         <v>2</v>
       </c>
@@ -54040,6 +54302,9 @@
       <c r="A221">
         <v>131</v>
       </c>
+      <c r="B221">
+        <v>4</v>
+      </c>
       <c r="C221">
         <v>2</v>
       </c>
@@ -54051,6 +54316,9 @@
       <c r="A222">
         <v>39</v>
       </c>
+      <c r="B222">
+        <v>3</v>
+      </c>
       <c r="C222">
         <v>2</v>
       </c>
@@ -54062,6 +54330,9 @@
       <c r="A223">
         <v>57</v>
       </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
       <c r="C223">
         <v>2</v>
       </c>
@@ -54073,6 +54344,9 @@
       <c r="A224">
         <v>10</v>
       </c>
+      <c r="B224">
+        <v>3</v>
+      </c>
       <c r="C224">
         <v>2</v>
       </c>
@@ -54084,6 +54358,9 @@
       <c r="A225">
         <v>44</v>
       </c>
+      <c r="B225">
+        <v>2</v>
+      </c>
       <c r="C225">
         <v>2</v>
       </c>
@@ -54095,6 +54372,9 @@
       <c r="A226">
         <v>32</v>
       </c>
+      <c r="B226">
+        <v>3</v>
+      </c>
       <c r="C226">
         <v>2</v>
       </c>
@@ -54106,6 +54386,9 @@
       <c r="A227">
         <v>27</v>
       </c>
+      <c r="B227">
+        <v>4</v>
+      </c>
       <c r="C227">
         <v>2</v>
       </c>
@@ -54117,6 +54400,9 @@
       <c r="A228">
         <v>9</v>
       </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
       <c r="C228">
         <v>2</v>
       </c>
@@ -54128,6 +54414,9 @@
       <c r="A229">
         <v>108</v>
       </c>
+      <c r="B229">
+        <v>3</v>
+      </c>
       <c r="C229">
         <v>2</v>
       </c>
@@ -54139,6 +54428,9 @@
       <c r="A230">
         <v>83</v>
       </c>
+      <c r="B230">
+        <v>3</v>
+      </c>
       <c r="C230">
         <v>2</v>
       </c>
@@ -54149,6 +54441,9 @@
     <row r="231" spans="1:4">
       <c r="A231">
         <v>4</v>
+      </c>
+      <c r="B231">
+        <v>3</v>
       </c>
       <c r="C231">
         <v>2</v>
@@ -54161,6 +54456,9 @@
       <c r="A232">
         <v>78</v>
       </c>
+      <c r="B232">
+        <v>3</v>
+      </c>
       <c r="C232">
         <v>2</v>
       </c>
@@ -54172,6 +54470,9 @@
       <c r="A233">
         <v>85</v>
       </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
       <c r="C233">
         <v>2</v>
       </c>
@@ -54183,6 +54484,9 @@
       <c r="A234">
         <v>13</v>
       </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
       <c r="C234">
         <v>2</v>
       </c>
@@ -54194,6 +54498,9 @@
       <c r="A235">
         <v>95</v>
       </c>
+      <c r="B235">
+        <v>2</v>
+      </c>
       <c r="C235">
         <v>2</v>
       </c>
@@ -54205,6 +54512,9 @@
       <c r="A236">
         <v>18</v>
       </c>
+      <c r="B236">
+        <v>2</v>
+      </c>
       <c r="C236">
         <v>2</v>
       </c>
@@ -54216,6 +54526,9 @@
       <c r="A237">
         <v>73</v>
       </c>
+      <c r="B237">
+        <v>3</v>
+      </c>
       <c r="C237">
         <v>2</v>
       </c>
@@ -54227,6 +54540,9 @@
       <c r="A238">
         <v>134</v>
       </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
       <c r="C238">
         <v>2</v>
       </c>
@@ -54238,6 +54554,9 @@
       <c r="A239">
         <v>94</v>
       </c>
+      <c r="B239">
+        <v>3</v>
+      </c>
       <c r="C239">
         <v>2</v>
       </c>
@@ -54249,6 +54568,9 @@
       <c r="A240">
         <v>121</v>
       </c>
+      <c r="B240">
+        <v>3</v>
+      </c>
       <c r="C240">
         <v>2</v>
       </c>
@@ -54260,6 +54582,9 @@
       <c r="A241">
         <v>23</v>
       </c>
+      <c r="B241">
+        <v>3</v>
+      </c>
       <c r="C241">
         <v>2</v>
       </c>
@@ -54271,6 +54596,9 @@
       <c r="A242">
         <v>123</v>
       </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
       <c r="C242">
         <v>2</v>
       </c>
@@ -54282,6 +54610,9 @@
       <c r="A243">
         <v>117</v>
       </c>
+      <c r="B243">
+        <v>3</v>
+      </c>
       <c r="C243">
         <v>2</v>
       </c>
@@ -54293,6 +54624,9 @@
       <c r="A244">
         <v>6</v>
       </c>
+      <c r="B244">
+        <v>3</v>
+      </c>
       <c r="C244">
         <v>2</v>
       </c>
@@ -54304,6 +54638,9 @@
       <c r="A245">
         <v>46</v>
       </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
       <c r="C245">
         <v>2</v>
       </c>
@@ -54315,6 +54652,9 @@
       <c r="A246">
         <v>60</v>
       </c>
+      <c r="B246">
+        <v>4</v>
+      </c>
       <c r="C246">
         <v>2</v>
       </c>
@@ -54326,6 +54666,9 @@
       <c r="A247">
         <v>76</v>
       </c>
+      <c r="B247">
+        <v>3</v>
+      </c>
       <c r="C247">
         <v>2</v>
       </c>
@@ -54337,6 +54680,9 @@
       <c r="A248">
         <v>128</v>
       </c>
+      <c r="B248">
+        <v>4</v>
+      </c>
       <c r="C248">
         <v>2</v>
       </c>
@@ -54348,6 +54694,9 @@
       <c r="A249">
         <v>34</v>
       </c>
+      <c r="B249">
+        <v>3</v>
+      </c>
       <c r="C249">
         <v>2</v>
       </c>
@@ -54359,6 +54708,9 @@
       <c r="A250">
         <v>67</v>
       </c>
+      <c r="B250">
+        <v>3</v>
+      </c>
       <c r="C250">
         <v>2</v>
       </c>
@@ -54370,6 +54722,9 @@
       <c r="A251">
         <v>89</v>
       </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
       <c r="C251">
         <v>2</v>
       </c>
@@ -54381,6 +54736,9 @@
       <c r="A252">
         <v>81</v>
       </c>
+      <c r="B252">
+        <v>3</v>
+      </c>
       <c r="C252">
         <v>2</v>
       </c>
@@ -54392,6 +54750,9 @@
       <c r="A253">
         <v>106</v>
       </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
       <c r="C253">
         <v>2</v>
       </c>
@@ -54403,6 +54764,9 @@
       <c r="A254">
         <v>19</v>
       </c>
+      <c r="B254">
+        <v>4</v>
+      </c>
       <c r="C254">
         <v>2</v>
       </c>
@@ -54414,6 +54778,9 @@
       <c r="A255">
         <v>25</v>
       </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
       <c r="C255">
         <v>2</v>
       </c>
@@ -54425,6 +54792,9 @@
       <c r="A256">
         <v>49</v>
       </c>
+      <c r="B256">
+        <v>4</v>
+      </c>
       <c r="C256">
         <v>2</v>
       </c>
@@ -54436,6 +54806,9 @@
       <c r="A257">
         <v>61</v>
       </c>
+      <c r="B257">
+        <v>3</v>
+      </c>
       <c r="C257">
         <v>2</v>
       </c>
@@ -54447,6 +54820,9 @@
       <c r="A258">
         <v>26</v>
       </c>
+      <c r="B258">
+        <v>4</v>
+      </c>
       <c r="C258">
         <v>2</v>
       </c>
@@ -54458,6 +54834,9 @@
       <c r="A259">
         <v>66</v>
       </c>
+      <c r="B259">
+        <v>2</v>
+      </c>
       <c r="C259">
         <v>2</v>
       </c>
@@ -54469,6 +54848,9 @@
       <c r="A260">
         <v>105</v>
       </c>
+      <c r="B260">
+        <v>2</v>
+      </c>
       <c r="C260">
         <v>2</v>
       </c>
@@ -54480,6 +54862,9 @@
       <c r="A261">
         <v>109</v>
       </c>
+      <c r="B261">
+        <v>5</v>
+      </c>
       <c r="C261">
         <v>2</v>
       </c>
@@ -54491,6 +54876,9 @@
       <c r="A262">
         <v>47</v>
       </c>
+      <c r="B262">
+        <v>3</v>
+      </c>
       <c r="C262">
         <v>2</v>
       </c>
@@ -54502,6 +54890,9 @@
       <c r="A263">
         <v>41</v>
       </c>
+      <c r="B263">
+        <v>4</v>
+      </c>
       <c r="C263">
         <v>2</v>
       </c>
@@ -54513,6 +54904,9 @@
       <c r="A264">
         <v>87</v>
       </c>
+      <c r="B264">
+        <v>4</v>
+      </c>
       <c r="C264">
         <v>2</v>
       </c>
@@ -54524,6 +54918,9 @@
       <c r="A265">
         <v>103</v>
       </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
       <c r="C265">
         <v>2</v>
       </c>
@@ -54535,6 +54932,9 @@
       <c r="A266">
         <v>12</v>
       </c>
+      <c r="B266">
+        <v>3</v>
+      </c>
       <c r="C266">
         <v>2</v>
       </c>
@@ -54546,6 +54946,9 @@
       <c r="A267">
         <v>120</v>
       </c>
+      <c r="B267">
+        <v>3</v>
+      </c>
       <c r="C267">
         <v>2</v>
       </c>
@@ -54557,6 +54960,9 @@
       <c r="A268">
         <v>88</v>
       </c>
+      <c r="B268">
+        <v>3</v>
+      </c>
       <c r="C268">
         <v>2</v>
       </c>
@@ -54568,6 +54974,9 @@
       <c r="A269">
         <v>72</v>
       </c>
+      <c r="B269">
+        <v>3</v>
+      </c>
       <c r="C269">
         <v>2</v>
       </c>
@@ -58328,6 +58737,9 @@
       <c r="A538">
         <v>2</v>
       </c>
+      <c r="B538">
+        <v>5</v>
+      </c>
       <c r="C538">
         <v>5</v>
       </c>
@@ -58339,6 +58751,9 @@
       <c r="A539">
         <v>74</v>
       </c>
+      <c r="B539">
+        <v>3</v>
+      </c>
       <c r="C539">
         <v>5</v>
       </c>
@@ -58350,6 +58765,9 @@
       <c r="A540">
         <v>128</v>
       </c>
+      <c r="B540">
+        <v>3</v>
+      </c>
       <c r="C540">
         <v>5</v>
       </c>
@@ -58361,6 +58779,9 @@
       <c r="A541">
         <v>47</v>
       </c>
+      <c r="B541">
+        <v>4</v>
+      </c>
       <c r="C541">
         <v>5</v>
       </c>
@@ -58372,6 +58793,9 @@
       <c r="A542">
         <v>41</v>
       </c>
+      <c r="B542">
+        <v>3</v>
+      </c>
       <c r="C542">
         <v>5</v>
       </c>
@@ -58383,6 +58807,9 @@
       <c r="A543">
         <v>84</v>
       </c>
+      <c r="B543">
+        <v>4</v>
+      </c>
       <c r="C543">
         <v>5</v>
       </c>
@@ -58394,6 +58821,9 @@
       <c r="A544">
         <v>123</v>
       </c>
+      <c r="B544">
+        <v>2</v>
+      </c>
       <c r="C544">
         <v>5</v>
       </c>
@@ -58405,6 +58835,9 @@
       <c r="A545">
         <v>94</v>
       </c>
+      <c r="B545">
+        <v>4</v>
+      </c>
       <c r="C545">
         <v>5</v>
       </c>
@@ -58416,6 +58849,9 @@
       <c r="A546">
         <v>36</v>
       </c>
+      <c r="B546">
+        <v>2</v>
+      </c>
       <c r="C546">
         <v>5</v>
       </c>
@@ -58427,6 +58863,9 @@
       <c r="A547">
         <v>24</v>
       </c>
+      <c r="B547">
+        <v>4</v>
+      </c>
       <c r="C547">
         <v>5</v>
       </c>
@@ -58438,6 +58877,9 @@
       <c r="A548">
         <v>87</v>
       </c>
+      <c r="B548">
+        <v>2</v>
+      </c>
       <c r="C548">
         <v>5</v>
       </c>
@@ -58449,6 +58891,9 @@
       <c r="A549">
         <v>78</v>
       </c>
+      <c r="B549">
+        <v>2</v>
+      </c>
       <c r="C549">
         <v>5</v>
       </c>
@@ -58460,6 +58905,9 @@
       <c r="A550">
         <v>98</v>
       </c>
+      <c r="B550">
+        <v>3</v>
+      </c>
       <c r="C550">
         <v>5</v>
       </c>
@@ -58471,6 +58919,9 @@
       <c r="A551">
         <v>46</v>
       </c>
+      <c r="B551">
+        <v>4</v>
+      </c>
       <c r="C551">
         <v>5</v>
       </c>
@@ -58482,6 +58933,9 @@
       <c r="A552">
         <v>35</v>
       </c>
+      <c r="B552">
+        <v>2</v>
+      </c>
       <c r="C552">
         <v>5</v>
       </c>
@@ -58493,6 +58947,9 @@
       <c r="A553">
         <v>111</v>
       </c>
+      <c r="B553">
+        <v>4</v>
+      </c>
       <c r="C553">
         <v>5</v>
       </c>
@@ -58504,6 +58961,9 @@
       <c r="A554">
         <v>31</v>
       </c>
+      <c r="B554">
+        <v>3</v>
+      </c>
       <c r="C554">
         <v>5</v>
       </c>
@@ -58515,6 +58975,9 @@
       <c r="A555">
         <v>73</v>
       </c>
+      <c r="B555">
+        <v>2</v>
+      </c>
       <c r="C555">
         <v>5</v>
       </c>
@@ -58526,6 +58989,9 @@
       <c r="A556">
         <v>30</v>
       </c>
+      <c r="B556">
+        <v>3</v>
+      </c>
       <c r="C556">
         <v>5</v>
       </c>
@@ -58537,6 +59003,9 @@
       <c r="A557">
         <v>119</v>
       </c>
+      <c r="B557">
+        <v>3</v>
+      </c>
       <c r="C557">
         <v>5</v>
       </c>
@@ -58548,6 +59017,9 @@
       <c r="A558">
         <v>49</v>
       </c>
+      <c r="B558">
+        <v>4</v>
+      </c>
       <c r="C558">
         <v>5</v>
       </c>
@@ -58559,6 +59031,9 @@
       <c r="A559">
         <v>101</v>
       </c>
+      <c r="B559">
+        <v>2</v>
+      </c>
       <c r="C559">
         <v>5</v>
       </c>
@@ -58570,6 +59045,9 @@
       <c r="A560">
         <v>59</v>
       </c>
+      <c r="B560">
+        <v>2</v>
+      </c>
       <c r="C560">
         <v>5</v>
       </c>
@@ -58581,6 +59059,9 @@
       <c r="A561">
         <v>66</v>
       </c>
+      <c r="B561">
+        <v>3</v>
+      </c>
       <c r="C561">
         <v>5</v>
       </c>
@@ -58592,6 +59073,9 @@
       <c r="A562">
         <v>117</v>
       </c>
+      <c r="B562">
+        <v>3</v>
+      </c>
       <c r="C562">
         <v>5</v>
       </c>
@@ -58603,6 +59087,9 @@
       <c r="A563">
         <v>55</v>
       </c>
+      <c r="B563">
+        <v>3</v>
+      </c>
       <c r="C563">
         <v>5</v>
       </c>
@@ -58614,6 +59101,9 @@
       <c r="A564">
         <v>8</v>
       </c>
+      <c r="B564">
+        <v>3</v>
+      </c>
       <c r="C564">
         <v>5</v>
       </c>
@@ -58625,6 +59115,9 @@
       <c r="A565">
         <v>60</v>
       </c>
+      <c r="B565">
+        <v>2</v>
+      </c>
       <c r="C565">
         <v>5</v>
       </c>
@@ -58636,6 +59129,9 @@
       <c r="A566">
         <v>131</v>
       </c>
+      <c r="B566">
+        <v>3</v>
+      </c>
       <c r="C566">
         <v>5</v>
       </c>
@@ -58647,6 +59143,9 @@
       <c r="A567">
         <v>32</v>
       </c>
+      <c r="B567">
+        <v>3</v>
+      </c>
       <c r="C567">
         <v>5</v>
       </c>
@@ -58658,6 +59157,9 @@
       <c r="A568">
         <v>106</v>
       </c>
+      <c r="B568">
+        <v>2</v>
+      </c>
       <c r="C568">
         <v>5</v>
       </c>
@@ -58669,6 +59171,9 @@
       <c r="A569">
         <v>52</v>
       </c>
+      <c r="B569">
+        <v>4</v>
+      </c>
       <c r="C569">
         <v>5</v>
       </c>
@@ -58680,6 +59185,9 @@
       <c r="A570">
         <v>105</v>
       </c>
+      <c r="B570">
+        <v>3</v>
+      </c>
       <c r="C570">
         <v>5</v>
       </c>
@@ -58691,6 +59199,9 @@
       <c r="A571">
         <v>18</v>
       </c>
+      <c r="B571">
+        <v>2</v>
+      </c>
       <c r="C571">
         <v>5</v>
       </c>
@@ -58702,6 +59213,9 @@
       <c r="A572">
         <v>45</v>
       </c>
+      <c r="B572">
+        <v>3</v>
+      </c>
       <c r="C572">
         <v>5</v>
       </c>
@@ -58713,6 +59227,9 @@
       <c r="A573">
         <v>90</v>
       </c>
+      <c r="B573">
+        <v>5</v>
+      </c>
       <c r="C573">
         <v>5</v>
       </c>
@@ -58724,6 +59241,9 @@
       <c r="A574">
         <v>112</v>
       </c>
+      <c r="B574">
+        <v>4</v>
+      </c>
       <c r="C574">
         <v>5</v>
       </c>
@@ -58735,6 +59255,9 @@
       <c r="A575">
         <v>22</v>
       </c>
+      <c r="B575">
+        <v>2</v>
+      </c>
       <c r="C575">
         <v>5</v>
       </c>
@@ -58746,6 +59269,9 @@
       <c r="A576">
         <v>132</v>
       </c>
+      <c r="B576">
+        <v>3</v>
+      </c>
       <c r="C576">
         <v>5</v>
       </c>
@@ -58757,6 +59283,9 @@
       <c r="A577">
         <v>50</v>
       </c>
+      <c r="B577">
+        <v>3</v>
+      </c>
       <c r="C577">
         <v>5</v>
       </c>
@@ -58768,6 +59297,9 @@
       <c r="A578">
         <v>23</v>
       </c>
+      <c r="B578">
+        <v>4</v>
+      </c>
       <c r="C578">
         <v>5</v>
       </c>
@@ -58779,6 +59311,9 @@
       <c r="A579">
         <v>75</v>
       </c>
+      <c r="B579">
+        <v>2</v>
+      </c>
       <c r="C579">
         <v>5</v>
       </c>
@@ -58790,6 +59325,9 @@
       <c r="A580">
         <v>15</v>
       </c>
+      <c r="B580">
+        <v>3</v>
+      </c>
       <c r="C580">
         <v>5</v>
       </c>
@@ -58801,6 +59339,9 @@
       <c r="A581">
         <v>93</v>
       </c>
+      <c r="B581">
+        <v>3</v>
+      </c>
       <c r="C581">
         <v>5</v>
       </c>
@@ -58812,6 +59353,9 @@
       <c r="A582">
         <v>92</v>
       </c>
+      <c r="B582">
+        <v>4</v>
+      </c>
       <c r="C582">
         <v>5</v>
       </c>
@@ -58823,6 +59367,9 @@
       <c r="A583">
         <v>104</v>
       </c>
+      <c r="B583">
+        <v>3</v>
+      </c>
       <c r="C583">
         <v>5</v>
       </c>
@@ -58834,6 +59381,9 @@
       <c r="A584">
         <v>100</v>
       </c>
+      <c r="B584">
+        <v>4</v>
+      </c>
       <c r="C584">
         <v>5</v>
       </c>
@@ -58845,6 +59395,9 @@
       <c r="A585">
         <v>10</v>
       </c>
+      <c r="B585">
+        <v>4</v>
+      </c>
       <c r="C585">
         <v>5</v>
       </c>
@@ -58856,6 +59409,9 @@
       <c r="A586">
         <v>65</v>
       </c>
+      <c r="B586">
+        <v>3</v>
+      </c>
       <c r="C586">
         <v>5</v>
       </c>
@@ -58867,6 +59423,9 @@
       <c r="A587">
         <v>57</v>
       </c>
+      <c r="B587">
+        <v>3</v>
+      </c>
       <c r="C587">
         <v>5</v>
       </c>
@@ -58878,6 +59437,9 @@
       <c r="A588">
         <v>110</v>
       </c>
+      <c r="B588">
+        <v>2</v>
+      </c>
       <c r="C588">
         <v>5</v>
       </c>
@@ -58889,6 +59451,9 @@
       <c r="A589">
         <v>9</v>
       </c>
+      <c r="B589">
+        <v>2</v>
+      </c>
       <c r="C589">
         <v>5</v>
       </c>
@@ -58900,6 +59465,9 @@
       <c r="A590">
         <v>88</v>
       </c>
+      <c r="B590">
+        <v>3</v>
+      </c>
       <c r="C590">
         <v>5</v>
       </c>
@@ -58911,6 +59479,9 @@
       <c r="A591">
         <v>134</v>
       </c>
+      <c r="B591">
+        <v>2</v>
+      </c>
       <c r="C591">
         <v>5</v>
       </c>
@@ -58922,6 +59493,9 @@
       <c r="A592">
         <v>81</v>
       </c>
+      <c r="B592">
+        <v>4</v>
+      </c>
       <c r="C592">
         <v>5</v>
       </c>
@@ -58933,6 +59507,9 @@
       <c r="A593">
         <v>13</v>
       </c>
+      <c r="B593">
+        <v>2</v>
+      </c>
       <c r="C593">
         <v>5</v>
       </c>
@@ -58944,6 +59521,9 @@
       <c r="A594">
         <v>116</v>
       </c>
+      <c r="B594">
+        <v>2</v>
+      </c>
       <c r="C594">
         <v>5</v>
       </c>
@@ -58955,6 +59535,9 @@
       <c r="A595">
         <v>82</v>
       </c>
+      <c r="B595">
+        <v>2</v>
+      </c>
       <c r="C595">
         <v>5</v>
       </c>
@@ -58966,6 +59549,9 @@
       <c r="A596">
         <v>14</v>
       </c>
+      <c r="B596">
+        <v>3</v>
+      </c>
       <c r="C596">
         <v>5</v>
       </c>
@@ -58977,6 +59563,9 @@
       <c r="A597">
         <v>39</v>
       </c>
+      <c r="B597">
+        <v>3</v>
+      </c>
       <c r="C597">
         <v>5</v>
       </c>
@@ -58988,6 +59577,9 @@
       <c r="A598">
         <v>99</v>
       </c>
+      <c r="B598">
+        <v>3</v>
+      </c>
       <c r="C598">
         <v>5</v>
       </c>
@@ -58999,6 +59591,9 @@
       <c r="A599">
         <v>72</v>
       </c>
+      <c r="B599">
+        <v>5</v>
+      </c>
       <c r="C599">
         <v>5</v>
       </c>
@@ -59010,6 +59605,9 @@
       <c r="A600">
         <v>21</v>
       </c>
+      <c r="B600">
+        <v>3</v>
+      </c>
       <c r="C600">
         <v>5</v>
       </c>
@@ -59021,6 +59619,9 @@
       <c r="A601">
         <v>34</v>
       </c>
+      <c r="B601">
+        <v>3</v>
+      </c>
       <c r="C601">
         <v>5</v>
       </c>
@@ -59032,6 +59633,9 @@
       <c r="A602">
         <v>12</v>
       </c>
+      <c r="B602">
+        <v>3</v>
+      </c>
       <c r="C602">
         <v>5</v>
       </c>
@@ -59043,6 +59647,9 @@
       <c r="A603">
         <v>6</v>
       </c>
+      <c r="B603">
+        <v>2</v>
+      </c>
       <c r="C603">
         <v>5</v>
       </c>
@@ -59054,6 +59661,9 @@
       <c r="A604">
         <v>107</v>
       </c>
+      <c r="B604">
+        <v>4</v>
+      </c>
       <c r="C604">
         <v>5</v>
       </c>
@@ -59065,6 +59675,9 @@
       <c r="A605">
         <v>25</v>
       </c>
+      <c r="B605">
+        <v>3</v>
+      </c>
       <c r="C605">
         <v>5</v>
       </c>
@@ -59076,6 +59689,9 @@
       <c r="A606">
         <v>62</v>
       </c>
+      <c r="B606">
+        <v>3</v>
+      </c>
       <c r="C606">
         <v>5</v>
       </c>
@@ -59087,6 +59703,9 @@
       <c r="A607">
         <v>37</v>
       </c>
+      <c r="B607">
+        <v>2</v>
+      </c>
       <c r="C607">
         <v>5</v>
       </c>
@@ -59098,6 +59717,9 @@
       <c r="A608">
         <v>113</v>
       </c>
+      <c r="B608">
+        <v>3</v>
+      </c>
       <c r="C608">
         <v>5</v>
       </c>
@@ -59109,6 +59731,9 @@
       <c r="A609">
         <v>20</v>
       </c>
+      <c r="B609">
+        <v>3</v>
+      </c>
       <c r="C609">
         <v>5</v>
       </c>
@@ -59120,6 +59745,9 @@
       <c r="A610">
         <v>67</v>
       </c>
+      <c r="B610">
+        <v>3</v>
+      </c>
       <c r="C610">
         <v>5</v>
       </c>
@@ -59131,6 +59759,9 @@
       <c r="A611">
         <v>68</v>
       </c>
+      <c r="B611">
+        <v>2</v>
+      </c>
       <c r="C611">
         <v>5</v>
       </c>
@@ -59142,6 +59773,9 @@
       <c r="A612">
         <v>56</v>
       </c>
+      <c r="B612">
+        <v>3</v>
+      </c>
       <c r="C612">
         <v>5</v>
       </c>
@@ -59152,6 +59786,9 @@
     <row r="613" spans="1:4">
       <c r="A613">
         <v>5</v>
+      </c>
+      <c r="B613">
+        <v>4</v>
       </c>
       <c r="C613">
         <v>5</v>
@@ -59164,6 +59801,9 @@
       <c r="A614">
         <v>77</v>
       </c>
+      <c r="B614">
+        <v>4</v>
+      </c>
       <c r="C614">
         <v>5</v>
       </c>
@@ -59175,6 +59815,9 @@
       <c r="A615">
         <v>125</v>
       </c>
+      <c r="B615">
+        <v>3</v>
+      </c>
       <c r="C615">
         <v>5</v>
       </c>
@@ -59186,6 +59829,9 @@
       <c r="A616">
         <v>51</v>
       </c>
+      <c r="B616">
+        <v>3</v>
+      </c>
       <c r="C616">
         <v>5</v>
       </c>
@@ -59197,6 +59843,9 @@
       <c r="A617">
         <v>83</v>
       </c>
+      <c r="B617">
+        <v>4</v>
+      </c>
       <c r="C617">
         <v>5</v>
       </c>
@@ -59208,6 +59857,9 @@
       <c r="A618">
         <v>91</v>
       </c>
+      <c r="B618">
+        <v>4</v>
+      </c>
       <c r="C618">
         <v>5</v>
       </c>
@@ -59219,6 +59871,9 @@
       <c r="A619">
         <v>89</v>
       </c>
+      <c r="B619">
+        <v>3</v>
+      </c>
       <c r="C619">
         <v>5</v>
       </c>
@@ -59230,6 +59885,9 @@
       <c r="A620">
         <v>118</v>
       </c>
+      <c r="B620">
+        <v>2</v>
+      </c>
       <c r="C620">
         <v>5</v>
       </c>
@@ -59241,6 +59899,9 @@
       <c r="A621">
         <v>69</v>
       </c>
+      <c r="B621">
+        <v>3</v>
+      </c>
       <c r="C621">
         <v>5</v>
       </c>
@@ -59252,6 +59913,9 @@
       <c r="A622">
         <v>126</v>
       </c>
+      <c r="B622">
+        <v>3</v>
+      </c>
       <c r="C622">
         <v>5</v>
       </c>
@@ -59263,6 +59927,9 @@
       <c r="A623">
         <v>11</v>
       </c>
+      <c r="B623">
+        <v>3</v>
+      </c>
       <c r="C623">
         <v>5</v>
       </c>
@@ -59274,6 +59941,9 @@
       <c r="A624">
         <v>29</v>
       </c>
+      <c r="B624">
+        <v>3</v>
+      </c>
       <c r="C624">
         <v>5</v>
       </c>
@@ -59285,6 +59955,9 @@
       <c r="A625">
         <v>76</v>
       </c>
+      <c r="B625">
+        <v>2</v>
+      </c>
       <c r="C625">
         <v>5</v>
       </c>
@@ -59296,6 +59969,9 @@
       <c r="A626">
         <v>103</v>
       </c>
+      <c r="B626">
+        <v>3</v>
+      </c>
       <c r="C626">
         <v>5</v>
       </c>
@@ -59307,6 +59983,9 @@
       <c r="A627">
         <v>54</v>
       </c>
+      <c r="B627">
+        <v>2</v>
+      </c>
       <c r="C627">
         <v>5</v>
       </c>
@@ -59318,6 +59997,9 @@
       <c r="A628">
         <v>86</v>
       </c>
+      <c r="B628">
+        <v>2</v>
+      </c>
       <c r="C628">
         <v>5</v>
       </c>
@@ -59329,6 +60011,9 @@
       <c r="A629">
         <v>72</v>
       </c>
+      <c r="B629">
+        <v>4</v>
+      </c>
       <c r="C629">
         <v>5</v>
       </c>
@@ -59340,6 +60025,9 @@
       <c r="A630">
         <v>21</v>
       </c>
+      <c r="B630">
+        <v>3</v>
+      </c>
       <c r="C630">
         <v>5</v>
       </c>
@@ -59351,6 +60039,9 @@
       <c r="A631">
         <v>34</v>
       </c>
+      <c r="B631">
+        <v>3</v>
+      </c>
       <c r="C631">
         <v>5</v>
       </c>
@@ -59362,6 +60053,9 @@
       <c r="A632">
         <v>12</v>
       </c>
+      <c r="B632">
+        <v>5</v>
+      </c>
       <c r="C632">
         <v>5</v>
       </c>
@@ -59373,6 +60067,9 @@
       <c r="A633">
         <v>6</v>
       </c>
+      <c r="B633">
+        <v>3</v>
+      </c>
       <c r="C633">
         <v>5</v>
       </c>
@@ -59384,6 +60081,9 @@
       <c r="A634">
         <v>107</v>
       </c>
+      <c r="B634">
+        <v>2</v>
+      </c>
       <c r="C634">
         <v>5</v>
       </c>
@@ -59395,6 +60095,9 @@
       <c r="A635">
         <v>25</v>
       </c>
+      <c r="B635">
+        <v>3</v>
+      </c>
       <c r="C635">
         <v>5</v>
       </c>
@@ -59406,6 +60109,9 @@
       <c r="A636">
         <v>62</v>
       </c>
+      <c r="B636">
+        <v>2</v>
+      </c>
       <c r="C636">
         <v>5</v>
       </c>
@@ -59417,6 +60123,9 @@
       <c r="A637">
         <v>37</v>
       </c>
+      <c r="B637">
+        <v>4</v>
+      </c>
       <c r="C637">
         <v>5</v>
       </c>
@@ -59428,6 +60137,9 @@
       <c r="A638">
         <v>113</v>
       </c>
+      <c r="B638">
+        <v>2</v>
+      </c>
       <c r="C638">
         <v>5</v>
       </c>
@@ -59439,6 +60151,9 @@
       <c r="A639">
         <v>20</v>
       </c>
+      <c r="B639">
+        <v>4</v>
+      </c>
       <c r="C639">
         <v>5</v>
       </c>
@@ -59450,6 +60165,9 @@
       <c r="A640">
         <v>67</v>
       </c>
+      <c r="B640">
+        <v>3</v>
+      </c>
       <c r="C640">
         <v>5</v>
       </c>
@@ -59461,6 +60179,9 @@
       <c r="A641">
         <v>68</v>
       </c>
+      <c r="B641">
+        <v>4</v>
+      </c>
       <c r="C641">
         <v>5</v>
       </c>
@@ -59472,6 +60193,9 @@
       <c r="A642">
         <v>56</v>
       </c>
+      <c r="B642">
+        <v>3</v>
+      </c>
       <c r="C642">
         <v>5</v>
       </c>
@@ -59482,6 +60206,9 @@
     <row r="643" spans="1:4">
       <c r="A643">
         <v>5</v>
+      </c>
+      <c r="B643">
+        <v>3</v>
       </c>
       <c r="C643">
         <v>5</v>
@@ -59494,6 +60221,9 @@
       <c r="A644">
         <v>77</v>
       </c>
+      <c r="B644">
+        <v>2</v>
+      </c>
       <c r="C644">
         <v>5</v>
       </c>
@@ -59505,6 +60235,9 @@
       <c r="A645">
         <v>125</v>
       </c>
+      <c r="B645">
+        <v>2</v>
+      </c>
       <c r="C645">
         <v>5</v>
       </c>
@@ -59516,6 +60249,9 @@
       <c r="A646">
         <v>51</v>
       </c>
+      <c r="B646">
+        <v>3</v>
+      </c>
       <c r="C646">
         <v>5</v>
       </c>
@@ -59527,6 +60263,9 @@
       <c r="A647">
         <v>83</v>
       </c>
+      <c r="B647">
+        <v>4</v>
+      </c>
       <c r="C647">
         <v>5</v>
       </c>
@@ -59538,6 +60277,9 @@
       <c r="A648">
         <v>91</v>
       </c>
+      <c r="B648">
+        <v>4</v>
+      </c>
       <c r="C648">
         <v>5</v>
       </c>
@@ -59549,6 +60291,9 @@
       <c r="A649">
         <v>89</v>
       </c>
+      <c r="B649">
+        <v>2</v>
+      </c>
       <c r="C649">
         <v>5</v>
       </c>
@@ -59560,6 +60305,9 @@
       <c r="A650">
         <v>118</v>
       </c>
+      <c r="B650">
+        <v>4</v>
+      </c>
       <c r="C650">
         <v>5</v>
       </c>
@@ -59571,6 +60319,9 @@
       <c r="A651">
         <v>69</v>
       </c>
+      <c r="B651">
+        <v>4</v>
+      </c>
       <c r="C651">
         <v>5</v>
       </c>
@@ -59582,6 +60333,9 @@
       <c r="A652">
         <v>126</v>
       </c>
+      <c r="B652">
+        <v>3</v>
+      </c>
       <c r="C652">
         <v>5</v>
       </c>
@@ -59593,6 +60347,9 @@
       <c r="A653">
         <v>11</v>
       </c>
+      <c r="B653">
+        <v>3</v>
+      </c>
       <c r="C653">
         <v>5</v>
       </c>
@@ -59604,6 +60361,9 @@
       <c r="A654">
         <v>29</v>
       </c>
+      <c r="B654">
+        <v>4</v>
+      </c>
       <c r="C654">
         <v>5</v>
       </c>
@@ -59615,6 +60375,9 @@
       <c r="A655">
         <v>76</v>
       </c>
+      <c r="B655">
+        <v>3</v>
+      </c>
       <c r="C655">
         <v>5</v>
       </c>
@@ -59626,6 +60389,9 @@
       <c r="A656">
         <v>103</v>
       </c>
+      <c r="B656">
+        <v>3</v>
+      </c>
       <c r="C656">
         <v>5</v>
       </c>
@@ -59637,6 +60403,9 @@
       <c r="A657">
         <v>54</v>
       </c>
+      <c r="B657">
+        <v>3</v>
+      </c>
       <c r="C657">
         <v>5</v>
       </c>
@@ -59648,6 +60417,9 @@
       <c r="A658">
         <v>86</v>
       </c>
+      <c r="B658">
+        <v>2</v>
+      </c>
       <c r="C658">
         <v>5</v>
       </c>
@@ -59659,6 +60431,9 @@
       <c r="A659">
         <v>53</v>
       </c>
+      <c r="B659">
+        <v>2</v>
+      </c>
       <c r="C659">
         <v>5</v>
       </c>
@@ -59670,6 +60445,9 @@
       <c r="A660">
         <v>28</v>
       </c>
+      <c r="B660">
+        <v>3</v>
+      </c>
       <c r="C660">
         <v>5</v>
       </c>
@@ -59681,6 +60459,9 @@
       <c r="A661">
         <v>120</v>
       </c>
+      <c r="B661">
+        <v>4</v>
+      </c>
       <c r="C661">
         <v>5</v>
       </c>
@@ -59692,6 +60473,9 @@
       <c r="A662">
         <v>109</v>
       </c>
+      <c r="B662">
+        <v>3</v>
+      </c>
       <c r="C662">
         <v>5</v>
       </c>
@@ -59703,6 +60487,9 @@
       <c r="A663">
         <v>63</v>
       </c>
+      <c r="B663">
+        <v>4</v>
+      </c>
       <c r="C663">
         <v>5</v>
       </c>
@@ -59714,6 +60501,9 @@
       <c r="A664">
         <v>7</v>
       </c>
+      <c r="B664">
+        <v>2</v>
+      </c>
       <c r="C664">
         <v>5</v>
       </c>
@@ -59725,6 +60515,9 @@
       <c r="A665">
         <v>95</v>
       </c>
+      <c r="B665">
+        <v>3</v>
+      </c>
       <c r="C665">
         <v>5</v>
       </c>
@@ -59736,6 +60529,9 @@
       <c r="A666">
         <v>70</v>
       </c>
+      <c r="B666">
+        <v>3</v>
+      </c>
       <c r="C666">
         <v>5</v>
       </c>
@@ -59747,6 +60543,9 @@
       <c r="A667">
         <v>27</v>
       </c>
+      <c r="B667">
+        <v>4</v>
+      </c>
       <c r="C667">
         <v>5</v>
       </c>
@@ -59758,6 +60557,9 @@
       <c r="A668">
         <v>48</v>
       </c>
+      <c r="B668">
+        <v>3</v>
+      </c>
       <c r="C668">
         <v>5</v>
       </c>
@@ -59769,6 +60571,9 @@
       <c r="A669">
         <v>133</v>
       </c>
+      <c r="B669">
+        <v>3</v>
+      </c>
       <c r="C669">
         <v>5</v>
       </c>
@@ -59780,6 +60585,9 @@
       <c r="A670">
         <v>85</v>
       </c>
+      <c r="B670">
+        <v>4</v>
+      </c>
       <c r="C670">
         <v>5</v>
       </c>
@@ -59790,6 +60598,9 @@
     <row r="671" spans="1:4">
       <c r="A671">
         <v>79</v>
+      </c>
+      <c r="B671">
+        <v>3</v>
       </c>
       <c r="C671">
         <v>5</v>
@@ -83561,8 +84372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3E86E5-1720-7346-8852-BAD27B11593E}">
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="F132" sqref="F132"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C136" sqref="C3:C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -89693,8 +90504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E89A397-9BA0-DF4A-B287-FB5F7812C875}">
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B136"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C136" sqref="C3:C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -89725,6 +90536,9 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
       <c r="D3">
         <v>1</v>
       </c>
@@ -89737,6 +90551,9 @@
       <c r="B4">
         <v>74</v>
       </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
       <c r="D4">
         <v>1</v>
       </c>
@@ -89749,6 +90566,9 @@
       <c r="B5">
         <v>128</v>
       </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
       <c r="D5">
         <v>1</v>
       </c>
@@ -89761,6 +90581,9 @@
       <c r="B6">
         <v>47</v>
       </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
       <c r="D6">
         <v>1</v>
       </c>
@@ -89773,6 +90596,9 @@
       <c r="B7">
         <v>41</v>
       </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
       <c r="D7">
         <v>1</v>
       </c>
@@ -89785,6 +90611,9 @@
       <c r="B8">
         <v>84</v>
       </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
       <c r="D8">
         <v>1</v>
       </c>
@@ -89797,6 +90626,9 @@
       <c r="B9">
         <v>123</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="D9">
         <v>1</v>
       </c>
@@ -89809,6 +90641,9 @@
       <c r="B10">
         <v>94</v>
       </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
       <c r="D10">
         <v>1</v>
       </c>
@@ -89821,6 +90656,9 @@
       <c r="B11">
         <v>36</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="D11">
         <v>1</v>
       </c>
@@ -89833,6 +90671,9 @@
       <c r="B12">
         <v>24</v>
       </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
       <c r="D12">
         <v>1</v>
       </c>
@@ -89845,6 +90686,9 @@
       <c r="B13">
         <v>87</v>
       </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
       <c r="D13">
         <v>1</v>
       </c>
@@ -89857,6 +90701,9 @@
       <c r="B14">
         <v>78</v>
       </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
       <c r="D14">
         <v>1</v>
       </c>
@@ -89869,6 +90716,9 @@
       <c r="B15">
         <v>98</v>
       </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
       <c r="D15">
         <v>1</v>
       </c>
@@ -89881,6 +90731,9 @@
       <c r="B16">
         <v>46</v>
       </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
       <c r="D16">
         <v>1</v>
       </c>
@@ -89893,6 +90746,9 @@
       <c r="B17">
         <v>35</v>
       </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
       <c r="D17">
         <v>1</v>
       </c>
@@ -89905,6 +90761,9 @@
       <c r="B18">
         <v>111</v>
       </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
       <c r="D18">
         <v>1</v>
       </c>
@@ -89917,6 +90776,9 @@
       <c r="B19">
         <v>31</v>
       </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
       <c r="D19">
         <v>1</v>
       </c>
@@ -89929,6 +90791,9 @@
       <c r="B20">
         <v>73</v>
       </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
       <c r="D20">
         <v>1</v>
       </c>
@@ -89941,6 +90806,9 @@
       <c r="B21">
         <v>30</v>
       </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
       <c r="D21">
         <v>1</v>
       </c>
@@ -89952,6 +90820,9 @@
       </c>
       <c r="B22">
         <v>119</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -89965,6 +90836,9 @@
       <c r="B23">
         <v>49</v>
       </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
       <c r="D23">
         <v>1</v>
       </c>
@@ -89977,6 +90851,9 @@
       <c r="B24">
         <v>101</v>
       </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
       <c r="D24">
         <v>1</v>
       </c>
@@ -89989,6 +90866,9 @@
       <c r="B25">
         <v>59</v>
       </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
       <c r="D25">
         <v>1</v>
       </c>
@@ -90001,6 +90881,9 @@
       <c r="B26">
         <v>66</v>
       </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
       <c r="D26">
         <v>1</v>
       </c>
@@ -90013,6 +90896,9 @@
       <c r="B27">
         <v>117</v>
       </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
       <c r="D27">
         <v>1</v>
       </c>
@@ -90025,6 +90911,9 @@
       <c r="B28">
         <v>55</v>
       </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
       <c r="D28">
         <v>1</v>
       </c>
@@ -90037,6 +90926,9 @@
       <c r="B29">
         <v>8</v>
       </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
       <c r="D29">
         <v>1</v>
       </c>
@@ -90049,6 +90941,9 @@
       <c r="B30">
         <v>60</v>
       </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
       <c r="D30">
         <v>1</v>
       </c>
@@ -90061,6 +90956,9 @@
       <c r="B31">
         <v>131</v>
       </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
       <c r="D31">
         <v>1</v>
       </c>
@@ -90073,6 +90971,9 @@
       <c r="B32">
         <v>32</v>
       </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
       <c r="D32">
         <v>1</v>
       </c>
@@ -90085,6 +90986,9 @@
       <c r="B33">
         <v>106</v>
       </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
       <c r="D33">
         <v>1</v>
       </c>
@@ -90097,6 +91001,9 @@
       <c r="B34">
         <v>52</v>
       </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
       <c r="D34">
         <v>2</v>
       </c>
@@ -90109,6 +91016,9 @@
       <c r="B35">
         <v>105</v>
       </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
       <c r="D35">
         <v>2</v>
       </c>
@@ -90121,6 +91031,9 @@
       <c r="B36">
         <v>18</v>
       </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
       <c r="D36">
         <v>2</v>
       </c>
@@ -90133,6 +91046,9 @@
       <c r="B37">
         <v>45</v>
       </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
       <c r="D37">
         <v>2</v>
       </c>
@@ -90145,6 +91061,9 @@
       <c r="B38">
         <v>90</v>
       </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
       <c r="D38">
         <v>2</v>
       </c>
@@ -90156,6 +91075,9 @@
       </c>
       <c r="B39">
         <v>112</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -90169,6 +91091,9 @@
       <c r="B40">
         <v>22</v>
       </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
       <c r="D40">
         <v>2</v>
       </c>
@@ -90181,6 +91106,9 @@
       <c r="B41">
         <v>132</v>
       </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
       <c r="D41">
         <v>2</v>
       </c>
@@ -90193,6 +91121,9 @@
       <c r="B42">
         <v>50</v>
       </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
       <c r="D42">
         <v>2</v>
       </c>
@@ -90205,6 +91136,9 @@
       <c r="B43">
         <v>23</v>
       </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
       <c r="D43">
         <v>2</v>
       </c>
@@ -90217,6 +91151,9 @@
       <c r="B44">
         <v>75</v>
       </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
       <c r="D44">
         <v>2</v>
       </c>
@@ -90229,6 +91166,9 @@
       <c r="B45">
         <v>15</v>
       </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
       <c r="D45">
         <v>2</v>
       </c>
@@ -90241,6 +91181,9 @@
       <c r="B46">
         <v>93</v>
       </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
       <c r="D46">
         <v>2</v>
       </c>
@@ -90253,6 +91196,9 @@
       <c r="B47">
         <v>92</v>
       </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
       <c r="D47">
         <v>2</v>
       </c>
@@ -90265,6 +91211,9 @@
       <c r="B48">
         <v>104</v>
       </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
       <c r="D48">
         <v>2</v>
       </c>
@@ -90277,6 +91226,9 @@
       <c r="B49">
         <v>100</v>
       </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
       <c r="D49">
         <v>2</v>
       </c>
@@ -90289,6 +91241,9 @@
       <c r="B50">
         <v>10</v>
       </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
       <c r="D50">
         <v>2</v>
       </c>
@@ -90301,6 +91256,9 @@
       <c r="B51">
         <v>65</v>
       </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
       <c r="D51">
         <v>2</v>
       </c>
@@ -90313,6 +91271,9 @@
       <c r="B52">
         <v>57</v>
       </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
       <c r="D52">
         <v>2</v>
       </c>
@@ -90325,6 +91286,9 @@
       <c r="B53">
         <v>110</v>
       </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
       <c r="D53">
         <v>2</v>
       </c>
@@ -90337,6 +91301,9 @@
       <c r="B54">
         <v>9</v>
       </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
       <c r="D54">
         <v>2</v>
       </c>
@@ -90349,6 +91316,9 @@
       <c r="B55">
         <v>88</v>
       </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
       <c r="D55">
         <v>2</v>
       </c>
@@ -90361,6 +91331,9 @@
       <c r="B56">
         <v>134</v>
       </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
       <c r="D56">
         <v>2</v>
       </c>
@@ -90373,6 +91346,9 @@
       <c r="B57">
         <v>81</v>
       </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
       <c r="D57">
         <v>2</v>
       </c>
@@ -90384,6 +91360,9 @@
       </c>
       <c r="B58">
         <v>13</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -90397,6 +91376,9 @@
       <c r="B59">
         <v>116</v>
       </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
       <c r="D59">
         <v>2</v>
       </c>
@@ -90409,6 +91391,9 @@
       <c r="B60">
         <v>82</v>
       </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
       <c r="D60">
         <v>2</v>
       </c>
@@ -90421,6 +91406,9 @@
       <c r="B61">
         <v>14</v>
       </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
       <c r="D61">
         <v>2</v>
       </c>
@@ -90433,6 +91421,9 @@
       <c r="B62">
         <v>39</v>
       </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
       <c r="D62">
         <v>2</v>
       </c>
@@ -90444,6 +91435,9 @@
       </c>
       <c r="B63">
         <v>99</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -90457,6 +91451,9 @@
       <c r="B64">
         <v>72</v>
       </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
       <c r="D64">
         <v>3</v>
       </c>
@@ -90469,6 +91466,9 @@
       <c r="B65">
         <v>21</v>
       </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
       <c r="D65">
         <v>3</v>
       </c>
@@ -90481,6 +91481,9 @@
       <c r="B66">
         <v>34</v>
       </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
       <c r="D66">
         <v>3</v>
       </c>
@@ -90493,6 +91496,9 @@
       <c r="B67">
         <v>12</v>
       </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
       <c r="D67">
         <v>3</v>
       </c>
@@ -90504,6 +91510,9 @@
       </c>
       <c r="B68">
         <v>6</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -90517,6 +91526,9 @@
       <c r="B69">
         <v>107</v>
       </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
       <c r="D69">
         <v>3</v>
       </c>
@@ -90529,6 +91541,9 @@
       <c r="B70">
         <v>25</v>
       </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
       <c r="D70">
         <v>3</v>
       </c>
@@ -90541,6 +91556,9 @@
       <c r="B71">
         <v>62</v>
       </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
       <c r="D71">
         <v>3</v>
       </c>
@@ -90553,6 +91571,9 @@
       <c r="B72">
         <v>37</v>
       </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
       <c r="D72">
         <v>3</v>
       </c>
@@ -90565,6 +91586,9 @@
       <c r="B73">
         <v>113</v>
       </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
       <c r="D73">
         <v>3</v>
       </c>
@@ -90577,6 +91601,9 @@
       <c r="B74">
         <v>20</v>
       </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
       <c r="D74">
         <v>3</v>
       </c>
@@ -90589,6 +91616,9 @@
       <c r="B75">
         <v>67</v>
       </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
       <c r="D75">
         <v>3</v>
       </c>
@@ -90601,6 +91631,9 @@
       <c r="B76">
         <v>68</v>
       </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
       <c r="D76">
         <v>3</v>
       </c>
@@ -90613,6 +91646,9 @@
       <c r="B77">
         <v>56</v>
       </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
       <c r="D77">
         <v>3</v>
       </c>
@@ -90625,6 +91661,9 @@
       <c r="B78">
         <v>5</v>
       </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
       <c r="D78">
         <v>3</v>
       </c>
@@ -90637,6 +91676,9 @@
       <c r="B79">
         <v>77</v>
       </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
       <c r="D79">
         <v>3</v>
       </c>
@@ -90649,6 +91691,9 @@
       <c r="B80">
         <v>125</v>
       </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
       <c r="D80">
         <v>3</v>
       </c>
@@ -90661,6 +91706,9 @@
       <c r="B81">
         <v>51</v>
       </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
       <c r="D81">
         <v>3</v>
       </c>
@@ -90673,6 +91721,9 @@
       <c r="B82">
         <v>83</v>
       </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
       <c r="D82">
         <v>3</v>
       </c>
@@ -90685,6 +91736,9 @@
       <c r="B83">
         <v>91</v>
       </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
       <c r="D83">
         <v>3</v>
       </c>
@@ -90697,6 +91751,9 @@
       <c r="B84">
         <v>89</v>
       </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
       <c r="D84">
         <v>3</v>
       </c>
@@ -90709,6 +91766,9 @@
       <c r="B85">
         <v>118</v>
       </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
       <c r="D85">
         <v>3</v>
       </c>
@@ -90721,6 +91781,9 @@
       <c r="B86">
         <v>69</v>
       </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
       <c r="D86">
         <v>3</v>
       </c>
@@ -90733,6 +91796,9 @@
       <c r="B87">
         <v>126</v>
       </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
       <c r="D87">
         <v>3</v>
       </c>
@@ -90745,6 +91811,9 @@
       <c r="B88">
         <v>11</v>
       </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
       <c r="D88">
         <v>3</v>
       </c>
@@ -90757,6 +91826,9 @@
       <c r="B89">
         <v>29</v>
       </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
       <c r="D89">
         <v>3</v>
       </c>
@@ -90769,6 +91841,9 @@
       <c r="B90">
         <v>76</v>
       </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
       <c r="D90">
         <v>3</v>
       </c>
@@ -90781,6 +91856,9 @@
       <c r="B91">
         <v>103</v>
       </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
       <c r="D91">
         <v>3</v>
       </c>
@@ -90793,6 +91871,9 @@
       <c r="B92">
         <v>54</v>
       </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
       <c r="D92">
         <v>3</v>
       </c>
@@ -90805,6 +91886,9 @@
       <c r="B93">
         <v>86</v>
       </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
       <c r="D93">
         <v>3</v>
       </c>
@@ -90817,6 +91901,9 @@
       <c r="B94">
         <v>72</v>
       </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
       <c r="D94">
         <v>4</v>
       </c>
@@ -90829,6 +91916,9 @@
       <c r="B95">
         <v>21</v>
       </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
       <c r="D95">
         <v>4</v>
       </c>
@@ -90841,6 +91931,9 @@
       <c r="B96">
         <v>34</v>
       </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
       <c r="D96">
         <v>4</v>
       </c>
@@ -90853,6 +91946,9 @@
       <c r="B97">
         <v>12</v>
       </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
       <c r="D97">
         <v>4</v>
       </c>
@@ -90865,6 +91961,9 @@
       <c r="B98">
         <v>6</v>
       </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
       <c r="D98">
         <v>4</v>
       </c>
@@ -90877,6 +91976,9 @@
       <c r="B99">
         <v>107</v>
       </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
       <c r="D99">
         <v>4</v>
       </c>
@@ -90889,6 +91991,9 @@
       <c r="B100">
         <v>25</v>
       </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
       <c r="D100">
         <v>4</v>
       </c>
@@ -90901,6 +92006,9 @@
       <c r="B101">
         <v>62</v>
       </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
       <c r="D101">
         <v>4</v>
       </c>
@@ -90913,6 +92021,9 @@
       <c r="B102">
         <v>37</v>
       </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
       <c r="D102">
         <v>4</v>
       </c>
@@ -90925,6 +92036,9 @@
       <c r="B103">
         <v>113</v>
       </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
       <c r="D103">
         <v>4</v>
       </c>
@@ -90937,6 +92051,9 @@
       <c r="B104">
         <v>20</v>
       </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
       <c r="D104">
         <v>4</v>
       </c>
@@ -90949,6 +92066,9 @@
       <c r="B105">
         <v>67</v>
       </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
       <c r="D105">
         <v>4</v>
       </c>
@@ -90961,6 +92081,9 @@
       <c r="B106">
         <v>68</v>
       </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
       <c r="D106">
         <v>4</v>
       </c>
@@ -90973,6 +92096,9 @@
       <c r="B107">
         <v>56</v>
       </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
       <c r="D107">
         <v>4</v>
       </c>
@@ -90985,6 +92111,9 @@
       <c r="B108">
         <v>5</v>
       </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
       <c r="D108">
         <v>4</v>
       </c>
@@ -90997,6 +92126,9 @@
       <c r="B109">
         <v>77</v>
       </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
       <c r="D109">
         <v>4</v>
       </c>
@@ -91009,6 +92141,9 @@
       <c r="B110">
         <v>125</v>
       </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
       <c r="D110">
         <v>4</v>
       </c>
@@ -91021,6 +92156,9 @@
       <c r="B111">
         <v>51</v>
       </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
       <c r="D111">
         <v>4</v>
       </c>
@@ -91033,6 +92171,9 @@
       <c r="B112">
         <v>83</v>
       </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
       <c r="D112">
         <v>4</v>
       </c>
@@ -91045,6 +92186,9 @@
       <c r="B113">
         <v>91</v>
       </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
       <c r="D113">
         <v>4</v>
       </c>
@@ -91057,6 +92201,9 @@
       <c r="B114">
         <v>89</v>
       </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
       <c r="D114">
         <v>4</v>
       </c>
@@ -91069,6 +92216,9 @@
       <c r="B115">
         <v>118</v>
       </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
       <c r="D115">
         <v>4</v>
       </c>
@@ -91081,6 +92231,9 @@
       <c r="B116">
         <v>69</v>
       </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
       <c r="D116">
         <v>4</v>
       </c>
@@ -91093,6 +92246,9 @@
       <c r="B117">
         <v>126</v>
       </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
       <c r="D117">
         <v>4</v>
       </c>
@@ -91105,6 +92261,9 @@
       <c r="B118">
         <v>11</v>
       </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
       <c r="D118">
         <v>4</v>
       </c>
@@ -91117,6 +92276,9 @@
       <c r="B119">
         <v>29</v>
       </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
       <c r="D119">
         <v>4</v>
       </c>
@@ -91129,6 +92291,9 @@
       <c r="B120">
         <v>76</v>
       </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
       <c r="D120">
         <v>4</v>
       </c>
@@ -91141,6 +92306,9 @@
       <c r="B121">
         <v>103</v>
       </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
       <c r="D121">
         <v>4</v>
       </c>
@@ -91153,6 +92321,9 @@
       <c r="B122">
         <v>54</v>
       </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
       <c r="D122">
         <v>4</v>
       </c>
@@ -91165,6 +92336,9 @@
       <c r="B123">
         <v>86</v>
       </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
       <c r="D123">
         <v>4</v>
       </c>
@@ -91177,6 +92351,9 @@
       <c r="B124">
         <v>53</v>
       </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
       <c r="D124">
         <v>4</v>
       </c>
@@ -91189,6 +92366,9 @@
       <c r="B125">
         <v>28</v>
       </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
       <c r="D125">
         <v>4</v>
       </c>
@@ -91201,6 +92381,9 @@
       <c r="B126">
         <v>120</v>
       </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
       <c r="D126">
         <v>4</v>
       </c>
@@ -91213,6 +92396,9 @@
       <c r="B127">
         <v>109</v>
       </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
       <c r="D127">
         <v>4</v>
       </c>
@@ -91225,6 +92411,9 @@
       <c r="B128">
         <v>63</v>
       </c>
+      <c r="C128">
+        <v>4</v>
+      </c>
       <c r="D128">
         <v>4</v>
       </c>
@@ -91237,6 +92426,9 @@
       <c r="B129">
         <v>7</v>
       </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
       <c r="D129">
         <v>4</v>
       </c>
@@ -91249,6 +92441,9 @@
       <c r="B130">
         <v>95</v>
       </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
       <c r="D130">
         <v>4</v>
       </c>
@@ -91261,6 +92456,9 @@
       <c r="B131">
         <v>70</v>
       </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
       <c r="D131">
         <v>4</v>
       </c>
@@ -91273,6 +92471,9 @@
       <c r="B132">
         <v>27</v>
       </c>
+      <c r="C132">
+        <v>4</v>
+      </c>
       <c r="D132">
         <v>4</v>
       </c>
@@ -91285,6 +92486,9 @@
       <c r="B133">
         <v>48</v>
       </c>
+      <c r="C133">
+        <v>3</v>
+      </c>
       <c r="D133">
         <v>4</v>
       </c>
@@ -91297,6 +92501,9 @@
       <c r="B134">
         <v>133</v>
       </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
       <c r="D134">
         <v>4</v>
       </c>
@@ -91309,6 +92516,9 @@
       <c r="B135">
         <v>85</v>
       </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
       <c r="D135">
         <v>4</v>
       </c>
@@ -91320,6 +92530,9 @@
       </c>
       <c r="B136">
         <v>79</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
       </c>
       <c r="D136">
         <v>4</v>

--- a/実験/実験データまとめ.xlsx
+++ b/実験/実験データまとめ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashimayu/Desktop/lab/実験/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A3B5CB6-9374-1949-A714-F6796E6020F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40717330-634A-5949-8193-32324D83B6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="500" windowWidth="24200" windowHeight="19580" xr2:uid="{20293A05-F4A6-7F46-BCD8-EE73CE0C7222}"/>
   </bookViews>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572A393E-2A73-8E44-A261-E14A919375E4}">
   <dimension ref="A1:D2145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1324" workbookViewId="0">
-      <selection activeCell="E1343" sqref="E1343"/>
+    <sheetView tabSelected="1" topLeftCell="A1332" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="G1473" sqref="G1473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -19285,7 +19285,7 @@
         <v>5</v>
       </c>
       <c r="C1342">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1342">
         <v>1</v>
@@ -19299,7 +19299,7 @@
         <v>4</v>
       </c>
       <c r="C1343">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1343">
         <v>1</v>
@@ -19313,7 +19313,7 @@
         <v>3</v>
       </c>
       <c r="C1344">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1344">
         <v>1</v>
@@ -19327,7 +19327,7 @@
         <v>5</v>
       </c>
       <c r="C1345">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1345">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         <v>2</v>
       </c>
       <c r="C1346">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1346">
         <v>1</v>
@@ -19355,7 +19355,7 @@
         <v>5</v>
       </c>
       <c r="C1347">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1347">
         <v>1</v>
@@ -19369,7 +19369,7 @@
         <v>5</v>
       </c>
       <c r="C1348">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1348">
         <v>1</v>
@@ -19383,7 +19383,7 @@
         <v>5</v>
       </c>
       <c r="C1349">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1349">
         <v>1</v>
@@ -19397,7 +19397,7 @@
         <v>4</v>
       </c>
       <c r="C1350">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1350">
         <v>1</v>
@@ -19411,7 +19411,7 @@
         <v>5</v>
       </c>
       <c r="C1351">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1351">
         <v>1</v>
@@ -19425,7 +19425,7 @@
         <v>2</v>
       </c>
       <c r="C1352">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1352">
         <v>1</v>
@@ -19439,7 +19439,7 @@
         <v>3</v>
       </c>
       <c r="C1353">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1353">
         <v>1</v>
@@ -19453,7 +19453,7 @@
         <v>4</v>
       </c>
       <c r="C1354">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1354">
         <v>1</v>
@@ -19467,7 +19467,7 @@
         <v>5</v>
       </c>
       <c r="C1355">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1355">
         <v>1</v>
@@ -19481,7 +19481,7 @@
         <v>4</v>
       </c>
       <c r="C1356">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1356">
         <v>1</v>
@@ -19495,7 +19495,7 @@
         <v>3</v>
       </c>
       <c r="C1357">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1357">
         <v>1</v>
@@ -19509,7 +19509,7 @@
         <v>4</v>
       </c>
       <c r="C1358">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1358">
         <v>1</v>
@@ -19523,7 +19523,7 @@
         <v>5</v>
       </c>
       <c r="C1359">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1359">
         <v>1</v>
@@ -19537,7 +19537,7 @@
         <v>5</v>
       </c>
       <c r="C1360">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1360">
         <v>1</v>
@@ -19551,7 +19551,7 @@
         <v>2</v>
       </c>
       <c r="C1361">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1361">
         <v>1</v>
@@ -19565,7 +19565,7 @@
         <v>2</v>
       </c>
       <c r="C1362">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1362">
         <v>1</v>
@@ -19579,7 +19579,7 @@
         <v>2</v>
       </c>
       <c r="C1363">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1363">
         <v>1</v>
@@ -19593,7 +19593,7 @@
         <v>3</v>
       </c>
       <c r="C1364">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1364">
         <v>1</v>
@@ -19607,7 +19607,7 @@
         <v>4</v>
       </c>
       <c r="C1365">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1365">
         <v>1</v>
@@ -19621,7 +19621,7 @@
         <v>4</v>
       </c>
       <c r="C1366">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1366">
         <v>1</v>
@@ -19635,7 +19635,7 @@
         <v>5</v>
       </c>
       <c r="C1367">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1367">
         <v>1</v>
@@ -19649,7 +19649,7 @@
         <v>5</v>
       </c>
       <c r="C1368">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1368">
         <v>1</v>
@@ -19663,7 +19663,7 @@
         <v>4</v>
       </c>
       <c r="C1369">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1369">
         <v>1</v>
@@ -19677,7 +19677,7 @@
         <v>4</v>
       </c>
       <c r="C1370">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1370">
         <v>1</v>
@@ -19691,7 +19691,7 @@
         <v>5</v>
       </c>
       <c r="C1371">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1371">
         <v>1</v>
@@ -19705,7 +19705,7 @@
         <v>5</v>
       </c>
       <c r="C1372">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1372">
         <v>1</v>
@@ -19719,7 +19719,7 @@
         <v>3</v>
       </c>
       <c r="C1373">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1373">
         <v>2</v>
@@ -19733,7 +19733,7 @@
         <v>3</v>
       </c>
       <c r="C1374">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1374">
         <v>2</v>
@@ -19747,7 +19747,7 @@
         <v>5</v>
       </c>
       <c r="C1375">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1375">
         <v>2</v>
@@ -19761,7 +19761,7 @@
         <v>4</v>
       </c>
       <c r="C1376">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1376">
         <v>2</v>
@@ -19775,7 +19775,7 @@
         <v>4</v>
       </c>
       <c r="C1377">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1377">
         <v>2</v>
@@ -19789,7 +19789,7 @@
         <v>3</v>
       </c>
       <c r="C1378">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1378">
         <v>2</v>
@@ -19803,7 +19803,7 @@
         <v>5</v>
       </c>
       <c r="C1379">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1379">
         <v>2</v>
@@ -19817,7 +19817,7 @@
         <v>3</v>
       </c>
       <c r="C1380">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1380">
         <v>2</v>
@@ -19831,7 +19831,7 @@
         <v>4</v>
       </c>
       <c r="C1381">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1381">
         <v>2</v>
@@ -19845,7 +19845,7 @@
         <v>4</v>
       </c>
       <c r="C1382">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1382">
         <v>2</v>
@@ -19859,7 +19859,7 @@
         <v>2</v>
       </c>
       <c r="C1383">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1383">
         <v>2</v>
@@ -19873,7 +19873,7 @@
         <v>4</v>
       </c>
       <c r="C1384">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1384">
         <v>2</v>
@@ -19887,7 +19887,7 @@
         <v>3</v>
       </c>
       <c r="C1385">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1385">
         <v>2</v>
@@ -19901,7 +19901,7 @@
         <v>4</v>
       </c>
       <c r="C1386">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1386">
         <v>2</v>
@@ -19915,7 +19915,7 @@
         <v>4</v>
       </c>
       <c r="C1387">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1387">
         <v>2</v>
@@ -19929,7 +19929,7 @@
         <v>4</v>
       </c>
       <c r="C1388">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1388">
         <v>2</v>
@@ -19943,7 +19943,7 @@
         <v>4</v>
       </c>
       <c r="C1389">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1389">
         <v>2</v>
@@ -19957,7 +19957,7 @@
         <v>4</v>
       </c>
       <c r="C1390">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1390">
         <v>2</v>
@@ -19971,7 +19971,7 @@
         <v>3</v>
       </c>
       <c r="C1391">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1391">
         <v>2</v>
@@ -19985,7 +19985,7 @@
         <v>4</v>
       </c>
       <c r="C1392">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1392">
         <v>2</v>
@@ -19999,7 +19999,7 @@
         <v>4</v>
       </c>
       <c r="C1393">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1393">
         <v>2</v>
@@ -20013,7 +20013,7 @@
         <v>3</v>
       </c>
       <c r="C1394">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1394">
         <v>2</v>
@@ -20027,7 +20027,7 @@
         <v>4</v>
       </c>
       <c r="C1395">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1395">
         <v>2</v>
@@ -20041,7 +20041,7 @@
         <v>4</v>
       </c>
       <c r="C1396">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1396">
         <v>2</v>
@@ -20055,7 +20055,7 @@
         <v>3</v>
       </c>
       <c r="C1397">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1397">
         <v>2</v>
@@ -20069,7 +20069,7 @@
         <v>4</v>
       </c>
       <c r="C1398">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1398">
         <v>2</v>
@@ -20083,7 +20083,7 @@
         <v>4</v>
       </c>
       <c r="C1399">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1399">
         <v>2</v>
@@ -20097,7 +20097,7 @@
         <v>5</v>
       </c>
       <c r="C1400">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1400">
         <v>2</v>
@@ -20111,7 +20111,7 @@
         <v>5</v>
       </c>
       <c r="C1401">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1401">
         <v>2</v>
@@ -20125,7 +20125,7 @@
         <v>4</v>
       </c>
       <c r="C1402">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1402">
         <v>2</v>
@@ -20139,7 +20139,7 @@
         <v>3</v>
       </c>
       <c r="C1403">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1403">
         <v>3</v>
@@ -20153,7 +20153,7 @@
         <v>3</v>
       </c>
       <c r="C1404">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1404">
         <v>3</v>
@@ -20167,7 +20167,7 @@
         <v>4</v>
       </c>
       <c r="C1405">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1405">
         <v>3</v>
@@ -20181,7 +20181,7 @@
         <v>3</v>
       </c>
       <c r="C1406">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1406">
         <v>3</v>
@@ -20195,7 +20195,7 @@
         <v>3</v>
       </c>
       <c r="C1407">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1407">
         <v>3</v>
@@ -20209,7 +20209,7 @@
         <v>2</v>
       </c>
       <c r="C1408">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1408">
         <v>3</v>
@@ -20223,7 +20223,7 @@
         <v>4</v>
       </c>
       <c r="C1409">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1409">
         <v>3</v>
@@ -20237,7 +20237,7 @@
         <v>3</v>
       </c>
       <c r="C1410">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1410">
         <v>3</v>
@@ -20251,7 +20251,7 @@
         <v>2</v>
       </c>
       <c r="C1411">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1411">
         <v>3</v>
@@ -20265,7 +20265,7 @@
         <v>3</v>
       </c>
       <c r="C1412">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1412">
         <v>3</v>
@@ -20279,7 +20279,7 @@
         <v>3</v>
       </c>
       <c r="C1413">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1413">
         <v>3</v>
@@ -20293,7 +20293,7 @@
         <v>2</v>
       </c>
       <c r="C1414">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1414">
         <v>3</v>
@@ -20307,7 +20307,7 @@
         <v>2</v>
       </c>
       <c r="C1415">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1415">
         <v>3</v>
@@ -20321,7 +20321,7 @@
         <v>3</v>
       </c>
       <c r="C1416">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1416">
         <v>3</v>
@@ -20335,7 +20335,7 @@
         <v>3</v>
       </c>
       <c r="C1417">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1417">
         <v>3</v>
@@ -20349,7 +20349,7 @@
         <v>3</v>
       </c>
       <c r="C1418">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1418">
         <v>3</v>
@@ -20363,7 +20363,7 @@
         <v>3</v>
       </c>
       <c r="C1419">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1419">
         <v>3</v>
@@ -20377,7 +20377,7 @@
         <v>3</v>
       </c>
       <c r="C1420">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1420">
         <v>3</v>
@@ -20391,7 +20391,7 @@
         <v>4</v>
       </c>
       <c r="C1421">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1421">
         <v>3</v>
@@ -20405,7 +20405,7 @@
         <v>3</v>
       </c>
       <c r="C1422">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1422">
         <v>3</v>
@@ -20419,7 +20419,7 @@
         <v>3</v>
       </c>
       <c r="C1423">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1423">
         <v>3</v>
@@ -20433,7 +20433,7 @@
         <v>3</v>
       </c>
       <c r="C1424">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1424">
         <v>3</v>
@@ -20447,7 +20447,7 @@
         <v>3</v>
       </c>
       <c r="C1425">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1425">
         <v>3</v>
@@ -20461,7 +20461,7 @@
         <v>3</v>
       </c>
       <c r="C1426">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1426">
         <v>3</v>
@@ -20475,7 +20475,7 @@
         <v>3</v>
       </c>
       <c r="C1427">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1427">
         <v>3</v>
@@ -20489,7 +20489,7 @@
         <v>2</v>
       </c>
       <c r="C1428">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1428">
         <v>3</v>
@@ -20503,7 +20503,7 @@
         <v>3</v>
       </c>
       <c r="C1429">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1429">
         <v>3</v>
@@ -20517,7 +20517,7 @@
         <v>3</v>
       </c>
       <c r="C1430">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1430">
         <v>3</v>
@@ -20531,7 +20531,7 @@
         <v>3</v>
       </c>
       <c r="C1431">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1431">
         <v>3</v>
@@ -20545,7 +20545,7 @@
         <v>3</v>
       </c>
       <c r="C1432">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1432">
         <v>3</v>
@@ -20559,7 +20559,7 @@
         <v>2</v>
       </c>
       <c r="C1433">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1433">
         <v>4</v>
@@ -20573,7 +20573,7 @@
         <v>3</v>
       </c>
       <c r="C1434">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1434">
         <v>4</v>
@@ -20587,7 +20587,7 @@
         <v>1</v>
       </c>
       <c r="C1435">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1435">
         <v>4</v>
@@ -20601,7 +20601,7 @@
         <v>4</v>
       </c>
       <c r="C1436">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1436">
         <v>4</v>
@@ -20615,7 +20615,7 @@
         <v>3</v>
       </c>
       <c r="C1437">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1437">
         <v>4</v>
@@ -20629,7 +20629,7 @@
         <v>2</v>
       </c>
       <c r="C1438">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1438">
         <v>4</v>
@@ -20643,7 +20643,7 @@
         <v>2</v>
       </c>
       <c r="C1439">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1439">
         <v>4</v>
@@ -20657,7 +20657,7 @@
         <v>2</v>
       </c>
       <c r="C1440">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1440">
         <v>4</v>
@@ -20671,7 +20671,7 @@
         <v>3</v>
       </c>
       <c r="C1441">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1441">
         <v>4</v>
@@ -20685,7 +20685,7 @@
         <v>3</v>
       </c>
       <c r="C1442">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1442">
         <v>4</v>
@@ -20699,7 +20699,7 @@
         <v>2</v>
       </c>
       <c r="C1443">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1443">
         <v>4</v>
@@ -20713,7 +20713,7 @@
         <v>3</v>
       </c>
       <c r="C1444">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1444">
         <v>4</v>
@@ -20727,7 +20727,7 @@
         <v>3</v>
       </c>
       <c r="C1445">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1445">
         <v>4</v>
@@ -20741,7 +20741,7 @@
         <v>3</v>
       </c>
       <c r="C1446">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1446">
         <v>4</v>
@@ -20755,7 +20755,7 @@
         <v>2</v>
       </c>
       <c r="C1447">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1447">
         <v>4</v>
@@ -20769,7 +20769,7 @@
         <v>3</v>
       </c>
       <c r="C1448">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1448">
         <v>4</v>
@@ -20783,7 +20783,7 @@
         <v>1</v>
       </c>
       <c r="C1449">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1449">
         <v>4</v>
@@ -20797,7 +20797,7 @@
         <v>3</v>
       </c>
       <c r="C1450">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1450">
         <v>4</v>
@@ -20811,7 +20811,7 @@
         <v>3</v>
       </c>
       <c r="C1451">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1451">
         <v>4</v>
@@ -20825,7 +20825,7 @@
         <v>3</v>
       </c>
       <c r="C1452">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1452">
         <v>4</v>
@@ -20839,7 +20839,7 @@
         <v>3</v>
       </c>
       <c r="C1453">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1453">
         <v>4</v>
@@ -20853,7 +20853,7 @@
         <v>3</v>
       </c>
       <c r="C1454">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1454">
         <v>4</v>
@@ -20867,7 +20867,7 @@
         <v>3</v>
       </c>
       <c r="C1455">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1455">
         <v>4</v>
@@ -20881,7 +20881,7 @@
         <v>3</v>
       </c>
       <c r="C1456">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1456">
         <v>4</v>
@@ -20895,7 +20895,7 @@
         <v>2</v>
       </c>
       <c r="C1457">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1457">
         <v>4</v>
@@ -20909,7 +20909,7 @@
         <v>3</v>
       </c>
       <c r="C1458">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1458">
         <v>4</v>
@@ -20923,7 +20923,7 @@
         <v>3</v>
       </c>
       <c r="C1459">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1459">
         <v>4</v>
@@ -20937,7 +20937,7 @@
         <v>2</v>
       </c>
       <c r="C1460">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1460">
         <v>4</v>
@@ -20951,7 +20951,7 @@
         <v>3</v>
       </c>
       <c r="C1461">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1461">
         <v>4</v>
@@ -20965,7 +20965,7 @@
         <v>3</v>
       </c>
       <c r="C1462">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1462">
         <v>4</v>
@@ -20979,7 +20979,7 @@
         <v>2</v>
       </c>
       <c r="C1463">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1463">
         <v>4</v>
@@ -20993,7 +20993,7 @@
         <v>2</v>
       </c>
       <c r="C1464">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1464">
         <v>4</v>
@@ -21007,7 +21007,7 @@
         <v>3</v>
       </c>
       <c r="C1465">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1465">
         <v>4</v>
@@ -21021,7 +21021,7 @@
         <v>3</v>
       </c>
       <c r="C1466">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1466">
         <v>4</v>
@@ -21035,7 +21035,7 @@
         <v>3</v>
       </c>
       <c r="C1467">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1467">
         <v>4</v>
@@ -21049,7 +21049,7 @@
         <v>3</v>
       </c>
       <c r="C1468">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1468">
         <v>4</v>
@@ -21063,7 +21063,7 @@
         <v>3</v>
       </c>
       <c r="C1469">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1469">
         <v>4</v>
@@ -21077,7 +21077,7 @@
         <v>3</v>
       </c>
       <c r="C1470">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1470">
         <v>4</v>
@@ -21091,7 +21091,7 @@
         <v>3</v>
       </c>
       <c r="C1471">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1471">
         <v>4</v>
@@ -21105,7 +21105,7 @@
         <v>3</v>
       </c>
       <c r="C1472">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1472">
         <v>4</v>
@@ -21119,7 +21119,7 @@
         <v>3</v>
       </c>
       <c r="C1473">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1473">
         <v>4</v>
@@ -21133,7 +21133,7 @@
         <v>3</v>
       </c>
       <c r="C1474">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1474">
         <v>4</v>
@@ -21147,7 +21147,7 @@
         <v>3</v>
       </c>
       <c r="C1475">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1475">
         <v>4</v>
@@ -21161,7 +21161,7 @@
         <v>2</v>
       </c>
       <c r="C1476">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1476">
         <v>1</v>
@@ -21175,7 +21175,7 @@
         <v>2</v>
       </c>
       <c r="C1477">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1477">
         <v>1</v>
@@ -21189,7 +21189,7 @@
         <v>1</v>
       </c>
       <c r="C1478">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1478">
         <v>1</v>
@@ -21203,7 +21203,7 @@
         <v>1</v>
       </c>
       <c r="C1479">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1479">
         <v>1</v>
@@ -21217,7 +21217,7 @@
         <v>3</v>
       </c>
       <c r="C1480">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1480">
         <v>1</v>
@@ -21231,7 +21231,7 @@
         <v>1</v>
       </c>
       <c r="C1481">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1481">
         <v>1</v>
@@ -21245,7 +21245,7 @@
         <v>3</v>
       </c>
       <c r="C1482">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1482">
         <v>1</v>
@@ -21259,7 +21259,7 @@
         <v>4</v>
       </c>
       <c r="C1483">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1483">
         <v>1</v>
@@ -21273,7 +21273,7 @@
         <v>1</v>
       </c>
       <c r="C1484">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1484">
         <v>1</v>
@@ -21287,7 +21287,7 @@
         <v>1</v>
       </c>
       <c r="C1485">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1485">
         <v>1</v>
@@ -21301,7 +21301,7 @@
         <v>2</v>
       </c>
       <c r="C1486">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1486">
         <v>1</v>
@@ -21315,7 +21315,7 @@
         <v>2</v>
       </c>
       <c r="C1487">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1487">
         <v>1</v>
@@ -21329,7 +21329,7 @@
         <v>2</v>
       </c>
       <c r="C1488">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1488">
         <v>1</v>
@@ -21343,7 +21343,7 @@
         <v>3</v>
       </c>
       <c r="C1489">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1489">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         <v>2</v>
       </c>
       <c r="C1490">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1490">
         <v>1</v>
@@ -21371,7 +21371,7 @@
         <v>4</v>
       </c>
       <c r="C1491">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1491">
         <v>1</v>
@@ -21385,7 +21385,7 @@
         <v>1</v>
       </c>
       <c r="C1492">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1492">
         <v>1</v>
@@ -21399,7 +21399,7 @@
         <v>4</v>
       </c>
       <c r="C1493">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1493">
         <v>1</v>
@@ -21413,7 +21413,7 @@
         <v>1</v>
       </c>
       <c r="C1494">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1494">
         <v>1</v>
@@ -21427,7 +21427,7 @@
         <v>1</v>
       </c>
       <c r="C1495">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1495">
         <v>1</v>
@@ -21441,7 +21441,7 @@
         <v>1</v>
       </c>
       <c r="C1496">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1496">
         <v>1</v>
@@ -21455,7 +21455,7 @@
         <v>4</v>
       </c>
       <c r="C1497">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1497">
         <v>1</v>
@@ -21469,7 +21469,7 @@
         <v>3</v>
       </c>
       <c r="C1498">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1498">
         <v>1</v>
@@ -21483,7 +21483,7 @@
         <v>2</v>
       </c>
       <c r="C1499">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1499">
         <v>1</v>
@@ -21497,7 +21497,7 @@
         <v>2</v>
       </c>
       <c r="C1500">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1500">
         <v>1</v>
@@ -21511,7 +21511,7 @@
         <v>3</v>
       </c>
       <c r="C1501">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1501">
         <v>1</v>
@@ -21525,7 +21525,7 @@
         <v>2</v>
       </c>
       <c r="C1502">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1502">
         <v>1</v>
@@ -21539,7 +21539,7 @@
         <v>1</v>
       </c>
       <c r="C1503">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1503">
         <v>1</v>
@@ -21553,7 +21553,7 @@
         <v>1</v>
       </c>
       <c r="C1504">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1504">
         <v>1</v>
@@ -21567,7 +21567,7 @@
         <v>3</v>
       </c>
       <c r="C1505">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1505">
         <v>1</v>
@@ -21581,7 +21581,7 @@
         <v>1</v>
       </c>
       <c r="C1506">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1506">
         <v>1</v>
@@ -21595,7 +21595,7 @@
         <v>2</v>
       </c>
       <c r="C1507">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1507">
         <v>2</v>
@@ -21609,7 +21609,7 @@
         <v>2</v>
       </c>
       <c r="C1508">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1508">
         <v>2</v>
@@ -21623,7 +21623,7 @@
         <v>3</v>
       </c>
       <c r="C1509">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1509">
         <v>2</v>
@@ -21637,7 +21637,7 @@
         <v>4</v>
       </c>
       <c r="C1510">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1510">
         <v>2</v>
@@ -21651,7 +21651,7 @@
         <v>1</v>
       </c>
       <c r="C1511">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1511">
         <v>2</v>
@@ -21665,7 +21665,7 @@
         <v>2</v>
       </c>
       <c r="C1512">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1512">
         <v>2</v>
@@ -21679,7 +21679,7 @@
         <v>2</v>
       </c>
       <c r="C1513">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1513">
         <v>2</v>
@@ -21693,7 +21693,7 @@
         <v>1</v>
       </c>
       <c r="C1514">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1514">
         <v>2</v>
@@ -21707,7 +21707,7 @@
         <v>2</v>
       </c>
       <c r="C1515">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1515">
         <v>2</v>
@@ -21721,7 +21721,7 @@
         <v>2</v>
       </c>
       <c r="C1516">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1516">
         <v>2</v>
@@ -21735,7 +21735,7 @@
         <v>2</v>
       </c>
       <c r="C1517">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1517">
         <v>2</v>
@@ -21749,7 +21749,7 @@
         <v>2</v>
       </c>
       <c r="C1518">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1518">
         <v>2</v>
@@ -21763,7 +21763,7 @@
         <v>2</v>
       </c>
       <c r="C1519">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1519">
         <v>2</v>
@@ -21777,7 +21777,7 @@
         <v>3</v>
       </c>
       <c r="C1520">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1520">
         <v>2</v>
@@ -21791,7 +21791,7 @@
         <v>2</v>
       </c>
       <c r="C1521">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1521">
         <v>2</v>
@@ -21805,7 +21805,7 @@
         <v>4</v>
       </c>
       <c r="C1522">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1522">
         <v>2</v>
@@ -21819,7 +21819,7 @@
         <v>1</v>
       </c>
       <c r="C1523">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1523">
         <v>2</v>
@@ -21833,7 +21833,7 @@
         <v>3</v>
       </c>
       <c r="C1524">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1524">
         <v>2</v>
@@ -21847,7 +21847,7 @@
         <v>2</v>
       </c>
       <c r="C1525">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1525">
         <v>2</v>
@@ -21861,7 +21861,7 @@
         <v>5</v>
       </c>
       <c r="C1526">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1526">
         <v>2</v>
@@ -21875,7 +21875,7 @@
         <v>3</v>
       </c>
       <c r="C1527">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1527">
         <v>2</v>
@@ -21889,7 +21889,7 @@
         <v>5</v>
       </c>
       <c r="C1528">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1528">
         <v>2</v>
@@ -21903,7 +21903,7 @@
         <v>3</v>
       </c>
       <c r="C1529">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1529">
         <v>2</v>
@@ -21917,7 +21917,7 @@
         <v>5</v>
       </c>
       <c r="C1530">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1530">
         <v>2</v>
@@ -21931,7 +21931,7 @@
         <v>2</v>
       </c>
       <c r="C1531">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1531">
         <v>2</v>
@@ -21945,7 +21945,7 @@
         <v>3</v>
       </c>
       <c r="C1532">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1532">
         <v>2</v>
@@ -21959,7 +21959,7 @@
         <v>2</v>
       </c>
       <c r="C1533">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1533">
         <v>2</v>
@@ -21973,7 +21973,7 @@
         <v>1</v>
       </c>
       <c r="C1534">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1534">
         <v>2</v>
@@ -21987,7 +21987,7 @@
         <v>3</v>
       </c>
       <c r="C1535">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1535">
         <v>2</v>
@@ -22001,7 +22001,7 @@
         <v>2</v>
       </c>
       <c r="C1536">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1536">
         <v>2</v>
@@ -22015,7 +22015,7 @@
         <v>5</v>
       </c>
       <c r="C1537">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1537">
         <v>3</v>
@@ -22029,7 +22029,7 @@
         <v>4</v>
       </c>
       <c r="C1538">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1538">
         <v>3</v>
@@ -22043,7 +22043,7 @@
         <v>2</v>
       </c>
       <c r="C1539">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1539">
         <v>3</v>
@@ -22057,7 +22057,7 @@
         <v>4</v>
       </c>
       <c r="C1540">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1540">
         <v>3</v>
@@ -22071,7 +22071,7 @@
         <v>2</v>
       </c>
       <c r="C1541">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1541">
         <v>3</v>
@@ -22085,7 +22085,7 @@
         <v>3</v>
       </c>
       <c r="C1542">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1542">
         <v>3</v>
@@ -22099,7 +22099,7 @@
         <v>2</v>
       </c>
       <c r="C1543">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1543">
         <v>3</v>
@@ -22113,7 +22113,7 @@
         <v>3</v>
       </c>
       <c r="C1544">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1544">
         <v>3</v>
@@ -22127,7 +22127,7 @@
         <v>2</v>
       </c>
       <c r="C1545">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1545">
         <v>3</v>
@@ -22141,7 +22141,7 @@
         <v>4</v>
       </c>
       <c r="C1546">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1546">
         <v>3</v>
@@ -22155,7 +22155,7 @@
         <v>3</v>
       </c>
       <c r="C1547">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1547">
         <v>3</v>
@@ -22169,7 +22169,7 @@
         <v>2</v>
       </c>
       <c r="C1548">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1548">
         <v>3</v>
@@ -22183,7 +22183,7 @@
         <v>5</v>
       </c>
       <c r="C1549">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1549">
         <v>3</v>
@@ -22197,7 +22197,7 @@
         <v>3</v>
       </c>
       <c r="C1550">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1550">
         <v>3</v>
@@ -22211,7 +22211,7 @@
         <v>2</v>
       </c>
       <c r="C1551">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1551">
         <v>3</v>
@@ -22225,7 +22225,7 @@
         <v>1</v>
       </c>
       <c r="C1552">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1552">
         <v>3</v>
@@ -22239,7 +22239,7 @@
         <v>4</v>
       </c>
       <c r="C1553">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1553">
         <v>3</v>
@@ -22253,7 +22253,7 @@
         <v>2</v>
       </c>
       <c r="C1554">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1554">
         <v>3</v>
@@ -22267,7 +22267,7 @@
         <v>2</v>
       </c>
       <c r="C1555">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1555">
         <v>3</v>
@@ -22281,7 +22281,7 @@
         <v>1</v>
       </c>
       <c r="C1556">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1556">
         <v>3</v>
@@ -22295,7 +22295,7 @@
         <v>1</v>
       </c>
       <c r="C1557">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1557">
         <v>3</v>
@@ -22309,7 +22309,7 @@
         <v>2</v>
       </c>
       <c r="C1558">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1558">
         <v>3</v>
@@ -22323,7 +22323,7 @@
         <v>4</v>
       </c>
       <c r="C1559">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1559">
         <v>3</v>
@@ -22337,7 +22337,7 @@
         <v>3</v>
       </c>
       <c r="C1560">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1560">
         <v>3</v>
@@ -22351,7 +22351,7 @@
         <v>1</v>
       </c>
       <c r="C1561">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1561">
         <v>3</v>
@@ -22365,7 +22365,7 @@
         <v>2</v>
       </c>
       <c r="C1562">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1562">
         <v>3</v>
@@ -22379,7 +22379,7 @@
         <v>4</v>
       </c>
       <c r="C1563">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1563">
         <v>3</v>
@@ -22393,7 +22393,7 @@
         <v>4</v>
       </c>
       <c r="C1564">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1564">
         <v>3</v>
@@ -22407,7 +22407,7 @@
         <v>1</v>
       </c>
       <c r="C1565">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1565">
         <v>3</v>
@@ -22421,7 +22421,7 @@
         <v>2</v>
       </c>
       <c r="C1566">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1566">
         <v>3</v>
@@ -22435,7 +22435,7 @@
         <v>2</v>
       </c>
       <c r="C1567">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1567">
         <v>4</v>
@@ -22449,7 +22449,7 @@
         <v>2</v>
       </c>
       <c r="C1568">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1568">
         <v>4</v>
@@ -22463,7 +22463,7 @@
         <v>3</v>
       </c>
       <c r="C1569">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1569">
         <v>4</v>
@@ -22477,7 +22477,7 @@
         <v>5</v>
       </c>
       <c r="C1570">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1570">
         <v>4</v>
@@ -22491,7 +22491,7 @@
         <v>5</v>
       </c>
       <c r="C1571">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1571">
         <v>4</v>
@@ -22505,7 +22505,7 @@
         <v>5</v>
       </c>
       <c r="C1572">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1572">
         <v>4</v>
@@ -22519,7 +22519,7 @@
         <v>4</v>
       </c>
       <c r="C1573">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1573">
         <v>4</v>
@@ -22533,7 +22533,7 @@
         <v>3</v>
       </c>
       <c r="C1574">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1574">
         <v>4</v>
@@ -22547,7 +22547,7 @@
         <v>2</v>
       </c>
       <c r="C1575">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1575">
         <v>4</v>
@@ -22561,7 +22561,7 @@
         <v>2</v>
       </c>
       <c r="C1576">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1576">
         <v>4</v>
@@ -22575,7 +22575,7 @@
         <v>5</v>
       </c>
       <c r="C1577">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1577">
         <v>4</v>
@@ -22589,7 +22589,7 @@
         <v>4</v>
       </c>
       <c r="C1578">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1578">
         <v>4</v>
@@ -22603,7 +22603,7 @@
         <v>3</v>
       </c>
       <c r="C1579">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1579">
         <v>4</v>
@@ -22617,7 +22617,7 @@
         <v>3</v>
       </c>
       <c r="C1580">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1580">
         <v>4</v>
@@ -22631,7 +22631,7 @@
         <v>4</v>
       </c>
       <c r="C1581">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1581">
         <v>4</v>
@@ -22645,7 +22645,7 @@
         <v>3</v>
       </c>
       <c r="C1582">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1582">
         <v>4</v>
@@ -22659,7 +22659,7 @@
         <v>3</v>
       </c>
       <c r="C1583">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1583">
         <v>4</v>
@@ -22673,7 +22673,7 @@
         <v>4</v>
       </c>
       <c r="C1584">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1584">
         <v>4</v>
@@ -22687,7 +22687,7 @@
         <v>4</v>
       </c>
       <c r="C1585">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1585">
         <v>4</v>
@@ -22701,7 +22701,7 @@
         <v>2</v>
       </c>
       <c r="C1586">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1586">
         <v>4</v>
@@ -22715,7 +22715,7 @@
         <v>1</v>
       </c>
       <c r="C1587">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1587">
         <v>4</v>
@@ -22729,7 +22729,7 @@
         <v>4</v>
       </c>
       <c r="C1588">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1588">
         <v>4</v>
@@ -22743,7 +22743,7 @@
         <v>3</v>
       </c>
       <c r="C1589">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1589">
         <v>4</v>
@@ -22757,7 +22757,7 @@
         <v>3</v>
       </c>
       <c r="C1590">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1590">
         <v>4</v>
@@ -22771,7 +22771,7 @@
         <v>2</v>
       </c>
       <c r="C1591">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1591">
         <v>4</v>
@@ -22785,7 +22785,7 @@
         <v>3</v>
       </c>
       <c r="C1592">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1592">
         <v>4</v>
@@ -22799,7 +22799,7 @@
         <v>2</v>
       </c>
       <c r="C1593">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1593">
         <v>4</v>
@@ -22813,7 +22813,7 @@
         <v>1</v>
       </c>
       <c r="C1594">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1594">
         <v>4</v>
@@ -22827,7 +22827,7 @@
         <v>4</v>
       </c>
       <c r="C1595">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1595">
         <v>4</v>
@@ -22841,7 +22841,7 @@
         <v>4</v>
       </c>
       <c r="C1596">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1596">
         <v>4</v>
@@ -22855,7 +22855,7 @@
         <v>3</v>
       </c>
       <c r="C1597">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1597">
         <v>4</v>
@@ -22869,7 +22869,7 @@
         <v>3</v>
       </c>
       <c r="C1598">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1598">
         <v>4</v>
@@ -22883,7 +22883,7 @@
         <v>4</v>
       </c>
       <c r="C1599">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1599">
         <v>4</v>
@@ -22897,7 +22897,7 @@
         <v>2</v>
       </c>
       <c r="C1600">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1600">
         <v>4</v>
@@ -22911,7 +22911,7 @@
         <v>4</v>
       </c>
       <c r="C1601">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1601">
         <v>4</v>
@@ -22925,7 +22925,7 @@
         <v>2</v>
       </c>
       <c r="C1602">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1602">
         <v>4</v>
@@ -22939,7 +22939,7 @@
         <v>3</v>
       </c>
       <c r="C1603">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1603">
         <v>4</v>
@@ -22953,7 +22953,7 @@
         <v>4</v>
       </c>
       <c r="C1604">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1604">
         <v>4</v>
@@ -22967,7 +22967,7 @@
         <v>4</v>
       </c>
       <c r="C1605">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1605">
         <v>4</v>
@@ -22981,7 +22981,7 @@
         <v>4</v>
       </c>
       <c r="C1606">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1606">
         <v>4</v>
@@ -22995,7 +22995,7 @@
         <v>5</v>
       </c>
       <c r="C1607">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1607">
         <v>4</v>
@@ -23009,7 +23009,7 @@
         <v>3</v>
       </c>
       <c r="C1608">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1608">
         <v>4</v>
@@ -23023,7 +23023,7 @@
         <v>3</v>
       </c>
       <c r="C1609">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1609">
         <v>4</v>
@@ -23037,7 +23037,7 @@
         <v>4</v>
       </c>
       <c r="C1610">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1610">
         <v>1</v>
@@ -23051,7 +23051,7 @@
         <v>4</v>
       </c>
       <c r="C1611">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1611">
         <v>1</v>
@@ -23065,7 +23065,7 @@
         <v>3</v>
       </c>
       <c r="C1612">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1612">
         <v>1</v>
@@ -23079,7 +23079,7 @@
         <v>5</v>
       </c>
       <c r="C1613">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1613">
         <v>1</v>
@@ -23093,7 +23093,7 @@
         <v>3</v>
       </c>
       <c r="C1614">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1614">
         <v>1</v>
@@ -23107,7 +23107,7 @@
         <v>4</v>
       </c>
       <c r="C1615">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1615">
         <v>1</v>
@@ -23121,7 +23121,7 @@
         <v>3</v>
       </c>
       <c r="C1616">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1616">
         <v>1</v>
@@ -23135,7 +23135,7 @@
         <v>2</v>
       </c>
       <c r="C1617">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1617">
         <v>1</v>
@@ -23149,7 +23149,7 @@
         <v>3</v>
       </c>
       <c r="C1618">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1618">
         <v>1</v>
@@ -23163,7 +23163,7 @@
         <v>3</v>
       </c>
       <c r="C1619">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1619">
         <v>1</v>
@@ -23177,7 +23177,7 @@
         <v>3</v>
       </c>
       <c r="C1620">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1620">
         <v>1</v>
@@ -23191,7 +23191,7 @@
         <v>4</v>
       </c>
       <c r="C1621">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1621">
         <v>1</v>
@@ -23205,7 +23205,7 @@
         <v>5</v>
       </c>
       <c r="C1622">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1622">
         <v>1</v>
@@ -23219,7 +23219,7 @@
         <v>3</v>
       </c>
       <c r="C1623">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1623">
         <v>1</v>
@@ -23233,7 +23233,7 @@
         <v>3</v>
       </c>
       <c r="C1624">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1624">
         <v>1</v>
@@ -23247,7 +23247,7 @@
         <v>3</v>
       </c>
       <c r="C1625">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1625">
         <v>1</v>
@@ -23261,7 +23261,7 @@
         <v>4</v>
       </c>
       <c r="C1626">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1626">
         <v>1</v>
@@ -23275,7 +23275,7 @@
         <v>3</v>
       </c>
       <c r="C1627">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1627">
         <v>1</v>
@@ -23289,7 +23289,7 @@
         <v>3</v>
       </c>
       <c r="C1628">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1628">
         <v>1</v>
@@ -23303,7 +23303,7 @@
         <v>5</v>
       </c>
       <c r="C1629">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1629">
         <v>1</v>
@@ -23317,7 +23317,7 @@
         <v>4</v>
       </c>
       <c r="C1630">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1630">
         <v>1</v>
@@ -23331,7 +23331,7 @@
         <v>5</v>
       </c>
       <c r="C1631">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1631">
         <v>1</v>
@@ -23345,7 +23345,7 @@
         <v>5</v>
       </c>
       <c r="C1632">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1632">
         <v>1</v>
@@ -23359,7 +23359,7 @@
         <v>2</v>
       </c>
       <c r="C1633">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1633">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         <v>3</v>
       </c>
       <c r="C1634">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1634">
         <v>1</v>
@@ -23387,7 +23387,7 @@
         <v>4</v>
       </c>
       <c r="C1635">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1635">
         <v>1</v>
@@ -23401,7 +23401,7 @@
         <v>3</v>
       </c>
       <c r="C1636">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1636">
         <v>1</v>
@@ -23415,7 +23415,7 @@
         <v>2</v>
       </c>
       <c r="C1637">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1637">
         <v>1</v>
@@ -23429,7 +23429,7 @@
         <v>5</v>
       </c>
       <c r="C1638">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1638">
         <v>1</v>
@@ -23443,7 +23443,7 @@
         <v>5</v>
       </c>
       <c r="C1639">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1639">
         <v>1</v>
@@ -23457,7 +23457,7 @@
         <v>2</v>
       </c>
       <c r="C1640">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1640">
         <v>1</v>
@@ -23471,7 +23471,7 @@
         <v>3</v>
       </c>
       <c r="C1641">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1641">
         <v>2</v>
@@ -23485,7 +23485,7 @@
         <v>1</v>
       </c>
       <c r="C1642">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1642">
         <v>2</v>
@@ -23499,7 +23499,7 @@
         <v>1</v>
       </c>
       <c r="C1643">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1643">
         <v>2</v>
@@ -23513,7 +23513,7 @@
         <v>4</v>
       </c>
       <c r="C1644">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1644">
         <v>2</v>
@@ -23527,7 +23527,7 @@
         <v>4</v>
       </c>
       <c r="C1645">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1645">
         <v>2</v>
@@ -23541,7 +23541,7 @@
         <v>4</v>
       </c>
       <c r="C1646">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1646">
         <v>2</v>
@@ -23555,7 +23555,7 @@
         <v>1</v>
       </c>
       <c r="C1647">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1647">
         <v>2</v>
@@ -23569,7 +23569,7 @@
         <v>2</v>
       </c>
       <c r="C1648">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1648">
         <v>2</v>
@@ -23583,7 +23583,7 @@
         <v>4</v>
       </c>
       <c r="C1649">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1649">
         <v>2</v>
@@ -23597,7 +23597,7 @@
         <v>4</v>
       </c>
       <c r="C1650">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1650">
         <v>2</v>
@@ -23611,7 +23611,7 @@
         <v>4</v>
       </c>
       <c r="C1651">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1651">
         <v>2</v>
@@ -23625,7 +23625,7 @@
         <v>2</v>
       </c>
       <c r="C1652">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1652">
         <v>2</v>
@@ -23639,7 +23639,7 @@
         <v>3</v>
       </c>
       <c r="C1653">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1653">
         <v>2</v>
@@ -23653,7 +23653,7 @@
         <v>1</v>
       </c>
       <c r="C1654">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1654">
         <v>2</v>
@@ -23667,7 +23667,7 @@
         <v>2</v>
       </c>
       <c r="C1655">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1655">
         <v>2</v>
@@ -23681,7 +23681,7 @@
         <v>3</v>
       </c>
       <c r="C1656">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1656">
         <v>2</v>
@@ -23695,7 +23695,7 @@
         <v>3</v>
       </c>
       <c r="C1657">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1657">
         <v>2</v>
@@ -23709,7 +23709,7 @@
         <v>2</v>
       </c>
       <c r="C1658">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1658">
         <v>2</v>
@@ -23723,7 +23723,7 @@
         <v>3</v>
       </c>
       <c r="C1659">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1659">
         <v>2</v>
@@ -23737,7 +23737,7 @@
         <v>4</v>
       </c>
       <c r="C1660">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1660">
         <v>2</v>
@@ -23751,7 +23751,7 @@
         <v>2</v>
       </c>
       <c r="C1661">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1661">
         <v>2</v>
@@ -23765,7 +23765,7 @@
         <v>2</v>
       </c>
       <c r="C1662">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1662">
         <v>2</v>
@@ -23779,7 +23779,7 @@
         <v>3</v>
       </c>
       <c r="C1663">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1663">
         <v>2</v>
@@ -23793,7 +23793,7 @@
         <v>3</v>
       </c>
       <c r="C1664">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1664">
         <v>2</v>
@@ -23807,7 +23807,7 @@
         <v>3</v>
       </c>
       <c r="C1665">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1665">
         <v>2</v>
@@ -23821,7 +23821,7 @@
         <v>2</v>
       </c>
       <c r="C1666">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1666">
         <v>2</v>
@@ -23835,7 +23835,7 @@
         <v>3</v>
       </c>
       <c r="C1667">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1667">
         <v>2</v>
@@ -23849,7 +23849,7 @@
         <v>3</v>
       </c>
       <c r="C1668">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1668">
         <v>2</v>
@@ -23863,7 +23863,7 @@
         <v>3</v>
       </c>
       <c r="C1669">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1669">
         <v>2</v>
@@ -23877,7 +23877,7 @@
         <v>4</v>
       </c>
       <c r="C1670">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1670">
         <v>2</v>
@@ -23891,7 +23891,7 @@
         <v>4</v>
       </c>
       <c r="C1671">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1671">
         <v>3</v>
@@ -23905,7 +23905,7 @@
         <v>4</v>
       </c>
       <c r="C1672">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1672">
         <v>3</v>
@@ -23919,7 +23919,7 @@
         <v>5</v>
       </c>
       <c r="C1673">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1673">
         <v>3</v>
@@ -23933,7 +23933,7 @@
         <v>3</v>
       </c>
       <c r="C1674">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1674">
         <v>3</v>
@@ -23947,7 +23947,7 @@
         <v>4</v>
       </c>
       <c r="C1675">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1675">
         <v>3</v>
@@ -23961,7 +23961,7 @@
         <v>3</v>
       </c>
       <c r="C1676">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1676">
         <v>3</v>
@@ -23975,7 +23975,7 @@
         <v>4</v>
       </c>
       <c r="C1677">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1677">
         <v>3</v>
@@ -23989,7 +23989,7 @@
         <v>5</v>
       </c>
       <c r="C1678">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1678">
         <v>3</v>
@@ -24003,7 +24003,7 @@
         <v>3</v>
       </c>
       <c r="C1679">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1679">
         <v>3</v>
@@ -24017,7 +24017,7 @@
         <v>5</v>
       </c>
       <c r="C1680">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1680">
         <v>3</v>
@@ -24031,7 +24031,7 @@
         <v>4</v>
       </c>
       <c r="C1681">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1681">
         <v>3</v>
@@ -24045,7 +24045,7 @@
         <v>5</v>
       </c>
       <c r="C1682">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1682">
         <v>3</v>
@@ -24059,7 +24059,7 @@
         <v>3</v>
       </c>
       <c r="C1683">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1683">
         <v>3</v>
@@ -24073,7 +24073,7 @@
         <v>3</v>
       </c>
       <c r="C1684">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1684">
         <v>3</v>
@@ -24087,7 +24087,7 @@
         <v>4</v>
       </c>
       <c r="C1685">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1685">
         <v>3</v>
@@ -24101,7 +24101,7 @@
         <v>5</v>
       </c>
       <c r="C1686">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1686">
         <v>3</v>
@@ -24115,7 +24115,7 @@
         <v>4</v>
       </c>
       <c r="C1687">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1687">
         <v>3</v>
@@ -24129,7 +24129,7 @@
         <v>3</v>
       </c>
       <c r="C1688">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1688">
         <v>3</v>
@@ -24143,7 +24143,7 @@
         <v>3</v>
       </c>
       <c r="C1689">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1689">
         <v>3</v>
@@ -24157,7 +24157,7 @@
         <v>5</v>
       </c>
       <c r="C1690">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1690">
         <v>3</v>
@@ -24171,7 +24171,7 @@
         <v>4</v>
       </c>
       <c r="C1691">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1691">
         <v>3</v>
@@ -24185,7 +24185,7 @@
         <v>3</v>
       </c>
       <c r="C1692">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1692">
         <v>3</v>
@@ -24199,7 +24199,7 @@
         <v>3</v>
       </c>
       <c r="C1693">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1693">
         <v>3</v>
@@ -24213,7 +24213,7 @@
         <v>4</v>
       </c>
       <c r="C1694">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1694">
         <v>3</v>
@@ -24227,7 +24227,7 @@
         <v>2</v>
       </c>
       <c r="C1695">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1695">
         <v>3</v>
@@ -24241,7 +24241,7 @@
         <v>2</v>
       </c>
       <c r="C1696">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1696">
         <v>3</v>
@@ -24255,7 +24255,7 @@
         <v>4</v>
       </c>
       <c r="C1697">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1697">
         <v>3</v>
@@ -24269,7 +24269,7 @@
         <v>5</v>
       </c>
       <c r="C1698">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1698">
         <v>3</v>
@@ -24283,7 +24283,7 @@
         <v>5</v>
       </c>
       <c r="C1699">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1699">
         <v>3</v>
@@ -24297,7 +24297,7 @@
         <v>4</v>
       </c>
       <c r="C1700">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1700">
         <v>3</v>
@@ -24311,7 +24311,7 @@
         <v>1</v>
       </c>
       <c r="C1701">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1701">
         <v>4</v>
@@ -24325,7 +24325,7 @@
         <v>3</v>
       </c>
       <c r="C1702">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1702">
         <v>4</v>
@@ -24339,7 +24339,7 @@
         <v>3</v>
       </c>
       <c r="C1703">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1703">
         <v>4</v>
@@ -24353,7 +24353,7 @@
         <v>3</v>
       </c>
       <c r="C1704">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1704">
         <v>4</v>
@@ -24367,7 +24367,7 @@
         <v>3</v>
       </c>
       <c r="C1705">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1705">
         <v>4</v>
@@ -24381,7 +24381,7 @@
         <v>4</v>
       </c>
       <c r="C1706">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1706">
         <v>4</v>
@@ -24395,7 +24395,7 @@
         <v>2</v>
       </c>
       <c r="C1707">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1707">
         <v>4</v>
@@ -24409,7 +24409,7 @@
         <v>3</v>
       </c>
       <c r="C1708">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1708">
         <v>4</v>
@@ -24423,7 +24423,7 @@
         <v>4</v>
       </c>
       <c r="C1709">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1709">
         <v>4</v>
@@ -24437,7 +24437,7 @@
         <v>3</v>
       </c>
       <c r="C1710">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1710">
         <v>4</v>
@@ -24451,7 +24451,7 @@
         <v>4</v>
       </c>
       <c r="C1711">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1711">
         <v>4</v>
@@ -24465,7 +24465,7 @@
         <v>3</v>
       </c>
       <c r="C1712">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1712">
         <v>4</v>
@@ -24479,7 +24479,7 @@
         <v>3</v>
       </c>
       <c r="C1713">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1713">
         <v>4</v>
@@ -24493,7 +24493,7 @@
         <v>1</v>
       </c>
       <c r="C1714">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1714">
         <v>4</v>
@@ -24507,7 +24507,7 @@
         <v>3</v>
       </c>
       <c r="C1715">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1715">
         <v>4</v>
@@ -24521,7 +24521,7 @@
         <v>2</v>
       </c>
       <c r="C1716">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1716">
         <v>4</v>
@@ -24535,7 +24535,7 @@
         <v>3</v>
       </c>
       <c r="C1717">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1717">
         <v>4</v>
@@ -24549,7 +24549,7 @@
         <v>2</v>
       </c>
       <c r="C1718">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1718">
         <v>4</v>
@@ -24563,7 +24563,7 @@
         <v>3</v>
       </c>
       <c r="C1719">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1719">
         <v>4</v>
@@ -24577,7 +24577,7 @@
         <v>3</v>
       </c>
       <c r="C1720">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1720">
         <v>4</v>
@@ -24591,7 +24591,7 @@
         <v>3</v>
       </c>
       <c r="C1721">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1721">
         <v>4</v>
@@ -24605,7 +24605,7 @@
         <v>3</v>
       </c>
       <c r="C1722">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1722">
         <v>4</v>
@@ -24619,7 +24619,7 @@
         <v>1</v>
       </c>
       <c r="C1723">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1723">
         <v>4</v>
@@ -24633,7 +24633,7 @@
         <v>4</v>
       </c>
       <c r="C1724">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1724">
         <v>4</v>
@@ -24647,7 +24647,7 @@
         <v>2</v>
       </c>
       <c r="C1725">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1725">
         <v>4</v>
@@ -24661,7 +24661,7 @@
         <v>3</v>
       </c>
       <c r="C1726">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1726">
         <v>4</v>
@@ -24675,7 +24675,7 @@
         <v>3</v>
       </c>
       <c r="C1727">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1727">
         <v>4</v>
@@ -24689,7 +24689,7 @@
         <v>2</v>
       </c>
       <c r="C1728">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1728">
         <v>4</v>
@@ -24703,7 +24703,7 @@
         <v>2</v>
       </c>
       <c r="C1729">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1729">
         <v>4</v>
@@ -24717,7 +24717,7 @@
         <v>1</v>
       </c>
       <c r="C1730">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1730">
         <v>4</v>
@@ -24731,7 +24731,7 @@
         <v>3</v>
       </c>
       <c r="C1731">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1731">
         <v>4</v>
@@ -24745,7 +24745,7 @@
         <v>3</v>
       </c>
       <c r="C1732">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1732">
         <v>4</v>
@@ -24759,7 +24759,7 @@
         <v>3</v>
       </c>
       <c r="C1733">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1733">
         <v>4</v>
@@ -24773,7 +24773,7 @@
         <v>3</v>
       </c>
       <c r="C1734">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1734">
         <v>4</v>
@@ -24787,7 +24787,7 @@
         <v>3</v>
       </c>
       <c r="C1735">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1735">
         <v>4</v>
@@ -24801,7 +24801,7 @@
         <v>3</v>
       </c>
       <c r="C1736">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1736">
         <v>4</v>
@@ -24815,7 +24815,7 @@
         <v>2</v>
       </c>
       <c r="C1737">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1737">
         <v>4</v>
@@ -24829,7 +24829,7 @@
         <v>3</v>
       </c>
       <c r="C1738">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1738">
         <v>4</v>
@@ -24843,7 +24843,7 @@
         <v>2</v>
       </c>
       <c r="C1739">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1739">
         <v>4</v>
@@ -24857,7 +24857,7 @@
         <v>3</v>
       </c>
       <c r="C1740">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1740">
         <v>4</v>
@@ -24871,7 +24871,7 @@
         <v>3</v>
       </c>
       <c r="C1741">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1741">
         <v>4</v>
@@ -24885,7 +24885,7 @@
         <v>3</v>
       </c>
       <c r="C1742">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1742">
         <v>4</v>
@@ -24899,7 +24899,7 @@
         <v>3</v>
       </c>
       <c r="C1743">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1743">
         <v>4</v>
@@ -24913,7 +24913,7 @@
         <v>4</v>
       </c>
       <c r="C1744">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1744">
         <v>1</v>
@@ -24927,7 +24927,7 @@
         <v>3</v>
       </c>
       <c r="C1745">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1745">
         <v>1</v>
@@ -24941,7 +24941,7 @@
         <v>2</v>
       </c>
       <c r="C1746">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1746">
         <v>1</v>
@@ -24955,7 +24955,7 @@
         <v>3</v>
       </c>
       <c r="C1747">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1747">
         <v>1</v>
@@ -24969,7 +24969,7 @@
         <v>3</v>
       </c>
       <c r="C1748">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1748">
         <v>1</v>
@@ -24983,7 +24983,7 @@
         <v>2</v>
       </c>
       <c r="C1749">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1749">
         <v>1</v>
@@ -24997,7 +24997,7 @@
         <v>4</v>
       </c>
       <c r="C1750">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1750">
         <v>1</v>
@@ -25011,7 +25011,7 @@
         <v>3</v>
       </c>
       <c r="C1751">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1751">
         <v>1</v>
@@ -25025,7 +25025,7 @@
         <v>4</v>
       </c>
       <c r="C1752">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1752">
         <v>1</v>
@@ -25039,7 +25039,7 @@
         <v>3</v>
       </c>
       <c r="C1753">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1753">
         <v>1</v>
@@ -25053,7 +25053,7 @@
         <v>3</v>
       </c>
       <c r="C1754">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1754">
         <v>1</v>
@@ -25067,7 +25067,7 @@
         <v>3</v>
       </c>
       <c r="C1755">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1755">
         <v>1</v>
@@ -25081,7 +25081,7 @@
         <v>3</v>
       </c>
       <c r="C1756">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1756">
         <v>1</v>
@@ -25095,7 +25095,7 @@
         <v>3</v>
       </c>
       <c r="C1757">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1757">
         <v>1</v>
@@ -25109,7 +25109,7 @@
         <v>3</v>
       </c>
       <c r="C1758">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1758">
         <v>1</v>
@@ -25123,7 +25123,7 @@
         <v>5</v>
       </c>
       <c r="C1759">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1759">
         <v>1</v>
@@ -25137,7 +25137,7 @@
         <v>2</v>
       </c>
       <c r="C1760">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1760">
         <v>1</v>
@@ -25151,7 +25151,7 @@
         <v>1</v>
       </c>
       <c r="C1761">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1761">
         <v>1</v>
@@ -25165,7 +25165,7 @@
         <v>3</v>
       </c>
       <c r="C1762">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1762">
         <v>1</v>
@@ -25179,7 +25179,7 @@
         <v>4</v>
       </c>
       <c r="C1763">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1763">
         <v>1</v>
@@ -25193,7 +25193,7 @@
         <v>3</v>
       </c>
       <c r="C1764">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1764">
         <v>1</v>
@@ -25207,7 +25207,7 @@
         <v>3</v>
       </c>
       <c r="C1765">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1765">
         <v>1</v>
@@ -25221,7 +25221,7 @@
         <v>3</v>
       </c>
       <c r="C1766">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1766">
         <v>1</v>
@@ -25235,7 +25235,7 @@
         <v>4</v>
       </c>
       <c r="C1767">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1767">
         <v>1</v>
@@ -25249,7 +25249,7 @@
         <v>5</v>
       </c>
       <c r="C1768">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1768">
         <v>1</v>
@@ -25263,7 +25263,7 @@
         <v>4</v>
       </c>
       <c r="C1769">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1769">
         <v>1</v>
@@ -25277,7 +25277,7 @@
         <v>3</v>
       </c>
       <c r="C1770">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1770">
         <v>1</v>
@@ -25291,7 +25291,7 @@
         <v>3</v>
       </c>
       <c r="C1771">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1771">
         <v>1</v>
@@ -25305,7 +25305,7 @@
         <v>3</v>
       </c>
       <c r="C1772">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1772">
         <v>1</v>
@@ -25319,7 +25319,7 @@
         <v>2</v>
       </c>
       <c r="C1773">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1773">
         <v>1</v>
@@ -25333,7 +25333,7 @@
         <v>2</v>
       </c>
       <c r="C1774">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1774">
         <v>1</v>
@@ -25347,7 +25347,7 @@
         <v>3</v>
       </c>
       <c r="C1775">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1775">
         <v>2</v>
@@ -25361,7 +25361,7 @@
         <v>4</v>
       </c>
       <c r="C1776">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1776">
         <v>2</v>
@@ -25375,7 +25375,7 @@
         <v>2</v>
       </c>
       <c r="C1777">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1777">
         <v>2</v>
@@ -25389,7 +25389,7 @@
         <v>3</v>
       </c>
       <c r="C1778">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1778">
         <v>2</v>
@@ -25403,7 +25403,7 @@
         <v>4</v>
       </c>
       <c r="C1779">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1779">
         <v>2</v>
@@ -25417,7 +25417,7 @@
         <v>3</v>
       </c>
       <c r="C1780">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1780">
         <v>2</v>
@@ -25431,7 +25431,7 @@
         <v>2</v>
       </c>
       <c r="C1781">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1781">
         <v>2</v>
@@ -25445,7 +25445,7 @@
         <v>4</v>
       </c>
       <c r="C1782">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1782">
         <v>2</v>
@@ -25459,7 +25459,7 @@
         <v>2</v>
       </c>
       <c r="C1783">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1783">
         <v>2</v>
@@ -25473,7 +25473,7 @@
         <v>3</v>
       </c>
       <c r="C1784">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1784">
         <v>2</v>
@@ -25487,7 +25487,7 @@
         <v>1</v>
       </c>
       <c r="C1785">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1785">
         <v>2</v>
@@ -25501,7 +25501,7 @@
         <v>3</v>
       </c>
       <c r="C1786">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1786">
         <v>2</v>
@@ -25515,7 +25515,7 @@
         <v>2</v>
       </c>
       <c r="C1787">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1787">
         <v>2</v>
@@ -25529,7 +25529,7 @@
         <v>4</v>
       </c>
       <c r="C1788">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1788">
         <v>2</v>
@@ -25543,7 +25543,7 @@
         <v>4</v>
       </c>
       <c r="C1789">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1789">
         <v>2</v>
@@ -25557,7 +25557,7 @@
         <v>5</v>
       </c>
       <c r="C1790">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1790">
         <v>2</v>
@@ -25571,7 +25571,7 @@
         <v>2</v>
       </c>
       <c r="C1791">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1791">
         <v>2</v>
@@ -25585,7 +25585,7 @@
         <v>4</v>
       </c>
       <c r="C1792">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1792">
         <v>2</v>
@@ -25599,7 +25599,7 @@
         <v>4</v>
       </c>
       <c r="C1793">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1793">
         <v>2</v>
@@ -25613,7 +25613,7 @@
         <v>3</v>
       </c>
       <c r="C1794">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1794">
         <v>2</v>
@@ -25627,7 +25627,7 @@
         <v>5</v>
       </c>
       <c r="C1795">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1795">
         <v>2</v>
@@ -25641,7 +25641,7 @@
         <v>3</v>
       </c>
       <c r="C1796">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1796">
         <v>2</v>
@@ -25655,7 +25655,7 @@
         <v>4</v>
       </c>
       <c r="C1797">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1797">
         <v>2</v>
@@ -25669,7 +25669,7 @@
         <v>4</v>
       </c>
       <c r="C1798">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1798">
         <v>2</v>
@@ -25683,7 +25683,7 @@
         <v>4</v>
       </c>
       <c r="C1799">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1799">
         <v>2</v>
@@ -25697,7 +25697,7 @@
         <v>4</v>
       </c>
       <c r="C1800">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1800">
         <v>2</v>
@@ -25711,7 +25711,7 @@
         <v>2</v>
       </c>
       <c r="C1801">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1801">
         <v>2</v>
@@ -25725,7 +25725,7 @@
         <v>2</v>
       </c>
       <c r="C1802">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1802">
         <v>2</v>
@@ -25739,7 +25739,7 @@
         <v>4</v>
       </c>
       <c r="C1803">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1803">
         <v>2</v>
@@ -25753,7 +25753,7 @@
         <v>4</v>
       </c>
       <c r="C1804">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1804">
         <v>2</v>
@@ -25767,7 +25767,7 @@
         <v>4</v>
       </c>
       <c r="C1805">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1805">
         <v>3</v>
@@ -25781,7 +25781,7 @@
         <v>4</v>
       </c>
       <c r="C1806">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1806">
         <v>3</v>
@@ -25795,7 +25795,7 @@
         <v>3</v>
       </c>
       <c r="C1807">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1807">
         <v>3</v>
@@ -25809,7 +25809,7 @@
         <v>4</v>
       </c>
       <c r="C1808">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1808">
         <v>3</v>
@@ -25823,7 +25823,7 @@
         <v>2</v>
       </c>
       <c r="C1809">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1809">
         <v>3</v>
@@ -25837,7 +25837,7 @@
         <v>2</v>
       </c>
       <c r="C1810">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1810">
         <v>3</v>
@@ -25851,7 +25851,7 @@
         <v>2</v>
       </c>
       <c r="C1811">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1811">
         <v>3</v>
@@ -25865,7 +25865,7 @@
         <v>3</v>
       </c>
       <c r="C1812">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1812">
         <v>3</v>
@@ -25879,7 +25879,7 @@
         <v>3</v>
       </c>
       <c r="C1813">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1813">
         <v>3</v>
@@ -25893,7 +25893,7 @@
         <v>2</v>
       </c>
       <c r="C1814">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1814">
         <v>3</v>
@@ -25907,7 +25907,7 @@
         <v>5</v>
       </c>
       <c r="C1815">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1815">
         <v>3</v>
@@ -25921,7 +25921,7 @@
         <v>3</v>
       </c>
       <c r="C1816">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1816">
         <v>3</v>
@@ -25935,7 +25935,7 @@
         <v>4</v>
       </c>
       <c r="C1817">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1817">
         <v>3</v>
@@ -25949,7 +25949,7 @@
         <v>4</v>
       </c>
       <c r="C1818">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1818">
         <v>3</v>
@@ -25963,7 +25963,7 @@
         <v>3</v>
       </c>
       <c r="C1819">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1819">
         <v>3</v>
@@ -25977,7 +25977,7 @@
         <v>4</v>
       </c>
       <c r="C1820">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1820">
         <v>3</v>
@@ -25991,7 +25991,7 @@
         <v>4</v>
       </c>
       <c r="C1821">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1821">
         <v>3</v>
@@ -26005,7 +26005,7 @@
         <v>3</v>
       </c>
       <c r="C1822">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1822">
         <v>3</v>
@@ -26019,7 +26019,7 @@
         <v>3</v>
       </c>
       <c r="C1823">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1823">
         <v>3</v>
@@ -26033,7 +26033,7 @@
         <v>3</v>
       </c>
       <c r="C1824">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1824">
         <v>3</v>
@@ -26047,7 +26047,7 @@
         <v>3</v>
       </c>
       <c r="C1825">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1825">
         <v>3</v>
@@ -26061,7 +26061,7 @@
         <v>1</v>
       </c>
       <c r="C1826">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1826">
         <v>3</v>
@@ -26075,7 +26075,7 @@
         <v>3</v>
       </c>
       <c r="C1827">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1827">
         <v>3</v>
@@ -26089,7 +26089,7 @@
         <v>4</v>
       </c>
       <c r="C1828">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1828">
         <v>3</v>
@@ -26103,7 +26103,7 @@
         <v>3</v>
       </c>
       <c r="C1829">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1829">
         <v>3</v>
@@ -26117,7 +26117,7 @@
         <v>5</v>
       </c>
       <c r="C1830">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1830">
         <v>3</v>
@@ -26131,7 +26131,7 @@
         <v>4</v>
       </c>
       <c r="C1831">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1831">
         <v>3</v>
@@ -26145,7 +26145,7 @@
         <v>4</v>
       </c>
       <c r="C1832">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1832">
         <v>3</v>
@@ -26159,7 +26159,7 @@
         <v>3</v>
       </c>
       <c r="C1833">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1833">
         <v>3</v>
@@ -26173,7 +26173,7 @@
         <v>4</v>
       </c>
       <c r="C1834">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1834">
         <v>3</v>
@@ -26187,7 +26187,7 @@
         <v>4</v>
       </c>
       <c r="C1835">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1835">
         <v>4</v>
@@ -26201,7 +26201,7 @@
         <v>3</v>
       </c>
       <c r="C1836">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1836">
         <v>4</v>
@@ -26215,7 +26215,7 @@
         <v>5</v>
       </c>
       <c r="C1837">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1837">
         <v>4</v>
@@ -26229,7 +26229,7 @@
         <v>3</v>
       </c>
       <c r="C1838">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1838">
         <v>4</v>
@@ -26243,7 +26243,7 @@
         <v>1</v>
       </c>
       <c r="C1839">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1839">
         <v>4</v>
@@ -26257,7 +26257,7 @@
         <v>2</v>
       </c>
       <c r="C1840">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1840">
         <v>4</v>
@@ -26271,7 +26271,7 @@
         <v>2</v>
       </c>
       <c r="C1841">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1841">
         <v>4</v>
@@ -26285,7 +26285,7 @@
         <v>2</v>
       </c>
       <c r="C1842">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1842">
         <v>4</v>
@@ -26299,7 +26299,7 @@
         <v>2</v>
       </c>
       <c r="C1843">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1843">
         <v>4</v>
@@ -26313,7 +26313,7 @@
         <v>4</v>
       </c>
       <c r="C1844">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1844">
         <v>4</v>
@@ -26327,7 +26327,7 @@
         <v>3</v>
       </c>
       <c r="C1845">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1845">
         <v>4</v>
@@ -26341,7 +26341,7 @@
         <v>4</v>
       </c>
       <c r="C1846">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1846">
         <v>4</v>
@@ -26355,7 +26355,7 @@
         <v>4</v>
       </c>
       <c r="C1847">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1847">
         <v>4</v>
@@ -26369,7 +26369,7 @@
         <v>3</v>
       </c>
       <c r="C1848">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1848">
         <v>4</v>
@@ -26383,7 +26383,7 @@
         <v>3</v>
       </c>
       <c r="C1849">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1849">
         <v>4</v>
@@ -26397,7 +26397,7 @@
         <v>2</v>
       </c>
       <c r="C1850">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1850">
         <v>4</v>
@@ -26411,7 +26411,7 @@
         <v>3</v>
       </c>
       <c r="C1851">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1851">
         <v>4</v>
@@ -26425,7 +26425,7 @@
         <v>3</v>
       </c>
       <c r="C1852">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1852">
         <v>4</v>
@@ -26439,7 +26439,7 @@
         <v>4</v>
       </c>
       <c r="C1853">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1853">
         <v>4</v>
@@ -26453,7 +26453,7 @@
         <v>2</v>
       </c>
       <c r="C1854">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1854">
         <v>4</v>
@@ -26467,7 +26467,7 @@
         <v>3</v>
       </c>
       <c r="C1855">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1855">
         <v>4</v>
@@ -26481,7 +26481,7 @@
         <v>4</v>
       </c>
       <c r="C1856">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1856">
         <v>4</v>
@@ -26495,7 +26495,7 @@
         <v>3</v>
       </c>
       <c r="C1857">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1857">
         <v>4</v>
@@ -26509,7 +26509,7 @@
         <v>4</v>
       </c>
       <c r="C1858">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1858">
         <v>4</v>
@@ -26523,7 +26523,7 @@
         <v>4</v>
       </c>
       <c r="C1859">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1859">
         <v>4</v>
@@ -26537,7 +26537,7 @@
         <v>4</v>
       </c>
       <c r="C1860">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1860">
         <v>4</v>
@@ -26551,7 +26551,7 @@
         <v>3</v>
       </c>
       <c r="C1861">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1861">
         <v>4</v>
@@ -26565,7 +26565,7 @@
         <v>4</v>
       </c>
       <c r="C1862">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1862">
         <v>4</v>
@@ -26579,7 +26579,7 @@
         <v>4</v>
       </c>
       <c r="C1863">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1863">
         <v>4</v>
@@ -26593,7 +26593,7 @@
         <v>3</v>
       </c>
       <c r="C1864">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1864">
         <v>4</v>
@@ -26607,7 +26607,7 @@
         <v>3</v>
       </c>
       <c r="C1865">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1865">
         <v>4</v>
@@ -26621,7 +26621,7 @@
         <v>3</v>
       </c>
       <c r="C1866">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1866">
         <v>4</v>
@@ -26635,7 +26635,7 @@
         <v>3</v>
       </c>
       <c r="C1867">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1867">
         <v>4</v>
@@ -26649,7 +26649,7 @@
         <v>2</v>
       </c>
       <c r="C1868">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1868">
         <v>4</v>
@@ -26663,7 +26663,7 @@
         <v>2</v>
       </c>
       <c r="C1869">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1869">
         <v>4</v>
@@ -26677,7 +26677,7 @@
         <v>2</v>
       </c>
       <c r="C1870">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1870">
         <v>4</v>
@@ -26691,7 +26691,7 @@
         <v>4</v>
       </c>
       <c r="C1871">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1871">
         <v>4</v>
@@ -26705,7 +26705,7 @@
         <v>3</v>
       </c>
       <c r="C1872">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1872">
         <v>4</v>
@@ -26719,7 +26719,7 @@
         <v>4</v>
       </c>
       <c r="C1873">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1873">
         <v>4</v>
@@ -26733,7 +26733,7 @@
         <v>4</v>
       </c>
       <c r="C1874">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1874">
         <v>4</v>
@@ -26747,7 +26747,7 @@
         <v>3</v>
       </c>
       <c r="C1875">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1875">
         <v>4</v>
@@ -26761,7 +26761,7 @@
         <v>3</v>
       </c>
       <c r="C1876">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1876">
         <v>4</v>
@@ -26775,7 +26775,7 @@
         <v>4</v>
       </c>
       <c r="C1877">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1877">
         <v>4</v>
@@ -26789,7 +26789,7 @@
         <v>5</v>
       </c>
       <c r="C1878">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1878">
         <v>1</v>
@@ -26803,7 +26803,7 @@
         <v>3</v>
       </c>
       <c r="C1879">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1879">
         <v>1</v>
@@ -26817,7 +26817,7 @@
         <v>3</v>
       </c>
       <c r="C1880">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1880">
         <v>1</v>
@@ -26831,7 +26831,7 @@
         <v>1</v>
       </c>
       <c r="C1881">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1881">
         <v>1</v>
@@ -26845,7 +26845,7 @@
         <v>4</v>
       </c>
       <c r="C1882">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1882">
         <v>1</v>
@@ -26859,7 +26859,7 @@
         <v>3</v>
       </c>
       <c r="C1883">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1883">
         <v>1</v>
@@ -26873,7 +26873,7 @@
         <v>1</v>
       </c>
       <c r="C1884">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1884">
         <v>1</v>
@@ -26887,7 +26887,7 @@
         <v>4</v>
       </c>
       <c r="C1885">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1885">
         <v>1</v>
@@ -26901,7 +26901,7 @@
         <v>2</v>
       </c>
       <c r="C1886">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1886">
         <v>1</v>
@@ -26915,7 +26915,7 @@
         <v>3</v>
       </c>
       <c r="C1887">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1887">
         <v>1</v>
@@ -26929,7 +26929,7 @@
         <v>1</v>
       </c>
       <c r="C1888">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1888">
         <v>1</v>
@@ -26943,7 +26943,7 @@
         <v>5</v>
       </c>
       <c r="C1889">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1889">
         <v>1</v>
@@ -26957,7 +26957,7 @@
         <v>5</v>
       </c>
       <c r="C1890">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1890">
         <v>1</v>
@@ -26971,7 +26971,7 @@
         <v>3</v>
       </c>
       <c r="C1891">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1891">
         <v>1</v>
@@ -26985,7 +26985,7 @@
         <v>5</v>
       </c>
       <c r="C1892">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1892">
         <v>1</v>
@@ -26999,7 +26999,7 @@
         <v>5</v>
       </c>
       <c r="C1893">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1893">
         <v>1</v>
@@ -27013,7 +27013,7 @@
         <v>5</v>
       </c>
       <c r="C1894">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1894">
         <v>1</v>
@@ -27027,7 +27027,7 @@
         <v>3</v>
       </c>
       <c r="C1895">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1895">
         <v>1</v>
@@ -27041,7 +27041,7 @@
         <v>3</v>
       </c>
       <c r="C1896">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1896">
         <v>1</v>
@@ -27055,7 +27055,7 @@
         <v>3</v>
       </c>
       <c r="C1897">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1897">
         <v>1</v>
@@ -27069,7 +27069,7 @@
         <v>5</v>
       </c>
       <c r="C1898">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1898">
         <v>1</v>
@@ -27083,7 +27083,7 @@
         <v>1</v>
       </c>
       <c r="C1899">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1899">
         <v>1</v>
@@ -27097,7 +27097,7 @@
         <v>3</v>
       </c>
       <c r="C1900">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1900">
         <v>1</v>
@@ -27111,7 +27111,7 @@
         <v>2</v>
       </c>
       <c r="C1901">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1901">
         <v>1</v>
@@ -27125,7 +27125,7 @@
         <v>5</v>
       </c>
       <c r="C1902">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1902">
         <v>1</v>
@@ -27139,7 +27139,7 @@
         <v>3</v>
       </c>
       <c r="C1903">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1903">
         <v>1</v>
@@ -27153,7 +27153,7 @@
         <v>3</v>
       </c>
       <c r="C1904">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1904">
         <v>1</v>
@@ -27167,7 +27167,7 @@
         <v>3</v>
       </c>
       <c r="C1905">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1905">
         <v>1</v>
@@ -27181,7 +27181,7 @@
         <v>3</v>
       </c>
       <c r="C1906">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1906">
         <v>1</v>
@@ -27195,7 +27195,7 @@
         <v>3</v>
       </c>
       <c r="C1907">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1907">
         <v>1</v>
@@ -27209,7 +27209,7 @@
         <v>5</v>
       </c>
       <c r="C1908">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1908">
         <v>1</v>
@@ -27223,7 +27223,7 @@
         <v>5</v>
       </c>
       <c r="C1909">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1909">
         <v>2</v>
@@ -27237,7 +27237,7 @@
         <v>3</v>
       </c>
       <c r="C1910">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1910">
         <v>2</v>
@@ -27251,7 +27251,7 @@
         <v>3</v>
       </c>
       <c r="C1911">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1911">
         <v>2</v>
@@ -27265,7 +27265,7 @@
         <v>3</v>
       </c>
       <c r="C1912">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1912">
         <v>2</v>
@@ -27279,7 +27279,7 @@
         <v>3</v>
       </c>
       <c r="C1913">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1913">
         <v>2</v>
@@ -27293,7 +27293,7 @@
         <v>5</v>
       </c>
       <c r="C1914">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1914">
         <v>2</v>
@@ -27307,7 +27307,7 @@
         <v>5</v>
       </c>
       <c r="C1915">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1915">
         <v>2</v>
@@ -27321,7 +27321,7 @@
         <v>3</v>
       </c>
       <c r="C1916">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1916">
         <v>2</v>
@@ -27335,7 +27335,7 @@
         <v>2</v>
       </c>
       <c r="C1917">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1917">
         <v>2</v>
@@ -27349,7 +27349,7 @@
         <v>1</v>
       </c>
       <c r="C1918">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1918">
         <v>2</v>
@@ -27363,7 +27363,7 @@
         <v>1</v>
       </c>
       <c r="C1919">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1919">
         <v>2</v>
@@ -27377,7 +27377,7 @@
         <v>5</v>
       </c>
       <c r="C1920">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1920">
         <v>2</v>
@@ -27391,7 +27391,7 @@
         <v>3</v>
       </c>
       <c r="C1921">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1921">
         <v>2</v>
@@ -27405,7 +27405,7 @@
         <v>3</v>
       </c>
       <c r="C1922">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1922">
         <v>2</v>
@@ -27419,7 +27419,7 @@
         <v>3</v>
       </c>
       <c r="C1923">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1923">
         <v>2</v>
@@ -27433,7 +27433,7 @@
         <v>3</v>
       </c>
       <c r="C1924">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1924">
         <v>2</v>
@@ -27447,7 +27447,7 @@
         <v>3</v>
       </c>
       <c r="C1925">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1925">
         <v>2</v>
@@ -27461,7 +27461,7 @@
         <v>3</v>
       </c>
       <c r="C1926">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1926">
         <v>2</v>
@@ -27475,7 +27475,7 @@
         <v>4</v>
       </c>
       <c r="C1927">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1927">
         <v>2</v>
@@ -27489,7 +27489,7 @@
         <v>5</v>
       </c>
       <c r="C1928">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1928">
         <v>2</v>
@@ -27503,7 +27503,7 @@
         <v>5</v>
       </c>
       <c r="C1929">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1929">
         <v>2</v>
@@ -27517,7 +27517,7 @@
         <v>1</v>
       </c>
       <c r="C1930">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1930">
         <v>2</v>
@@ -27531,7 +27531,7 @@
         <v>3</v>
       </c>
       <c r="C1931">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1931">
         <v>2</v>
@@ -27545,7 +27545,7 @@
         <v>5</v>
       </c>
       <c r="C1932">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1932">
         <v>2</v>
@@ -27559,7 +27559,7 @@
         <v>5</v>
       </c>
       <c r="C1933">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1933">
         <v>2</v>
@@ -27573,7 +27573,7 @@
         <v>3</v>
       </c>
       <c r="C1934">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1934">
         <v>2</v>
@@ -27587,7 +27587,7 @@
         <v>3</v>
       </c>
       <c r="C1935">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1935">
         <v>2</v>
@@ -27601,7 +27601,7 @@
         <v>5</v>
       </c>
       <c r="C1936">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1936">
         <v>2</v>
@@ -27615,7 +27615,7 @@
         <v>3</v>
       </c>
       <c r="C1937">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1937">
         <v>2</v>
@@ -27629,7 +27629,7 @@
         <v>3</v>
       </c>
       <c r="C1938">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1938">
         <v>2</v>
@@ -27643,7 +27643,7 @@
         <v>5</v>
       </c>
       <c r="C1939">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1939">
         <v>3</v>
@@ -27657,7 +27657,7 @@
         <v>3</v>
       </c>
       <c r="C1940">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1940">
         <v>3</v>
@@ -27671,7 +27671,7 @@
         <v>5</v>
       </c>
       <c r="C1941">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1941">
         <v>3</v>
@@ -27685,7 +27685,7 @@
         <v>4</v>
       </c>
       <c r="C1942">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1942">
         <v>3</v>
@@ -27699,7 +27699,7 @@
         <v>3</v>
       </c>
       <c r="C1943">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1943">
         <v>3</v>
@@ -27713,7 +27713,7 @@
         <v>3</v>
       </c>
       <c r="C1944">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1944">
         <v>3</v>
@@ -27727,7 +27727,7 @@
         <v>3</v>
       </c>
       <c r="C1945">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1945">
         <v>3</v>
@@ -27741,7 +27741,7 @@
         <v>3</v>
       </c>
       <c r="C1946">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1946">
         <v>3</v>
@@ -27755,7 +27755,7 @@
         <v>3</v>
       </c>
       <c r="C1947">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1947">
         <v>3</v>
@@ -27769,7 +27769,7 @@
         <v>5</v>
       </c>
       <c r="C1948">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1948">
         <v>3</v>
@@ -27783,7 +27783,7 @@
         <v>3</v>
       </c>
       <c r="C1949">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1949">
         <v>3</v>
@@ -27797,7 +27797,7 @@
         <v>1</v>
       </c>
       <c r="C1950">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1950">
         <v>3</v>
@@ -27811,7 +27811,7 @@
         <v>2</v>
       </c>
       <c r="C1951">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1951">
         <v>3</v>
@@ -27825,7 +27825,7 @@
         <v>5</v>
       </c>
       <c r="C1952">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1952">
         <v>3</v>
@@ -27839,7 +27839,7 @@
         <v>5</v>
       </c>
       <c r="C1953">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1953">
         <v>3</v>
@@ -27853,7 +27853,7 @@
         <v>5</v>
       </c>
       <c r="C1954">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1954">
         <v>3</v>
@@ -27867,7 +27867,7 @@
         <v>3</v>
       </c>
       <c r="C1955">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1955">
         <v>3</v>
@@ -27881,7 +27881,7 @@
         <v>3</v>
       </c>
       <c r="C1956">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1956">
         <v>3</v>
@@ -27895,7 +27895,7 @@
         <v>3</v>
       </c>
       <c r="C1957">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1957">
         <v>3</v>
@@ -27909,7 +27909,7 @@
         <v>1</v>
       </c>
       <c r="C1958">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1958">
         <v>3</v>
@@ -27923,7 +27923,7 @@
         <v>1</v>
       </c>
       <c r="C1959">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1959">
         <v>3</v>
@@ -27937,7 +27937,7 @@
         <v>5</v>
       </c>
       <c r="C1960">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1960">
         <v>3</v>
@@ -27951,7 +27951,7 @@
         <v>3</v>
       </c>
       <c r="C1961">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1961">
         <v>3</v>
@@ -27965,7 +27965,7 @@
         <v>5</v>
       </c>
       <c r="C1962">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1962">
         <v>3</v>
@@ -27979,7 +27979,7 @@
         <v>3</v>
       </c>
       <c r="C1963">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1963">
         <v>3</v>
@@ -27993,7 +27993,7 @@
         <v>1</v>
       </c>
       <c r="C1964">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1964">
         <v>3</v>
@@ -28007,7 +28007,7 @@
         <v>5</v>
       </c>
       <c r="C1965">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1965">
         <v>3</v>
@@ -28021,7 +28021,7 @@
         <v>5</v>
       </c>
       <c r="C1966">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1966">
         <v>3</v>
@@ -28035,7 +28035,7 @@
         <v>4</v>
       </c>
       <c r="C1967">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1967">
         <v>3</v>
@@ -28049,7 +28049,7 @@
         <v>3</v>
       </c>
       <c r="C1968">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1968">
         <v>3</v>
@@ -28063,7 +28063,7 @@
         <v>3</v>
       </c>
       <c r="C1969">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1969">
         <v>4</v>
@@ -28077,7 +28077,7 @@
         <v>3</v>
       </c>
       <c r="C1970">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1970">
         <v>4</v>
@@ -28091,7 +28091,7 @@
         <v>5</v>
       </c>
       <c r="C1971">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1971">
         <v>4</v>
@@ -28105,7 +28105,7 @@
         <v>5</v>
       </c>
       <c r="C1972">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1972">
         <v>4</v>
@@ -28119,7 +28119,7 @@
         <v>3</v>
       </c>
       <c r="C1973">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1973">
         <v>4</v>
@@ -28133,7 +28133,7 @@
         <v>3</v>
       </c>
       <c r="C1974">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1974">
         <v>4</v>
@@ -28147,7 +28147,7 @@
         <v>3</v>
       </c>
       <c r="C1975">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1975">
         <v>4</v>
@@ -28161,7 +28161,7 @@
         <v>5</v>
       </c>
       <c r="C1976">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1976">
         <v>4</v>
@@ -28175,7 +28175,7 @@
         <v>5</v>
       </c>
       <c r="C1977">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1977">
         <v>4</v>
@@ -28189,7 +28189,7 @@
         <v>1</v>
       </c>
       <c r="C1978">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1978">
         <v>4</v>
@@ -28203,7 +28203,7 @@
         <v>5</v>
       </c>
       <c r="C1979">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1979">
         <v>4</v>
@@ -28217,7 +28217,7 @@
         <v>5</v>
       </c>
       <c r="C1980">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1980">
         <v>4</v>
@@ -28231,7 +28231,7 @@
         <v>5</v>
       </c>
       <c r="C1981">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1981">
         <v>4</v>
@@ -28245,7 +28245,7 @@
         <v>3</v>
       </c>
       <c r="C1982">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1982">
         <v>4</v>
@@ -28259,7 +28259,7 @@
         <v>3</v>
       </c>
       <c r="C1983">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1983">
         <v>4</v>
@@ -28273,7 +28273,7 @@
         <v>3</v>
       </c>
       <c r="C1984">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1984">
         <v>4</v>
@@ -28287,7 +28287,7 @@
         <v>3</v>
       </c>
       <c r="C1985">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1985">
         <v>4</v>
@@ -28301,7 +28301,7 @@
         <v>3</v>
       </c>
       <c r="C1986">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1986">
         <v>4</v>
@@ -28315,7 +28315,7 @@
         <v>3</v>
       </c>
       <c r="C1987">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1987">
         <v>4</v>
@@ -28329,7 +28329,7 @@
         <v>4</v>
       </c>
       <c r="C1988">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1988">
         <v>4</v>
@@ -28343,7 +28343,7 @@
         <v>5</v>
       </c>
       <c r="C1989">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1989">
         <v>4</v>
@@ -28357,7 +28357,7 @@
         <v>5</v>
       </c>
       <c r="C1990">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1990">
         <v>4</v>
@@ -28371,7 +28371,7 @@
         <v>5</v>
       </c>
       <c r="C1991">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1991">
         <v>4</v>
@@ -28385,7 +28385,7 @@
         <v>1</v>
       </c>
       <c r="C1992">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1992">
         <v>4</v>
@@ -28399,7 +28399,7 @@
         <v>5</v>
       </c>
       <c r="C1993">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1993">
         <v>4</v>
@@ -28413,7 +28413,7 @@
         <v>3</v>
       </c>
       <c r="C1994">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1994">
         <v>4</v>
@@ -28427,7 +28427,7 @@
         <v>4</v>
       </c>
       <c r="C1995">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1995">
         <v>4</v>
@@ -28441,7 +28441,7 @@
         <v>5</v>
       </c>
       <c r="C1996">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1996">
         <v>4</v>
@@ -28455,7 +28455,7 @@
         <v>5</v>
       </c>
       <c r="C1997">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1997">
         <v>4</v>
@@ -28469,7 +28469,7 @@
         <v>5</v>
       </c>
       <c r="C1998">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1998">
         <v>4</v>
@@ -28483,7 +28483,7 @@
         <v>3</v>
       </c>
       <c r="C1999">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1999">
         <v>4</v>
@@ -28497,7 +28497,7 @@
         <v>5</v>
       </c>
       <c r="C2000">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2000">
         <v>4</v>
@@ -28511,7 +28511,7 @@
         <v>5</v>
       </c>
       <c r="C2001">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2001">
         <v>4</v>
@@ -28525,7 +28525,7 @@
         <v>1</v>
       </c>
       <c r="C2002">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2002">
         <v>4</v>
@@ -28539,7 +28539,7 @@
         <v>1</v>
       </c>
       <c r="C2003">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2003">
         <v>4</v>
@@ -28553,7 +28553,7 @@
         <v>2</v>
       </c>
       <c r="C2004">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2004">
         <v>4</v>
@@ -28567,7 +28567,7 @@
         <v>5</v>
       </c>
       <c r="C2005">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2005">
         <v>4</v>
@@ -28581,7 +28581,7 @@
         <v>3</v>
       </c>
       <c r="C2006">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2006">
         <v>4</v>
@@ -28595,7 +28595,7 @@
         <v>5</v>
       </c>
       <c r="C2007">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2007">
         <v>4</v>
@@ -28609,7 +28609,7 @@
         <v>5</v>
       </c>
       <c r="C2008">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2008">
         <v>4</v>
@@ -28623,7 +28623,7 @@
         <v>5</v>
       </c>
       <c r="C2009">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2009">
         <v>4</v>
@@ -28637,7 +28637,7 @@
         <v>5</v>
       </c>
       <c r="C2010">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2010">
         <v>4</v>
@@ -28651,7 +28651,7 @@
         <v>3</v>
       </c>
       <c r="C2011">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2011">
         <v>4</v>
@@ -28665,7 +28665,7 @@
         <v>4</v>
       </c>
       <c r="C2012">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2012">
         <v>1</v>
@@ -28679,7 +28679,7 @@
         <v>3</v>
       </c>
       <c r="C2013">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2013">
         <v>1</v>
@@ -28693,7 +28693,7 @@
         <v>3</v>
       </c>
       <c r="C2014">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2014">
         <v>1</v>
@@ -28707,7 +28707,7 @@
         <v>3</v>
       </c>
       <c r="C2015">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2015">
         <v>1</v>
@@ -28721,7 +28721,7 @@
         <v>3</v>
       </c>
       <c r="C2016">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2016">
         <v>1</v>
@@ -28735,7 +28735,7 @@
         <v>5</v>
       </c>
       <c r="C2017">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2017">
         <v>1</v>
@@ -28749,7 +28749,7 @@
         <v>4</v>
       </c>
       <c r="C2018">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2018">
         <v>1</v>
@@ -28763,7 +28763,7 @@
         <v>4</v>
       </c>
       <c r="C2019">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2019">
         <v>1</v>
@@ -28777,7 +28777,7 @@
         <v>1</v>
       </c>
       <c r="C2020">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2020">
         <v>1</v>
@@ -28791,7 +28791,7 @@
         <v>3</v>
       </c>
       <c r="C2021">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2021">
         <v>1</v>
@@ -28805,7 +28805,7 @@
         <v>2</v>
       </c>
       <c r="C2022">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2022">
         <v>1</v>
@@ -28819,7 +28819,7 @@
         <v>5</v>
       </c>
       <c r="C2023">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2023">
         <v>1</v>
@@ -28833,7 +28833,7 @@
         <v>3</v>
       </c>
       <c r="C2024">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2024">
         <v>1</v>
@@ -28847,7 +28847,7 @@
         <v>2</v>
       </c>
       <c r="C2025">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2025">
         <v>1</v>
@@ -28861,7 +28861,7 @@
         <v>1</v>
       </c>
       <c r="C2026">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2026">
         <v>1</v>
@@ -28875,7 +28875,7 @@
         <v>5</v>
       </c>
       <c r="C2027">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2027">
         <v>1</v>
@@ -28889,7 +28889,7 @@
         <v>1</v>
       </c>
       <c r="C2028">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2028">
         <v>1</v>
@@ -28903,7 +28903,7 @@
         <v>3</v>
       </c>
       <c r="C2029">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2029">
         <v>1</v>
@@ -28917,7 +28917,7 @@
         <v>2</v>
       </c>
       <c r="C2030">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2030">
         <v>1</v>
@@ -28931,7 +28931,7 @@
         <v>4</v>
       </c>
       <c r="C2031">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2031">
         <v>1</v>
@@ -28945,7 +28945,7 @@
         <v>5</v>
       </c>
       <c r="C2032">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2032">
         <v>1</v>
@@ -28959,7 +28959,7 @@
         <v>2</v>
       </c>
       <c r="C2033">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2033">
         <v>1</v>
@@ -28973,7 +28973,7 @@
         <v>5</v>
       </c>
       <c r="C2034">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2034">
         <v>1</v>
@@ -28987,7 +28987,7 @@
         <v>4</v>
       </c>
       <c r="C2035">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2035">
         <v>1</v>
@@ -29001,7 +29001,7 @@
         <v>5</v>
       </c>
       <c r="C2036">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2036">
         <v>1</v>
@@ -29015,7 +29015,7 @@
         <v>4</v>
       </c>
       <c r="C2037">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2037">
         <v>1</v>
@@ -29029,7 +29029,7 @@
         <v>3</v>
       </c>
       <c r="C2038">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2038">
         <v>1</v>
@@ -29043,7 +29043,7 @@
         <v>3</v>
       </c>
       <c r="C2039">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2039">
         <v>1</v>
@@ -29057,7 +29057,7 @@
         <v>5</v>
       </c>
       <c r="C2040">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2040">
         <v>1</v>
@@ -29071,7 +29071,7 @@
         <v>5</v>
       </c>
       <c r="C2041">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2041">
         <v>1</v>
@@ -29085,7 +29085,7 @@
         <v>1</v>
       </c>
       <c r="C2042">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2042">
         <v>1</v>
@@ -29099,7 +29099,7 @@
         <v>4</v>
       </c>
       <c r="C2043">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2043">
         <v>2</v>
@@ -29113,7 +29113,7 @@
         <v>1</v>
       </c>
       <c r="C2044">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2044">
         <v>2</v>
@@ -29127,7 +29127,7 @@
         <v>3</v>
       </c>
       <c r="C2045">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2045">
         <v>2</v>
@@ -29141,7 +29141,7 @@
         <v>2</v>
       </c>
       <c r="C2046">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2046">
         <v>2</v>
@@ -29155,7 +29155,7 @@
         <v>3</v>
       </c>
       <c r="C2047">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2047">
         <v>2</v>
@@ -29169,7 +29169,7 @@
         <v>3</v>
       </c>
       <c r="C2048">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2048">
         <v>2</v>
@@ -29183,7 +29183,7 @@
         <v>4</v>
       </c>
       <c r="C2049">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2049">
         <v>2</v>
@@ -29197,7 +29197,7 @@
         <v>4</v>
       </c>
       <c r="C2050">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2050">
         <v>2</v>
@@ -29211,7 +29211,7 @@
         <v>5</v>
       </c>
       <c r="C2051">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2051">
         <v>2</v>
@@ -29225,7 +29225,7 @@
         <v>3</v>
       </c>
       <c r="C2052">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2052">
         <v>2</v>
@@ -29239,7 +29239,7 @@
         <v>4</v>
       </c>
       <c r="C2053">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2053">
         <v>2</v>
@@ -29253,7 +29253,7 @@
         <v>4</v>
       </c>
       <c r="C2054">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2054">
         <v>2</v>
@@ -29267,7 +29267,7 @@
         <v>1</v>
       </c>
       <c r="C2055">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2055">
         <v>2</v>
@@ -29281,7 +29281,7 @@
         <v>3</v>
       </c>
       <c r="C2056">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2056">
         <v>2</v>
@@ -29295,7 +29295,7 @@
         <v>4</v>
       </c>
       <c r="C2057">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2057">
         <v>2</v>
@@ -29309,7 +29309,7 @@
         <v>2</v>
       </c>
       <c r="C2058">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2058">
         <v>2</v>
@@ -29323,7 +29323,7 @@
         <v>1</v>
       </c>
       <c r="C2059">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2059">
         <v>2</v>
@@ -29337,7 +29337,7 @@
         <v>3</v>
       </c>
       <c r="C2060">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2060">
         <v>2</v>
@@ -29351,7 +29351,7 @@
         <v>1</v>
       </c>
       <c r="C2061">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2061">
         <v>2</v>
@@ -29365,7 +29365,7 @@
         <v>4</v>
       </c>
       <c r="C2062">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2062">
         <v>2</v>
@@ -29379,7 +29379,7 @@
         <v>4</v>
       </c>
       <c r="C2063">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2063">
         <v>2</v>
@@ -29393,7 +29393,7 @@
         <v>5</v>
       </c>
       <c r="C2064">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2064">
         <v>2</v>
@@ -29407,7 +29407,7 @@
         <v>2</v>
       </c>
       <c r="C2065">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2065">
         <v>2</v>
@@ -29421,7 +29421,7 @@
         <v>4</v>
       </c>
       <c r="C2066">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2066">
         <v>2</v>
@@ -29435,7 +29435,7 @@
         <v>2</v>
       </c>
       <c r="C2067">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2067">
         <v>2</v>
@@ -29449,7 +29449,7 @@
         <v>2</v>
       </c>
       <c r="C2068">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2068">
         <v>2</v>
@@ -29463,7 +29463,7 @@
         <v>1</v>
       </c>
       <c r="C2069">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2069">
         <v>2</v>
@@ -29477,7 +29477,7 @@
         <v>3</v>
       </c>
       <c r="C2070">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2070">
         <v>2</v>
@@ -29491,7 +29491,7 @@
         <v>5</v>
       </c>
       <c r="C2071">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2071">
         <v>2</v>
@@ -29505,7 +29505,7 @@
         <v>2</v>
       </c>
       <c r="C2072">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2072">
         <v>2</v>
@@ -29519,7 +29519,7 @@
         <v>4</v>
       </c>
       <c r="C2073">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2073">
         <v>3</v>
@@ -29533,7 +29533,7 @@
         <v>2</v>
       </c>
       <c r="C2074">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2074">
         <v>3</v>
@@ -29547,7 +29547,7 @@
         <v>4</v>
       </c>
       <c r="C2075">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2075">
         <v>3</v>
@@ -29561,7 +29561,7 @@
         <v>4</v>
       </c>
       <c r="C2076">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2076">
         <v>3</v>
@@ -29575,7 +29575,7 @@
         <v>5</v>
       </c>
       <c r="C2077">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2077">
         <v>3</v>
@@ -29589,7 +29589,7 @@
         <v>4</v>
       </c>
       <c r="C2078">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2078">
         <v>3</v>
@@ -29603,7 +29603,7 @@
         <v>3</v>
       </c>
       <c r="C2079">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2079">
         <v>3</v>
@@ -29617,7 +29617,7 @@
         <v>4</v>
       </c>
       <c r="C2080">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2080">
         <v>3</v>
@@ -29631,7 +29631,7 @@
         <v>2</v>
       </c>
       <c r="C2081">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2081">
         <v>3</v>
@@ -29645,7 +29645,7 @@
         <v>3</v>
       </c>
       <c r="C2082">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2082">
         <v>3</v>
@@ -29659,7 +29659,7 @@
         <v>4</v>
       </c>
       <c r="C2083">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2083">
         <v>3</v>
@@ -29673,7 +29673,7 @@
         <v>3</v>
       </c>
       <c r="C2084">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2084">
         <v>3</v>
@@ -29687,7 +29687,7 @@
         <v>3</v>
       </c>
       <c r="C2085">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2085">
         <v>3</v>
@@ -29701,7 +29701,7 @@
         <v>2</v>
       </c>
       <c r="C2086">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2086">
         <v>3</v>
@@ -29715,7 +29715,7 @@
         <v>4</v>
       </c>
       <c r="C2087">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2087">
         <v>3</v>
@@ -29729,7 +29729,7 @@
         <v>4</v>
       </c>
       <c r="C2088">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2088">
         <v>3</v>
@@ -29743,7 +29743,7 @@
         <v>2</v>
       </c>
       <c r="C2089">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2089">
         <v>3</v>
@@ -29757,7 +29757,7 @@
         <v>1</v>
       </c>
       <c r="C2090">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2090">
         <v>3</v>
@@ -29771,7 +29771,7 @@
         <v>2</v>
       </c>
       <c r="C2091">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2091">
         <v>3</v>
@@ -29785,7 +29785,7 @@
         <v>4</v>
       </c>
       <c r="C2092">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2092">
         <v>3</v>
@@ -29799,7 +29799,7 @@
         <v>4</v>
       </c>
       <c r="C2093">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2093">
         <v>3</v>
@@ -29813,7 +29813,7 @@
         <v>3</v>
       </c>
       <c r="C2094">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2094">
         <v>3</v>
@@ -29827,7 +29827,7 @@
         <v>3</v>
       </c>
       <c r="C2095">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2095">
         <v>3</v>
@@ -29841,7 +29841,7 @@
         <v>3</v>
       </c>
       <c r="C2096">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2096">
         <v>3</v>
@@ -29855,7 +29855,7 @@
         <v>3</v>
       </c>
       <c r="C2097">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2097">
         <v>3</v>
@@ -29869,7 +29869,7 @@
         <v>4</v>
       </c>
       <c r="C2098">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2098">
         <v>3</v>
@@ -29883,7 +29883,7 @@
         <v>2</v>
       </c>
       <c r="C2099">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2099">
         <v>3</v>
@@ -29897,7 +29897,7 @@
         <v>3</v>
       </c>
       <c r="C2100">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2100">
         <v>3</v>
@@ -29911,7 +29911,7 @@
         <v>4</v>
       </c>
       <c r="C2101">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2101">
         <v>3</v>
@@ -29925,7 +29925,7 @@
         <v>4</v>
       </c>
       <c r="C2102">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2102">
         <v>3</v>
@@ -29939,7 +29939,7 @@
         <v>4</v>
       </c>
       <c r="C2103">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2103">
         <v>4</v>
@@ -29953,7 +29953,7 @@
         <v>4</v>
       </c>
       <c r="C2104">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2104">
         <v>4</v>
@@ -29967,7 +29967,7 @@
         <v>3</v>
       </c>
       <c r="C2105">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2105">
         <v>4</v>
@@ -29981,7 +29981,7 @@
         <v>1</v>
       </c>
       <c r="C2106">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2106">
         <v>4</v>
@@ -29995,7 +29995,7 @@
         <v>3</v>
       </c>
       <c r="C2107">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2107">
         <v>4</v>
@@ -30009,7 +30009,7 @@
         <v>2</v>
       </c>
       <c r="C2108">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2108">
         <v>4</v>
@@ -30023,7 +30023,7 @@
         <v>2</v>
       </c>
       <c r="C2109">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2109">
         <v>4</v>
@@ -30037,7 +30037,7 @@
         <v>3</v>
       </c>
       <c r="C2110">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2110">
         <v>4</v>
@@ -30051,7 +30051,7 @@
         <v>4</v>
       </c>
       <c r="C2111">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2111">
         <v>4</v>
@@ -30065,7 +30065,7 @@
         <v>4</v>
       </c>
       <c r="C2112">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2112">
         <v>4</v>
@@ -30079,7 +30079,7 @@
         <v>2</v>
       </c>
       <c r="C2113">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2113">
         <v>4</v>
@@ -30093,7 +30093,7 @@
         <v>4</v>
       </c>
       <c r="C2114">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2114">
         <v>4</v>
@@ -30107,7 +30107,7 @@
         <v>3</v>
       </c>
       <c r="C2115">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2115">
         <v>4</v>
@@ -30121,7 +30121,7 @@
         <v>4</v>
       </c>
       <c r="C2116">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2116">
         <v>4</v>
@@ -30135,7 +30135,7 @@
         <v>3</v>
       </c>
       <c r="C2117">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2117">
         <v>4</v>
@@ -30149,7 +30149,7 @@
         <v>4</v>
       </c>
       <c r="C2118">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2118">
         <v>4</v>
@@ -30163,7 +30163,7 @@
         <v>4</v>
       </c>
       <c r="C2119">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2119">
         <v>4</v>
@@ -30177,7 +30177,7 @@
         <v>3</v>
       </c>
       <c r="C2120">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2120">
         <v>4</v>
@@ -30191,7 +30191,7 @@
         <v>3</v>
       </c>
       <c r="C2121">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2121">
         <v>4</v>
@@ -30205,7 +30205,7 @@
         <v>4</v>
       </c>
       <c r="C2122">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2122">
         <v>4</v>
@@ -30219,7 +30219,7 @@
         <v>2</v>
       </c>
       <c r="C2123">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2123">
         <v>4</v>
@@ -30233,7 +30233,7 @@
         <v>1</v>
       </c>
       <c r="C2124">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2124">
         <v>4</v>
@@ -30247,7 +30247,7 @@
         <v>3</v>
       </c>
       <c r="C2125">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2125">
         <v>4</v>
@@ -30261,7 +30261,7 @@
         <v>4</v>
       </c>
       <c r="C2126">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2126">
         <v>4</v>
@@ -30275,7 +30275,7 @@
         <v>3</v>
       </c>
       <c r="C2127">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2127">
         <v>4</v>
@@ -30289,7 +30289,7 @@
         <v>3</v>
       </c>
       <c r="C2128">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2128">
         <v>4</v>
@@ -30303,7 +30303,7 @@
         <v>4</v>
       </c>
       <c r="C2129">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2129">
         <v>4</v>
@@ -30317,7 +30317,7 @@
         <v>4</v>
       </c>
       <c r="C2130">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2130">
         <v>4</v>
@@ -30331,7 +30331,7 @@
         <v>3</v>
       </c>
       <c r="C2131">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2131">
         <v>4</v>
@@ -30345,7 +30345,7 @@
         <v>3</v>
       </c>
       <c r="C2132">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2132">
         <v>4</v>
@@ -30359,7 +30359,7 @@
         <v>3</v>
       </c>
       <c r="C2133">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2133">
         <v>4</v>
@@ -30373,7 +30373,7 @@
         <v>2</v>
       </c>
       <c r="C2134">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2134">
         <v>4</v>
@@ -30387,7 +30387,7 @@
         <v>4</v>
       </c>
       <c r="C2135">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2135">
         <v>4</v>
@@ -30401,7 +30401,7 @@
         <v>4</v>
       </c>
       <c r="C2136">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2136">
         <v>4</v>
@@ -30415,7 +30415,7 @@
         <v>2</v>
       </c>
       <c r="C2137">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2137">
         <v>4</v>
@@ -30429,7 +30429,7 @@
         <v>3</v>
       </c>
       <c r="C2138">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2138">
         <v>4</v>
@@ -30443,7 +30443,7 @@
         <v>5</v>
       </c>
       <c r="C2139">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2139">
         <v>4</v>
@@ -30457,7 +30457,7 @@
         <v>2</v>
       </c>
       <c r="C2140">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2140">
         <v>4</v>
@@ -30471,7 +30471,7 @@
         <v>4</v>
       </c>
       <c r="C2141">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2141">
         <v>4</v>
@@ -30485,7 +30485,7 @@
         <v>4</v>
       </c>
       <c r="C2142">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2142">
         <v>4</v>
@@ -30499,7 +30499,7 @@
         <v>4</v>
       </c>
       <c r="C2143">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2143">
         <v>4</v>
@@ -30513,7 +30513,7 @@
         <v>2</v>
       </c>
       <c r="C2144">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2144">
         <v>4</v>
@@ -30527,7 +30527,7 @@
         <v>4</v>
       </c>
       <c r="C2145">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2145">
         <v>4</v>
